--- a/paper/supplementary_tables.xlsx
+++ b/paper/supplementary_tables.xlsx
@@ -11,6 +11,9 @@
     <sheet name="Supplementary Table S1" sheetId="2" r:id="rId2"/>
     <sheet name="Supplementary Table S2" sheetId="3" r:id="rId3"/>
     <sheet name="Supplementary Table S3" sheetId="4" r:id="rId4"/>
+    <sheet name="Supplementary Table S4" sheetId="5" r:id="rId5"/>
+    <sheet name="Supplementary Table S5" sheetId="6" r:id="rId6"/>
+    <sheet name="Supplementary Table S6" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -354,7 +357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -404,7 +407,43 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Significant and near signifcant (unadjusted p &lt; 0.05) differences between individuals excluded from analysis and analyzed study participants. Numeric variables are presented as medians with interquartile ranges (IQR). Categorical variables are presented as percentages and counts within the complete observation set.</t>
+          <t>Significant and near significant (non-adjusted p &lt; 0.05) differences between individuals excluded from analysis and analyzed study participants. Numeric variables are presented as medians with interquartile ranges (IQR). Categorical variables are presented as percentages and counts within the complete observation set.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Supplementary Table S4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Significant and near significant (false discovery rate-adjusted p &lt; 0.1) demographic, socioeconomic, accident-related and mental health factors associated with age. Numeric variables are presented as medians with interquartile ranges (IQR). Categorical variables are presented as percentages and counts within the complete observation set.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Supplementary Table S5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Significant and near significant (false discovery rate-adjusted p &lt; 0.1) demographic, socioeconomic, accident-related and mental health factors associated with gender. Numeric variables are presented as medians with interquartile ranges (IQR). Categorical variables are presented as percentages and counts within the complete observation set.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Supplementary Table S6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Significant and near significant (false discovery rate-adjusted p &lt; 0.1) demographic, socioeconomic, accident-related and mental health factors associated with mental illness. Numeric variables are presented as medians with interquartile ranges (IQR). Categorical variables are presented as percentages and counts within the complete observation set.</t>
         </is>
       </c>
     </row>
@@ -415,7 +454,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C93"/>
+  <dimension ref="A1:C83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -497,12 +536,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>weight</t>
+          <t>education</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Weight class</t>
+          <t>Highest education</t>
         </is>
       </c>
     </row>
@@ -514,12 +553,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>height</t>
+          <t>employment</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Height class</t>
+          <t>Employment status</t>
         </is>
       </c>
     </row>
@@ -531,12 +570,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>education</t>
+          <t>sport profession</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Highest education</t>
+          <t>Sport-related profession</t>
         </is>
       </c>
     </row>
@@ -548,12 +587,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>employment</t>
+          <t>trauma-risk profession</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Employment status</t>
+          <t>Trauma-risk profession</t>
         </is>
       </c>
     </row>
@@ -565,12 +604,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>sport profession</t>
+          <t>income/year</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Sport-related profession</t>
+          <t>Household income class per year</t>
         </is>
       </c>
     </row>
@@ -582,46 +621,46 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>trauma-risk profession</t>
+          <t>residence in the Alps</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Trauma-risk profession</t>
+          <t>Residence in an alpine region</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Demographics</t>
+          <t>Medical history</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>income/year</t>
+          <t>smoking</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Household income class per year</t>
+          <t>Smoking status</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Demographics</t>
+          <t>Medical history</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>residence in the Alps</t>
+          <t>smoking history</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Residence in an alpine region</t>
+          <t>Smoking history</t>
         </is>
       </c>
     </row>
@@ -633,12 +672,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>smoking</t>
+          <t>drug consumption</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Smoking status</t>
+          <t>Drug consumption</t>
         </is>
       </c>
     </row>
@@ -650,12 +689,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>smoking history</t>
+          <t>somatic comorbidity</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Smoking history</t>
+          <t>Somatic comorbidity</t>
         </is>
       </c>
     </row>
@@ -667,12 +706,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>drug consumption</t>
+          <t>somatic comorbidity type</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Drug consumption</t>
+          <t>Somatic comorbidity type</t>
         </is>
       </c>
     </row>
@@ -684,46 +723,46 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>somatic comorbidity</t>
+          <t>mental illness</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Somatic comorbidity</t>
+          <t>Mental comorbidity</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Medical history</t>
+          <t>Prior traumatic events</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>somatic comorbidity type</t>
+          <t>traumatic event before/DIA-X</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Somatic comorbidity type</t>
+          <t>Traumatic event prior to accident, DIA-X tool (also known as CIDI)</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Medical history</t>
+          <t>Prior traumatic events</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>mental illness</t>
+          <t>self-reported traumatic event type</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Mental comorbidity</t>
+          <t>Primary traumatic event type</t>
         </is>
       </c>
     </row>
@@ -735,63 +774,63 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>traumatic event before/DIA-X</t>
+          <t>self-reported traumatic event past</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Traumatic event prior to accident, DIA-X tool (also known as CIDI)</t>
+          <t>Time from the traumatic event</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Prior traumatic events</t>
+          <t>Alpine accident details</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>prior traumatic event number</t>
+          <t>prior sport accidents</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Traumatic event count, DIA-X score</t>
+          <t>Prior sport accidents</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Prior traumatic events</t>
+          <t>Alpine accident details</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>self-reported traumatic event type</t>
+          <t>accident year</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Primary traumatic event type</t>
+          <t>Year of the accident</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Prior traumatic events</t>
+          <t>Alpine accident details</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>self-reported traumatic event past</t>
+          <t>sport type</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Time from the traumatic event</t>
+          <t>Type of sport at the accident</t>
         </is>
       </c>
     </row>
@@ -803,12 +842,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>prior sport accidents</t>
+          <t>alone during the accident</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Prior sport accidents</t>
+          <t>Alone during the accident</t>
         </is>
       </c>
     </row>
@@ -820,12 +859,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>accident year</t>
+          <t>accident culprit</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Year of the accident</t>
+          <t>Accident culprit</t>
         </is>
       </c>
     </row>
@@ -837,12 +876,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>sport type</t>
+          <t>injured persons</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Type of sport at the accident</t>
+          <t>Accident injured persons</t>
         </is>
       </c>
     </row>
@@ -854,97 +893,97 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>alone during the accident</t>
+          <t>rescue</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Alone during the accident</t>
+          <t>Accident rescue</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Alpine accident details</t>
+          <t>Diagnosis and treatment</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>accident culprit</t>
+          <t>injury severity class</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Accident culprit</t>
+          <t>AIS injury severity grade</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Alpine accident details</t>
+          <t>Diagnosis and treatment</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>injured persons</t>
+          <t>head injury</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Accident injured persons</t>
+          <t>Head injury except of face</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Alpine accident details</t>
+          <t>Diagnosis and treatment</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>rescue</t>
+          <t>face injury</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Accident rescue</t>
+          <t>Face injury</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Alpine accident details</t>
+          <t>Diagnosis and treatment</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>rescue waiting time</t>
+          <t>neck injury</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Rescue waiting time</t>
+          <t>Neck injury</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Alpine accident details</t>
+          <t>Diagnosis and treatment</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>rescue mode</t>
+          <t>chest injury</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Rescue modality</t>
+          <t>Chest injury</t>
         </is>
       </c>
     </row>
@@ -956,12 +995,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>injury code</t>
+          <t>abdomen injury</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Code of the injury</t>
+          <t>Abdomen injury</t>
         </is>
       </c>
     </row>
@@ -973,24 +1012,29 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>injury severity</t>
+          <t>spine region injury</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>AIS injury severity grade</t>
+          <t>Spine region injury</t>
         </is>
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Diagnosis and treatment</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>injury severity class</t>
+          <t>upper limb injury</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>AIS injury severity grade</t>
+          <t>Hand, arm or shoulder injury</t>
         </is>
       </c>
     </row>
@@ -1002,12 +1046,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>head injury</t>
+          <t>lower limb injury</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Head injury except of face</t>
+          <t>Leg, foot or hip injury</t>
         </is>
       </c>
     </row>
@@ -1019,12 +1063,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>face injury</t>
+          <t>other injury</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Face injury</t>
+          <t>Other external injury</t>
         </is>
       </c>
     </row>
@@ -1036,284 +1080,284 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>neck injury</t>
+          <t>psychological support</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Neck injury</t>
+          <t>Psychological support after the accident</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Diagnosis and treatment</t>
+          <t>Alpine accident outcome</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>chest injury</t>
+          <t>somatic accident aftermath</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Chest injury</t>
+          <t>Accident consequences felt, somatic health</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Diagnosis and treatment</t>
+          <t>Alpine accident outcome</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>abdomen injury</t>
+          <t>returned to same sport</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Abdomen injury</t>
+          <t>Returned to the same sport activity post accident</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Diagnosis and treatment</t>
+          <t>Alpine accident outcome</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>spine region injury</t>
+          <t>behavior post accident</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Spine region injury</t>
+          <t>Behavior after accident</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Diagnosis and treatment</t>
+          <t>Alpine accident outcome</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>upper limb injury</t>
+          <t>flashbacks during sport</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Hand, arm or shoulder injury</t>
+          <t>Flashback during sport activity</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Diagnosis and treatment</t>
+          <t>Alpine accident outcome</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>lower limb injury</t>
+          <t>flashback frequency</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Leg, foot or hip injury</t>
+          <t>Flashback frequency</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Diagnosis and treatment</t>
+          <t>Alpine accident outcome</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>other injury</t>
+          <t>confusion during sport</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Other external injury</t>
+          <t>Confusion during sport activity</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Diagnosis and treatment</t>
+          <t>PTSD assessment</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>psych. support need</t>
+          <t>PCL-5 DSM-5 score</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Psychological support needed, self-report</t>
+          <t>PTSD rating, PCL-5 DSM-5</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Diagnosis and treatment</t>
+          <t>PTSD assessment</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>psychological support</t>
+          <t>PTSD+ (PCL-5 DSM-5 &gt;31)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Psychological support after the accident</t>
+          <t>PTSD symptoms, PCL-5 DSM5</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Diagnosis and treatment</t>
+          <t>PTSD assessment</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>psych. support assessment</t>
+          <t>PTSD+ (at least one cluster)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Psychological support assessment</t>
+          <t>At least one PCL-5 DSM-5 cluster positive</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Diagnosis and treatment</t>
+          <t>PTSD assessment</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>psychological therapy post accident</t>
+          <t>PCL-5 DSM-5 cluster B score</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Psychological /psychiatric therapy after the accident</t>
+          <t>PTSD rating, PCL-5 DSM-5 cluster B</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Alpine accident outcome</t>
+          <t>PTSD assessment</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>somatic accident aftermath</t>
+          <t>PTSD cluster B+</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Accident consequences felt, somatic health</t>
+          <t>PTSD symptoms, PCL-5 DSM-5 cluster B positive</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Alpine accident outcome</t>
+          <t>PTSD assessment</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>returned to same sport</t>
+          <t>PCL-5 DSM-5 cluster C score</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Returned to the same sport activity post accident</t>
+          <t>PTSD rating, PCL-5 DSM-5 cluster C</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Alpine accident outcome</t>
+          <t>PTSD assessment</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>behavior post accident</t>
+          <t>PTSD cluster C+</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Behavior after accident</t>
+          <t>PTSD symptoms, PCL-5 DSM-5 cluster C positive</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Alpine accident outcome</t>
+          <t>PTSD assessment</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>flashbacks during sport</t>
+          <t>PCL-5 DSM-5 cluster D score</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Flashback during sport activity</t>
+          <t>PTSD rating, PCL-5 DSM-5 cluster D</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Alpine accident outcome</t>
+          <t>PTSD assessment</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>flashback frequency</t>
+          <t>PTSD cluster D+</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Flashback frequency</t>
+          <t>PTSD symptoms, PCL-5 DSM-5 cluster D positive</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Alpine accident outcome</t>
+          <t>PTSD assessment</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>confusion during sport</t>
+          <t>PCL-5 DSM-5 cluster E score</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Confusion during sport activity</t>
+          <t>PTSD rating, PCL-5 DSM-5 cluster E</t>
         </is>
       </c>
     </row>
@@ -1325,673 +1369,503 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>PCL-5 DSM-5 score</t>
+          <t>PTSD cluster E+</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>PTSD rating, PCL-5 DSM-5</t>
+          <t>PTSD symptoms, PCL-5 DSM-5 cluster E positive</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>PTSD assessment</t>
+          <t>PTG assessment</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>PTSD+ (PCL-5 DSM-5 &gt;31)</t>
+          <t>PTGI score</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>PTSD symptoms, PCL-5 DSM5</t>
+          <t>PTGI scoring</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>PTSD assessment</t>
+          <t>PTG assessment</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>PTSD+ (at least one cluster)</t>
+          <t>PTGI I relations score</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>At least one PCL-5 DSM-5 cluster positive</t>
+          <t>PTGI scoring, factor I, relations</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>PTSD assessment</t>
+          <t>PTG assessment</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>PCL-5 DSM-5 cluster B score</t>
+          <t>PTGI II possibilities score</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>PTSD rating, PCL-5 DSM-5 cluster B</t>
+          <t>PTGI scoring, factor II, new possibilities</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>PTSD assessment</t>
+          <t>PTG assessment</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>PTSD cluster B+</t>
+          <t>PTGI III personal strength score</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>PTSD symptoms, PCL-5 DSM-5 cluster B positive</t>
+          <t>PTGI scoring, factor III, personal strength</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>PTSD assessment</t>
+          <t>PTG assessment</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>PCL-5 DSM-5 cluster C score</t>
+          <t>PTGI IV spiritual score</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>PTSD rating, PCL-5 DSM-5 cluster C</t>
+          <t>PTGI scoring, factor IV, spiritual</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>PTSD assessment</t>
+          <t>PTG assessment</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>PTSD cluster C+</t>
+          <t>PTGI V life appreciation score</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>PTSD symptoms, PCL-5 DSM-5 cluster C positive</t>
+          <t>PTGI scoring, factor V, appreciation of life</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>PTSD assessment</t>
+          <t>Resilient coping</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>PCL-5 DSM-5 cluster D score</t>
+          <t>RS13 score</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>PTSD rating, PCL-5 DSM-5 cluster D</t>
+          <t>RS13 score</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>PTSD assessment</t>
+          <t>Resilient coping</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>PTSD cluster D+</t>
+          <t>RS13 coping class</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>PTSD symptoms, PCL-5 DSM-5 cluster D positive</t>
+          <t>RS13 coping class</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>PTSD assessment</t>
+          <t>Alcohol and drug abuse</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>PCL-5 DSM-5 cluster E score</t>
+          <t>CAGE score</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>PTSD rating, PCL-5 DSM-5 cluster E</t>
+          <t>CAGE score</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>PTSD assessment</t>
+          <t>Alcohol and drug abuse</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>PTSD cluster E+</t>
+          <t>Abuse+ (CAGE ≥2)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>PTSD symptoms, PCL-5 DSM-5 cluster E positive</t>
+          <t>Abuse+ (CAGE ≥2)</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>PTG assessment</t>
+          <t>Psychosocial stress</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>PTGI score</t>
+          <t>PSS4 score</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>PTGI scoring</t>
+          <t>PSS4 score</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>PTG assessment</t>
+          <t>Sense of coherence</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>PTGI I relations score</t>
+          <t>SOC-9L score</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>PTGI scoring, factor I, relations</t>
+          <t>SOC-9L score</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>PTG assessment</t>
+          <t>PHQ mental health</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>PTGI II possibilities score</t>
+          <t>PHQ-9 score</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>PTGI scoring, factor II, new possibilities</t>
+          <t>PHQ-9 score, depression</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>PTG assessment</t>
+          <t>PHQ mental health</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>PTGI III personal strength score</t>
+          <t>Depression+ (PHQ-9 ≥11)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>PTGI scoring, factor III, personal strength</t>
+          <t>PHQ-9 score, depression signs</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>PTG assessment</t>
+          <t>PHQ mental health</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>PTGI IV spiritual score</t>
+          <t>GAD-7 score</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>PTGI scoring, factor IV, spiritual</t>
+          <t>GAD-7 score, anxiety</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>PTG assessment</t>
+          <t>PHQ mental health</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>PTGI V life appreciation score</t>
+          <t>Anxiety+ (GAD-7 ≥10)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>PTGI scoring, factor V, appreciation of life</t>
+          <t>GAD-7 score, anxiety signs</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Resilient coping</t>
+          <t>PHQ mental health</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>RS13 score</t>
+          <t>PHQ-panic score</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>RS13 score</t>
+          <t>PHQ panic 4 item score</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Resilient coping</t>
+          <t>PHQ mental health</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>RS13 coping class</t>
+          <t>Panic+ (PHQ-panic)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>RS13 coping class</t>
+          <t>PHQ panic positivity</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Alcohol and drug abuse</t>
+          <t>PHQ mental health</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>CAGE score</t>
+          <t>PHQ-15 score</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>CAGE score</t>
+          <t>PHQ-15 health problems, somatization</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Alcohol and drug abuse</t>
+          <t>PHQ mental health</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Abuse+ (CAGE ≥2)</t>
+          <t>Somatization+ (PHQ-15 ≥11)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Abuse+ (CAGE ≥2)</t>
+          <t>PHQ-15 health problems, moderate-severe symptoms</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Psychosocial stress</t>
+          <t>Quality of life</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>PSS4 score</t>
+          <t>EUROHIS-QOL 8 score</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>PSS4 score</t>
+          <t>EUROHIS-QOL 8 score</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Sense of coherence</t>
+          <t>Quality of life</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>SOC-9L score</t>
+          <t>EUROHIS-QOL 8 QoL score</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>SOC-9L score</t>
+          <t>EUROHIS-QOL 8 score QoL problems</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>PHQ mental health</t>
+          <t>Quality of life</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>PHQ-9 score</t>
+          <t>EUROHIS-QOL 8 health score</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>PHQ-9 score, depression</t>
+          <t>EUROHIS-QOL 8 score health problems</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>PHQ mental health</t>
+          <t>Quality of life</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Depression+ (PHQ-9 ≥11)</t>
+          <t>EUROHIS-QOL 8 energy score</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>PHQ-9 score, depression signs</t>
+          <t>EUROHIS-QOL 8 score energy problems</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>PHQ mental health</t>
+          <t>Quality of life</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>GAD-7 score</t>
+          <t>EUROHIS-QOL 8 finances score</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>GAD-7 score, anxiety</t>
+          <t>EUROHIS-QOL 8 score financial problems</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>PHQ mental health</t>
+          <t>Quality of life</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Anxiety+ (GAD-7 ≥10)</t>
+          <t>EUROHIS-QOL 8 activity score</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>GAD-7 score, anxiety signs</t>
+          <t>EUROHIS-QOL 8 score activity problems</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>PHQ mental health</t>
+          <t>Quality of life</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>PHQ-panic score</t>
+          <t>EUROHIS-QOL 8 self-esteem score</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>PHQ panic 4 item score</t>
+          <t>EUROHIS-QOL 8 score self-esteem problems</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>PHQ mental health</t>
+          <t>Quality of life</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Panic+ (PHQ-panic)</t>
+          <t>EUROHIS-QOL 8 relationship score</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>PHQ panic positivity</t>
+          <t>EUROHIS-QOL 8 score relationship problems</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>PHQ mental health</t>
+          <t>Quality of life</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>PHQ-15 score</t>
+          <t>EUROHIS-QOL 8 housing score</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
-        <is>
-          <t>PHQ-15 health problems, somatization</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>PHQ mental health</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>Somatization+ (PHQ-15 ≥11)</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>PHQ-15 health problems, moderate-severe symptoms</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>Quality of life</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>EUROHIS-QOL 8 score</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>EUROHIS-QOL 8 score</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>Quality of life</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>EUROHIS-QOL 8 QoL score</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>EUROHIS-QOL 8 score QoL problems</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>Quality of life</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>EUROHIS-QOL 8 health score</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>EUROHIS-QOL 8 score health problems</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>Quality of life</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>EUROHIS-QOL 8 energy score</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>EUROHIS-QOL 8 score energy problems</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>Quality of life</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>EUROHIS-QOL 8 finances score</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>EUROHIS-QOL 8 score financial problems</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>Quality of life</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>EUROHIS-QOL 8 activity score</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>EUROHIS-QOL 8 score activity problems</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>Quality of life</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>EUROHIS-QOL 8 self-esteem score</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>EUROHIS-QOL 8 score self-esteem problems</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>Quality of life</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>EUROHIS-QOL 8 relationship score</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>EUROHIS-QOL 8 score relationship problems</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>Quality of life</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>EUROHIS-QOL 8 housing score</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
         <is>
           <t>EUROHIS-QOL 8 score housing problems</t>
         </is>
@@ -2714,7 +2588,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2775,7 +2649,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ns (p = 0.12)</t>
+          <t>ns (p = 0.11)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -2812,7 +2686,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>p = 0.029</t>
+          <t>p = 0.026</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -2824,41 +2698,10 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>injury severity, AIS score</t>
+          <t>injury severity class, AIS score</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
-        <is>
-          <t>2 [IQR: 1 - 3]
-range: 1 - 5
-n = 279</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2 [IQR: 1 - 2]
-range: 1 - 4
-n = 70</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>ns (p = 0.24)</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>r = 0.12</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>injury severity class, AIS score</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
         <is>
           <t>1: 37% (n = 104)
 2: 33% (n = 93)
@@ -2866,7 +2709,7 @@
 n = 279</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>1: 46% (n = 32)
 2: 40% (n = 28)
@@ -2874,38 +2717,67 @@
 n = 70</t>
         </is>
       </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>ns (p = 0.23)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>V = 0.14</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>upper limb injury</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>42% (n = 118)
+n = 279</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>57% (n = 40)
+n = 70</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ns (p = 0.24)</t>
+          <t>ns (p = 0.23)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>V = 0.14</t>
+          <t>V = 0.12</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>upper limb injury</t>
+          <t>somatic accident aftermath</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>42% (n = 118)
-n = 279</t>
+          <t>37% (n = 115)
+n = 307</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>57% (n = 40)
-n = 70</t>
+          <t>22% (n = 12)
+n = 55</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ns (p = 0.24)</t>
+          <t>ns (p = 0.23)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -2917,215 +2789,1117 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>somatic accident aftermath</t>
+          <t>PTGI score</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
-        <is>
-          <t>37% (n = 115)
-n = 307</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>22% (n = 12)
-n = 55</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>ns (p = 0.24)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>V = 0.12</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>PTGI score</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
         <is>
           <t>32 [IQR: 16 - 48]
 range: 0 - 100
 n = 307</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>8.5 [IQR: 3 - 41]
 range: 0 - 78
 n = 18</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>ns (p = 0.24)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ns (p = 0.23)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>r = 0.12</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>PTGI I relations score</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>12 [IQR: 6 - 18]
 range: 0 - 35
 n = 307</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>2.5 [IQR: 0 - 13]
 range: 0 - 28
 n = 18</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>ns (p = 0.12)</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ns (p = 0.11)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>r = 0.15</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>PTGI III personal strength score</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>8 [IQR: 4 - 11]
 range: 0 - 20
 n = 307</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>4.5 [IQR: 0 - 8.8]
 range: 0 - 16
 n = 18</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>ns (p = 0.24)</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>ns (p = 0.23)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>r = 0.12</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>PTGI V life appreciation score</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>6 [IQR: 2 - 9]
 range: 0 - 15
 n = 307</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>1.5 [IQR: 0.25 - 6.8]
 range: 0 - 12
 n = 18</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>ns (p = 0.27)</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ns (p = 0.28)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>r = 0.11</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>PSS4 score</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>4 [IQR: 3 - 6]
 range: 0 - 14
 n = 307</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>5.5 [IQR: 4 - 7]
 range: 0 - 9
 n = 42</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>ns (p = 0.24)</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ns (p = 0.23)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>r = 0.12</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>SOC-9L score</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>19 [IQR: 16 - 25]
 range: 10 - 49
 n = 307</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>27 [IQR: 20 - 35]
 range: 17 - 50
 n = 11</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>ns (p = 0.12)</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ns (p = 0.11)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>r = 0.15</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variable</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Young adult</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Middle-aged</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Elderly</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>significance (FDR)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Effect size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>employment</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>employed: 54% (n = 33)
+household: 0% (n = 0)
+unemployed: 0% (n = 0)
+student: 46% (n = 28)
+retired: 0% (n = 0)
+n = 61</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>employed: 85% (n = 172)
+household: 3.5% (n = 7)
+unemployed: 0.5% (n = 1)
+student: 1.5% (n = 3)
+retired: 9.4% (n = 19)
+n = 202</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>employed: 11% (n = 5)
+household: 6.8% (n = 3)
+unemployed: 0% (n = 0)
+student: 2.3% (n = 1)
+retired: 80% (n = 35)
+n = 44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>V = 0.63</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>income/year</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>no income: 18% (n = 11)
+&lt; 15000 Euro: 16% (n = 10)
+15000 - 30000 Euro: 21% (n = 13)
+30000 - 45000 Euro: 18% (n = 11)
+&gt; 45000 Euro: 26% (n = 16)
+n = 61</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>no income: 19% (n = 38)
+&lt; 15000 Euro: 3% (n = 6)
+15000 - 30000 Euro: 10% (n = 21)
+30000 - 45000 Euro: 19% (n = 38)
+&gt; 45000 Euro: 49% (n = 99)
+n = 202</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>no income: 32% (n = 14)
+&lt; 15000 Euro: 2.3% (n = 1)
+15000 - 30000 Euro: 11% (n = 5)
+30000 - 45000 Euro: 23% (n = 10)
+&gt; 45000 Euro: 32% (n = 14)
+n = 44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>p = 0.0033</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>V = 0.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>alone during the accident</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>15% (n = 9)
+n = 61</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>33% (n = 67)
+n = 202</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>48% (n = 21)
+n = 44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>p = 0.019</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>V = 0.21</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>rescue</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>self: 57% (n = 35)
+tour partner: 8.2% (n = 5)
+rescue team: 30% (n = 18)
+third party: 4.9% (n = 3)
+n = 61</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>self: 51% (n = 104)
+tour partner: 14% (n = 29)
+rescue team: 29% (n = 58)
+third party: 5.4% (n = 11)
+n = 202</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>self: 36% (n = 16)
+tour partner: 11% (n = 5)
+rescue team: 30% (n = 13)
+third party: 23% (n = 10)
+n = 44</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ns (p = 0.06)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>V = 0.17</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>PTGI V life appreciation score</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>4 [IQR: 0 - 7]
+range: 0 - 15
+n = 61</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>7 [IQR: 3 - 9]
+range: 0 - 15
+n = 202</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5 [IQR: 2 - 8.2]
+range: 0 - 13
+n = 44</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>ns (p = 0.06)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>η² = 0.028</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>SOC-9L score</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>22 [IQR: 20 - 31]
+range: 11 - 41
+n = 61</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>18 [IQR: 16 - 23]
+range: 10 - 49
+n = 202</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>19 [IQR: 16 - 21]
+range: 13 - 31
+n = 44</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>η² = 0.07</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>PHQ-panic score</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0 [IQR: 0 - 0]
+range: 0 - 4
+n = 61</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0 [IQR: 0 - 0]
+range: 0 - 4
+n = 202</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0 [IQR: 0 - 0]
+range: 0 - 2
+n = 44</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>p = 0.0079</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>η² = 0.045</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>EUROHIS-QOL 8 housing score</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1 [IQR: 1 - 2]
+range: 1 - 5
+n = 61</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1 [IQR: 1 - 2]
+range: 1 - 5
+n = 202</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1 [IQR: 1 - 1]
+range: 1 - 5
+n = 44</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>ns (p = 0.06)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>η² = 0.027</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variable</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Significance (FDR)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Effect size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>income/year</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>no income: 25% (n = 34)
+&lt; 15000 Euro: 8% (n = 11)
+15000 - 30000 Euro: 17% (n = 23)
+30000 - 45000 Euro: 20% (n = 27)
+&gt; 45000 Euro: 31% (n = 42)
+n = 137</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>no income: 17% (n = 29)
+&lt; 15000 Euro: 3.5% (n = 6)
+15000 - 30000 Euro: 9.4% (n = 16)
+30000 - 45000 Euro: 19% (n = 32)
+&gt; 45000 Euro: 51% (n = 87)
+n = 170</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>ns (p = 0.052)</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>V = 0.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>upper limb injury</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>33% (n = 42)
+n = 126</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>50% (n = 76)
+n = 153</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>ns (p = 0.1)</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>V = 0.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>PCL-5 DSM-5 cluster C score</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0 [IQR: 0 - 1]
+range: 0 - 8
+n = 137</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0 [IQR: 0 - 0]
+range: 0 - 5
+n = 170</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>p = 0.037</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>r = 0.18</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>PTGI score</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>35 [IQR: 24 - 52]
+range: 0 - 100
+n = 137</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>28 [IQR: 10 - 45]
+range: 0 - 94
+n = 170</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>p = 0.037</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>r = 0.18</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>PTGI I relations score</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>14 [IQR: 9 - 20]
+range: 0 - 35
+n = 137</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>11 [IQR: 5 - 17]
+range: 0 - 34
+n = 170</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ns (p = 0.082)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>r = 0.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>PTGI III personal strength score</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>9 [IQR: 6 - 12]
+range: 0 - 20
+n = 137</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>7 [IQR: 2 - 11]
+range: 0 - 19
+n = 170</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>p = 0.031</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>r = 0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>PTGI V life appreciation score</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>7 [IQR: 4 - 9]
+range: 0 - 15
+n = 137</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>4 [IQR: 1.2 - 8]
+range: 0 - 15
+n = 170</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>p = 0.037</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>r = 0.18</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variable</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>No mental illness</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Mental illness</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Significance (FDR)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Effect size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>smoking</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>6.9% (n = 20)
+n = 291</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>25% (n = 4)
+n = 16</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>ns (p = 0.094)</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>V = 0.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>smoking history, years</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0 [IQR: 0 - 0]
+range: 0 - 50
+n = 291</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0 [IQR: 0 - 2.5]
+range: 0 - 30
+n = 16</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>p = 0.034</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>r = 0.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>self-reported traumatic event type</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>none: 89% (n = 259)
+severe accident: 6.5% (n = 19)
+physical assult: 1.4% (n = 4)
+sexual molestation: 0.69% (n = 2)
+rape: 0% (n = 0)
+severe disease: 1.7% (n = 5)
+natural diseaster: 0.34% (n = 1)
+war: 0.34% (n = 1)
+n = 291</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>none: 75% (n = 12)
+severe accident: 0% (n = 0)
+physical assult: 6.2% (n = 1)
+sexual molestation: 0% (n = 0)
+rape: 6.2% (n = 1)
+severe disease: 6.2% (n = 1)
+natural diseaster: 6.2% (n = 1)
+war: 0% (n = 0)
+n = 16</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>V = 0.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>flashbacks during sport</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>37% (n = 108)
+n = 291</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>88% (n = 14)
+n = 16</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>V = 0.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>flashback frequency</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>no flashbacks: 63% (n = 183)
+&gt; 1 – 2 per week: 2.7% (n = 8)
+several per month: 4.8% (n = 14)
+1 – 2 per month: 8.9% (n = 26)
+1 – 2 per year: 21% (n = 60)
+n = 291</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>no flashbacks: 12% (n = 2)
+&gt; 1 – 2 per week: 0% (n = 0)
+several per month: 12% (n = 2)
+1 – 2 per month: 25% (n = 4)
+1 – 2 per year: 50% (n = 8)
+n = 16</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>p = 0.0039</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>V = 0.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>PCL-5 DSM-5 score</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>3 [IQR: 1 - 6]
+range: 0 - 44
+n = 291</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>10 [IQR: 3.8 - 18]
+range: 0 - 29
+n = 16</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>p = 0.0053</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>r = 0.18</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>PTSD+ (at least one cluster)</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>18% (n = 51)
+n = 291</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>44% (n = 7)
+n = 16</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ns (p = 0.07)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>V = 0.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>EUROHIS-QOL 8 score</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1.6 [IQR: 1.4 - 1.9]
+range: 1 - 4
+n = 291</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2.5 [IQR: 2.2 - 2.8]
+range: 1.4 - 3.2
+n = 16</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>r = 0.27</t>
         </is>
       </c>
     </row>

--- a/paper/supplementary_tables.xlsx
+++ b/paper/supplementary_tables.xlsx
@@ -14,6 +14,7 @@
     <sheet name="Supplementary Table S4" sheetId="5" r:id="rId5"/>
     <sheet name="Supplementary Table S5" sheetId="6" r:id="rId6"/>
     <sheet name="Supplementary Table S6" sheetId="7" r:id="rId7"/>
+    <sheet name="Supplementary Table S7" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -357,7 +358,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -407,7 +408,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Significant and near significant (non-adjusted p &lt; 0.05) differences between individuals excluded from analysis and analyzed study participants. Numeric variables are presented as medians with interquartile ranges (IQR). Categorical variables are presented as percentages and counts within the complete observation set.</t>
+          <t>Consistency of the psychometric tools used in the study measured by McDonald's omega.</t>
         </is>
       </c>
     </row>
@@ -419,7 +420,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Significant and near significant (false discovery rate-adjusted p &lt; 0.1) demographic, socioeconomic, accident-related and mental health factors associated with age. Numeric variables are presented as medians with interquartile ranges (IQR). Categorical variables are presented as percentages and counts within the complete observation set.</t>
+          <t>Significant differences between individuals excluded from analysis and analyzed study participants. Numeric variables are presented as medians with interquartile ranges (IQR). Categorical variables are presented as percentages and counts within the complete observation set.</t>
         </is>
       </c>
     </row>
@@ -431,7 +432,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Significant and near significant (false discovery rate-adjusted p &lt; 0.1) demographic, socioeconomic, accident-related and mental health factors associated with gender. Numeric variables are presented as medians with interquartile ranges (IQR). Categorical variables are presented as percentages and counts within the complete observation set.</t>
+          <t>Significant and near-significant (p &lt; 0.1) differences between the training and test subsets of the study cohort. Numeric variables are presented as medians with interquartile ranges (IQR). Categorical variables are presented as percentages and counts within the complete observation set.</t>
         </is>
       </c>
     </row>
@@ -443,7 +444,19 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Significant and near significant (false discovery rate-adjusted p &lt; 0.1) demographic, socioeconomic, accident-related and mental health factors associated with mental illness. Numeric variables are presented as medians with interquartile ranges (IQR). Categorical variables are presented as percentages and counts within the complete observation set.</t>
+          <t>Differences in psychometric clustering factors between the mental clusters. Numeric variables are presented as medians with interquartile ranges (IQR). The table is available in a supplementary Excel file.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Supplementary Table S7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Significant and near-significant (p &lt; 0.1) differences in demographic, socioeconomic, clinical and accident-related factors between the mental clusters. Numeric variables are presented as medians with interquartile ranges (IQR). Categorical variables are presented as percentages and counts within the complete observation set. The table is available in a supplementary Excel file.</t>
         </is>
       </c>
     </row>
@@ -454,7 +467,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C83"/>
+  <dimension ref="A1:F87"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -463,7 +476,7 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Section</t>
+          <t>Variable name in R</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -474,1400 +487,2208 @@
       <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Description</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Format</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Unit</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Categories</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Demographics</t>
+          <t>age</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>age, accident</t>
+          <t>age</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>Age at the accident</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>numeric</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>years</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Demographics</t>
+          <t>age_class</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>hospitalization – survey time</t>
+          <t>age class</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Time between the accident and survey</t>
+          <t>Age class at the accident: young (up to 30), middle (31 – 65), elderly (66 and more years)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>factor</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>young, middle, elderly</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Demographics</t>
+          <t>obs_time</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>sex</t>
+          <t>ward – survey time</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Time between the accident and survey</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>numeric</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>days</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Demographics</t>
+          <t>accident_season</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>education</t>
+          <t>accident season</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Highest education</t>
+          <t>Season of the accident</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>factor</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>spring, summer, fall, winter</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Demographics</t>
+          <t>accident_daytime</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>employment</t>
+          <t>accident daytime</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Employment status</t>
+          <t>Daytime of the accident</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>factor</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>day, night</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Demographics</t>
+          <t>sex</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>sport profession</t>
+          <t>sex</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Sport-related profession</t>
+          <t>Sex</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>factor</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>female, male</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Demographics</t>
+          <t>education</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>trauma-risk profession</t>
+          <t>education</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Trauma-risk profession</t>
+          <t>Highest education</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>factor</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>primary/apprenticeship, secondary, tertiary</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Demographics</t>
+          <t>employment_status</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>income/year</t>
+          <t>employment</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Household income class per year</t>
+          <t>Employment status</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>factor</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>employed, unemployed, student, retired</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Demographics</t>
+          <t>sport_profession</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>residence in the Alps</t>
+          <t>sport profession</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Residence in an alpine region</t>
+          <t>Sport-related profession</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>factor</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>no, yes</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Medical history</t>
+          <t>trauma_risk_profession</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>smoking</t>
+          <t>trauma-risk profession</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Smoking status</t>
+          <t>Trauma-risk profession</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>factor</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>no, yes</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Medical history</t>
+          <t>medical_profession</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>smoking history</t>
+          <t>healthcare profession</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Smoking history</t>
+          <t>Healthcare profession</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>factor</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>no, yes</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Medical history</t>
+          <t>household_income_class</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>drug consumption</t>
+          <t>income/year</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Drug consumption</t>
+          <t>Household income class per year</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>factor</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>no income, &lt; 30000 EUR, 30000 - 45000 EUR, ≥ 45000 EUR</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Medical history</t>
+          <t>high_income</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>somatic comorbidity</t>
+          <t>income ≥ 45K EUR/year</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Somatic comorbidity</t>
+          <t>Household income &gt;= 45000 EUR per year</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>factor</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>no, yes</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Medical history</t>
+          <t>residence_alpine_region</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>somatic comorbidity type</t>
+          <t>residence in the Alps</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Somatic comorbidity type</t>
+          <t>Residence in an alpine region</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>factor</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>no, yes</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Medical history</t>
+          <t>smoking_status</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>mental illness</t>
+          <t>smoking</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Mental comorbidity</t>
+          <t>Smoking status</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>factor</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>no, yes</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Prior traumatic events</t>
+          <t>somatic_comorbidity</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>traumatic event before/DIA-X</t>
+          <t>somatic illness</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Traumatic event prior to accident, DIA-X tool (also known as CIDI)</t>
+          <t>Somatic illness</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>factor</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>no, yes</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Prior traumatic events</t>
+          <t>psych_comorbidity</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>self-reported traumatic event type</t>
+          <t>mental illness</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Primary traumatic event type</t>
+          <t>Mental illness</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>factor</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>no, yes</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Prior traumatic events</t>
+          <t>traumatic_event</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>self-reported traumatic event past</t>
+          <t>prior traumatic event/DIA-X</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Time from the traumatic event</t>
+          <t>Traumatic event prior to accident (DIA-X ≥ 1)</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>factor</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>no, yes</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Alpine accident details</t>
+          <t>cage_total_class</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>prior sport accidents</t>
+          <t>substance abuse (CAGE ≥2)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Prior sport accidents</t>
+          <t>Substance abuse (CAGE ≥2)</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>factor</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>negative, positive</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Alpine accident details</t>
+          <t>prior_accident</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>accident year</t>
+          <t>prior sport accidents</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Year of the accident</t>
+          <t>Prior sport accidents</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>factor</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>no, yes</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Alpine accident details</t>
+          <t>accident_year</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>sport type</t>
+          <t>accident year</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Type of sport at the accident</t>
+          <t>Year of the accident</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>factor</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2018, 2019, 2020</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Alpine accident details</t>
+          <t>sport_type</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>alone during the accident</t>
+          <t>sport type</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Alone during the accident</t>
+          <t>Type of sport at the accident</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>factor</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>ski/snowboard, sledding, mountain, biking, other</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Alpine accident details</t>
+          <t>accident_alone</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>accident culprit</t>
+          <t>alone during the accident</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Accident culprit</t>
+          <t>Alone during the accident</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>factor</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>no, yes</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Alpine accident details</t>
+          <t>accident_culprit</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>injured persons</t>
+          <t>accident culprit</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Accident injured persons</t>
+          <t>Accident culprit</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>factor</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>self, non-self</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Alpine accident details</t>
+          <t>accident_injured_persons</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>rescue</t>
+          <t>injured persons</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Accident rescue</t>
+          <t>Accident injured persons</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>factor</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>only self, self and partner, 3+ persons, no information</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Diagnosis and treatment</t>
+          <t>accident_rescue</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>injury severity class</t>
+          <t>rescue</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>AIS injury severity grade</t>
+          <t>Accident rescue</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>factor</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>self, partner/third party, rescue team</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Diagnosis and treatment</t>
+          <t>accident_rescue_mode</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>head injury</t>
+          <t>rescue mode</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Head injury except of face</t>
+          <t>Accident rescue mode</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>factor</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>no professional rescue, airborne, on ground, other</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Diagnosis and treatment</t>
+          <t>injury_sev_strata</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>face injury</t>
+          <t>injury severity</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Face injury</t>
+          <t>AIS (abbreviated injury scale) injury severity grade</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>factor</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>AIS</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1, 2, 3+</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Diagnosis and treatment</t>
+          <t>injury_severity_ais</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>neck injury</t>
+          <t>injury severity</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Neck injury</t>
+          <t>AIS (abbreviated injury scale) injury severity grade</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>numeric</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>AIS</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Diagnosis and treatment</t>
+          <t>injury_head</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>chest injury</t>
+          <t>head injury</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Chest injury</t>
+          <t>Head injury except of face</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>factor</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>no, yes</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Diagnosis and treatment</t>
+          <t>injury_face</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>abdomen injury</t>
+          <t>face injury</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Abdomen injury</t>
+          <t>Face injury</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>factor</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>no, yes</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Diagnosis and treatment</t>
+          <t>injury_neck</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>spine region injury</t>
+          <t>neck injury</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Spine region injury</t>
+          <t>Neck injury</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>factor</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>no, yes</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Diagnosis and treatment</t>
+          <t>injury_chest</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>upper limb injury</t>
+          <t>chest injury</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Hand, arm or shoulder injury</t>
+          <t>Chest injury</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>factor</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>no, yes</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Diagnosis and treatment</t>
+          <t>injury_abdomen</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>lower limb injury</t>
+          <t>abdomen injury</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Leg, foot or hip injury</t>
+          <t>Abdomen injury</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>factor</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>no, yes</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Diagnosis and treatment</t>
+          <t>injury_spine</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>other injury</t>
+          <t>spine region injury</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Other external injury</t>
+          <t>Spine region injury</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>factor</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>no, yes</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Diagnosis and treatment</t>
+          <t>injury_upper_limbs</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>psychological support</t>
+          <t>upper limb injury</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Psychological support after the accident</t>
+          <t>Hand, arm or shoulder injury</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>factor</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>no, yes</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Alpine accident outcome</t>
+          <t>injury_lower_limbs</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>somatic accident aftermath</t>
+          <t>lower limb injury</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Accident consequences felt, somatic health</t>
+          <t>Leg, foot or hip injury</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>factor</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>no, yes</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Alpine accident outcome</t>
+          <t>injury_external_other</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>returned to same sport</t>
+          <t>other injury</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Returned to the same sport activity post accident</t>
+          <t>Other external injury</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>factor</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>no, yes</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Alpine accident outcome</t>
+          <t>injured_count</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>behavior post accident</t>
+          <t>number of injured body parts</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Behavior after accident</t>
+          <t>Number of injured body parts</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Alpine accident outcome</t>
+          <t>hospitalization</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>flashbacks during sport</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Flashback during sport activity</t>
+          <t>Hospitalized</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>factor</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>no, yes</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Alpine accident outcome</t>
+          <t>surgery_done</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>flashback frequency</t>
+          <t>surgery</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Flashback frequency</t>
+          <t>Need for surgical therapy</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>factor</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>no, yes</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Alpine accident outcome</t>
+          <t>surgery_complexity</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>confusion during sport</t>
+          <t>surgery diagnoses</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Confusion during sport activity</t>
+          <t>Number of diagnoses during surgery</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>PTSD assessment</t>
+          <t>psych_support_post_accident</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>PCL-5 DSM-5 score</t>
+          <t>psychological support</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>PTSD rating, PCL-5 DSM-5</t>
+          <t>Psychological support or therapy after the accident</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>factor</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>no, yes</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>PTSD assessment</t>
+          <t>psych_support_need</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>PTSD+ (PCL-5 DSM-5 &gt;31)</t>
+          <t>psychological support need</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>PTSD symptoms, PCL-5 DSM5</t>
+          <t>Subjective need for psychological support</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>factor</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>no, yes</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>PTSD assessment</t>
+          <t>accident_aftermath</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>PTSD+ (at least one cluster)</t>
+          <t>somatic accident aftermath</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>At least one PCL-5 DSM-5 cluster positive</t>
+          <t>Accident consequences felt, somatic health</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>factor</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>no, yes</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>PTSD assessment</t>
+          <t>same_sport_type_post_accident</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>PCL-5 DSM-5 cluster B score</t>
+          <t>returned to same sport</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>PTSD rating, PCL-5 DSM-5 cluster B</t>
+          <t>Returned to the same sport activity post accident</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>factor</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>no, yes</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>PTSD assessment</t>
+          <t>caution_post_accident</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>PTSD cluster B+</t>
+          <t>caution post accident</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>PTSD symptoms, PCL-5 DSM-5 cluster B positive</t>
+          <t>Caution after accident</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>factor</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>no change, more cautious, less cautious</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>PTSD assessment</t>
+          <t>unwilling_flashback</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>PCL-5 DSM-5 cluster C score</t>
+          <t>flashbacks during sport</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>PTSD rating, PCL-5 DSM-5 cluster C</t>
+          <t>Flashback during sport activity</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>factor</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>no, yes</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>PTSD assessment</t>
+          <t>flashback_frequency</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>PTSD cluster C+</t>
+          <t>flashback frequency</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>PTSD symptoms, PCL-5 DSM-5 cluster C positive</t>
+          <t>Flashback frequency</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>factor</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>none, &gt; 1/month, &gt; 1/year</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>PTSD assessment</t>
+          <t>confusion_during_sport</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>PCL-5 DSM-5 cluster D score</t>
+          <t>confusion during sport</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>PTSD rating, PCL-5 DSM-5 cluster D</t>
+          <t>Confusion during sport activity</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>factor</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>no, yes</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>PTSD assessment</t>
+          <t>dsm5_total</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>PTSD cluster D+</t>
+          <t>PCL-5 DSM-5 score</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>PTSD symptoms, PCL-5 DSM-5 cluster D positive</t>
+          <t>PTSD total score, PCL-5 DSM-5, sum of all items</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>PTSD assessment</t>
+          <t>dsm5_cluster_class</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>PCL-5 DSM-5 cluster E score</t>
+          <t>PTSD+ (at least one domain)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>PTSD rating, PCL-5 DSM-5 cluster E</t>
+          <t>At least one PCL-5 DSM-5 domain positive</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>factor</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>negative, positive</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>PTSD assessment</t>
+          <t>dsm5_B</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>PTSD cluster E+</t>
+          <t>PCL-5 DSM-5 domain B score</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>PTSD symptoms, PCL-5 DSM-5 cluster E positive</t>
+          <t>PTSD rating, PCL-5 DSM-5 domain B</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>PTG assessment</t>
+          <t>dsm5_B_class</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>PTGI score</t>
+          <t>PTSD domain B symptoms</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>PTGI scoring</t>
+          <t>PTSD symptoms, PCL-5 DSM-5 domain B positive</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>factor</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>negative, positive</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>PTG assessment</t>
+          <t>dsm5_C</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>PTGI I relations score</t>
+          <t>PCL-5 DSM-5 domain C score</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>PTGI scoring, factor I, relations</t>
+          <t>PTSD rating, PCL-5 DSM-5 domain C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>PTG assessment</t>
+          <t>dsm5_C_class</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>PTGI II possibilities score</t>
+          <t>PTSD domain C symptoms</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>PTGI scoring, factor II, new possibilities</t>
+          <t>PTSD symptoms, PCL-5 DSM-5 domain C positive</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>factor</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>negative, positive</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>PTG assessment</t>
+          <t>dsm5_D</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>PTGI III personal strength score</t>
+          <t>PCL-5 DSM-5 domain D score</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>PTGI scoring, factor III, personal strength</t>
+          <t>PTSD rating, PCL-5 DSM-5 domain D</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>PTG assessment</t>
+          <t>dsm5_D_class</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>PTGI IV spiritual score</t>
+          <t>PTSD domain D symptoms</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>PTGI scoring, factor IV, spiritual</t>
+          <t>PTSD symptoms, PCL-5 DSM-5 domain D positive</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>factor</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>negative, positive</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>PTG assessment</t>
+          <t>dsm5_E</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>PTGI V life appreciation score</t>
+          <t>PCL-5 DSM-5 domain E score</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>PTGI scoring, factor V, appreciation of life</t>
+          <t>PTSD rating, PCL-5 DSM-5 domain E</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Resilient coping</t>
+          <t>dsm5_E_class</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>RS13 score</t>
+          <t>PTSD domain E symptoms</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>RS13 score</t>
+          <t>PTSD symptoms, PCL-5 DSM-5 domain E positive</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>factor</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>negative, positive</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Resilient coping</t>
+          <t>ptgi_total</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>RS13 coping class</t>
+          <t>PTGI score</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>RS13 coping class</t>
+          <t>Post-traumatic growth, PTGI total score, sum of all items</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Alcohol and drug abuse</t>
+          <t>ptgi_fctI</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>CAGE score</t>
+          <t>PTGI I relations score</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>CAGE score</t>
+          <t>Post-traumatic growth, PTGI scoring, domain I, relations</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Alcohol and drug abuse</t>
+          <t>ptgi_fctII</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Abuse+ (CAGE ≥2)</t>
+          <t>PTGI II possibilities score</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Abuse+ (CAGE ≥2)</t>
+          <t>Post-traumatic growth, PTGI scoring, domain II, new possibilities</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Psychosocial stress</t>
+          <t>ptgi_fctIII</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>PSS4 score</t>
+          <t>PTGI III personal strength score</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>PSS4 score</t>
+          <t>Post-traumatic growth, PTGI scoring, domain III, personal strength</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Sense of coherence</t>
+          <t>ptgi_fctIV</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>SOC-9L score</t>
+          <t>PTGI IV spiritual score</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>SOC-9L score</t>
+          <t>Post-traumatic growth, PTGI scoring, domain IV, spiritual</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>PHQ mental health</t>
+          <t>ptgi_fctV</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>PHQ-9 score</t>
+          <t>PTGI V life appreciation score</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>PHQ-9 score, depression</t>
+          <t>Post-traumatic growth, PTGI scoring, domain V, appreciation of life</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>PHQ mental health</t>
+          <t>rs13_total</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Depression+ (PHQ-9 ≥11)</t>
+          <t>RS13 score</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>PHQ-9 score, depression signs</t>
+          <t>Resilient coping, RS13 score</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>PHQ mental health</t>
+          <t>rs13_total_class</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>GAD-7 score</t>
+          <t>RS13 coping class</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>GAD-7 score, anxiety</t>
+          <t>Resilient coping, RS13 coping class</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>factor</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>low, moderate, high</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>PHQ mental health</t>
+          <t>soc9l_total</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Anxiety+ (GAD-7 ≥10)</t>
+          <t>SOC-9L score</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>GAD-7 score, anxiety signs</t>
+          <t>Loss of sense of coherence, SOC-9L score</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>PHQ mental health</t>
+          <t>phq9_total</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>PHQ-panic score</t>
+          <t>PHQ-9 score</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>PHQ panic 4 item score</t>
+          <t>PHQ-9 score, depression</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>PHQ mental health</t>
+          <t>phq9_total_class</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Panic+ (PHQ-panic)</t>
+          <t>Depression symptoms (PHQ-9 ≥11)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>PHQ panic positivity</t>
+          <t>PHQ-9 score, depression signs</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>factor</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>negative, positive</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>PHQ mental health</t>
+          <t>gad7_total</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>PHQ-15 score</t>
+          <t>GAD-7 score</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>PHQ-15 health problems, somatization</t>
+          <t>GAD-7 score, anxiety</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>PHQ mental health</t>
+          <t>gad7_total_class</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Somatization+ (PHQ-15 ≥11)</t>
+          <t>Anxiety symptoms (GAD-7 ≥10)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>PHQ-15 health problems, moderate-severe symptoms</t>
+          <t>GAD-7 score, anxiety signs</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>factor</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>negative, positive</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Quality of life</t>
+          <t>phqd_panic_total</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>EUROHIS-QOL 8 score</t>
+          <t>PHQ-panic score</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>EUROHIS-QOL 8 score</t>
+          <t>PHQ panic 4 item score</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Quality of life</t>
+          <t>phqd_panic_total_class</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>EUROHIS-QOL 8 QoL score</t>
+          <t>Panic symptoms (PHQ-panic)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>EUROHIS-QOL 8 score QoL problems</t>
+          <t>PHQ panic positivity</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>factor</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>no, yes</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Quality of life</t>
+          <t>phq_events_total</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>EUROHIS-QOL 8 health score</t>
+          <t>PHQ-15 score</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>EUROHIS-QOL 8 score health problems</t>
+          <t>PHQ-15 health problems, somatization</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Quality of life</t>
+          <t>phq_events_total_class</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>EUROHIS-QOL 8 energy score</t>
+          <t>Somatization symptoms (PHQ-15 ≥11)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>EUROHIS-QOL 8 score energy problems</t>
+          <t>PHQ-15 health problems, moderate-severe symptoms</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>factor</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>negative, positive</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Quality of life</t>
+          <t>eurohis_total</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>EUROHIS-QOL 8 finances score</t>
+          <t>EUROHIS-QOL 8 score</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>EUROHIS-QOL 8 score financial problems</t>
+          <t>Quality of life loss, EUROHIS-QOL 8 score</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Quality of life</t>
+          <t>eurohis_qol</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>EUROHIS-QOL 8 activity score</t>
+          <t>EUROHIS-QOL 8 QoL score</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>EUROHIS-QOL 8 score activity problems</t>
+          <t>Quality of life loss, EUROHIS-QOL 8 score QoL problems</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Quality of life</t>
+          <t>eurohis_health</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>EUROHIS-QOL 8 self-esteem score</t>
+          <t>EUROHIS-QOL 8 health score</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>EUROHIS-QOL 8 score self-esteem problems</t>
+          <t>Quality of life loss, EUROHIS-QOL 8 score health problems</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Quality of life</t>
+          <t>eurohis_energy</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>EUROHIS-QOL 8 relationship score</t>
+          <t>EUROHIS-QOL 8 energy score</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>EUROHIS-QOL 8 score relationship problems</t>
+          <t>Quality of life loss, EUROHIS-QOL 8 score energy problems</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Quality of life</t>
+          <t>eurohis_finances</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
+          <t>EUROHIS-QOL 8 finances score</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Quality of life loss, EUROHIS-QOL 8 score financial problems</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>numeric</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>eurohis_activity</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>EUROHIS-QOL 8 activity score</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Quality of life loss, EUROHIS-QOL 8 score activity problems</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>numeric</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>eurohis_selfesteem</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>EUROHIS-QOL 8 self-esteem score</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Quality of life loss, EUROHIS-QOL 8 score self-esteem problems</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>numeric</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>eurohis_relationship</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>EUROHIS-QOL 8 relationship score</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Quality of life loss, EUROHIS-QOL 8 score relationship problems</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>numeric</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>eurohis_housing</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
           <t>EUROHIS-QOL 8 housing score</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>EUROHIS-QOL 8 score housing problems</t>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Quality of life loss, EUROHIS-QOL 8 score housing problems</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>numeric</t>
         </is>
       </c>
     </row>
@@ -1878,7 +2699,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1914,7 +2735,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PTSD rating, PCL-5 DSM-5</t>
+          <t>PTSD total score, PCL-5 DSM-5, sum of all items</t>
         </is>
       </c>
     </row>
@@ -1926,12 +2747,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PTSD+ (PCL-5 DSM-5 &gt;31)</t>
+          <t>PTSD+ (at least one domain)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PTSD symptoms, PCL-5 DSM5</t>
+          <t>At least one PCL-5 DSM-5 domain positive</t>
         </is>
       </c>
     </row>
@@ -1943,12 +2764,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PTSD+ (at least one cluster)</t>
+          <t>PCL-5 DSM-5 domain B score</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>At least one PCL-5 DSM-5 cluster positive</t>
+          <t>PTSD rating, PCL-5 DSM-5 domain B</t>
         </is>
       </c>
     </row>
@@ -1960,12 +2781,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PCL-5 DSM-5 cluster B score</t>
+          <t>PTSD domain B symptoms</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PTSD rating, PCL-5 DSM-5 cluster B</t>
+          <t>PTSD symptoms, PCL-5 DSM-5 domain B positive</t>
         </is>
       </c>
     </row>
@@ -1977,12 +2798,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PTSD cluster B+</t>
+          <t>PCL-5 DSM-5 domain C score</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PTSD symptoms, PCL-5 DSM-5 cluster B positive</t>
+          <t>PTSD rating, PCL-5 DSM-5 domain C</t>
         </is>
       </c>
     </row>
@@ -1994,12 +2815,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PCL-5 DSM-5 cluster C score</t>
+          <t>PTSD domain C symptoms</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PTSD rating, PCL-5 DSM-5 cluster C</t>
+          <t>PTSD symptoms, PCL-5 DSM-5 domain C positive</t>
         </is>
       </c>
     </row>
@@ -2011,12 +2832,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PTSD cluster C+</t>
+          <t>PCL-5 DSM-5 domain D score</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>PTSD symptoms, PCL-5 DSM-5 cluster C positive</t>
+          <t>PTSD rating, PCL-5 DSM-5 domain D</t>
         </is>
       </c>
     </row>
@@ -2028,12 +2849,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>PCL-5 DSM-5 cluster D score</t>
+          <t>PTSD domain D symptoms</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>PTSD rating, PCL-5 DSM-5 cluster D</t>
+          <t>PTSD symptoms, PCL-5 DSM-5 domain D positive</t>
         </is>
       </c>
     </row>
@@ -2045,12 +2866,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PTSD cluster D+</t>
+          <t>PCL-5 DSM-5 domain E score</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>PTSD symptoms, PCL-5 DSM-5 cluster D positive</t>
+          <t>PTSD rating, PCL-5 DSM-5 domain E</t>
         </is>
       </c>
     </row>
@@ -2062,29 +2883,29 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PCL-5 DSM-5 cluster E score</t>
+          <t>PTSD domain E symptoms</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>PTSD rating, PCL-5 DSM-5 cluster E</t>
+          <t>PTSD symptoms, PCL-5 DSM-5 domain E positive</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>PTSD assessment</t>
+          <t>PTG assessment</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>PTSD cluster E+</t>
+          <t>PTGI score</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>PTSD symptoms, PCL-5 DSM-5 cluster E positive</t>
+          <t>Post-traumatic growth, PTGI total score, sum of all items</t>
         </is>
       </c>
     </row>
@@ -2096,12 +2917,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PTGI score</t>
+          <t>PTGI I relations score</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>PTGI scoring</t>
+          <t>Post-traumatic growth, PTGI scoring, domain I, relations</t>
         </is>
       </c>
     </row>
@@ -2113,12 +2934,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PTGI I relations score</t>
+          <t>PTGI II possibilities score</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>PTGI scoring, factor I, relations</t>
+          <t>Post-traumatic growth, PTGI scoring, domain II, new possibilities</t>
         </is>
       </c>
     </row>
@@ -2130,12 +2951,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PTGI II possibilities score</t>
+          <t>PTGI III personal strength score</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>PTGI scoring, factor II, new possibilities</t>
+          <t>Post-traumatic growth, PTGI scoring, domain III, personal strength</t>
         </is>
       </c>
     </row>
@@ -2147,12 +2968,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PTGI III personal strength score</t>
+          <t>PTGI IV spiritual score</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>PTGI scoring, factor III, personal strength</t>
+          <t>Post-traumatic growth, PTGI scoring, domain IV, spiritual</t>
         </is>
       </c>
     </row>
@@ -2164,29 +2985,29 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>PTGI IV spiritual score</t>
+          <t>PTGI V life appreciation score</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>PTGI scoring, factor IV, spiritual</t>
+          <t>Post-traumatic growth, PTGI scoring, domain V, appreciation of life</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>PTG assessment</t>
+          <t>Resilient coping</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>PTGI V life appreciation score</t>
+          <t>RS13 score</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>PTGI scoring, factor V, appreciation of life</t>
+          <t>Resilient coping, RS13 score</t>
         </is>
       </c>
     </row>
@@ -2198,97 +3019,97 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>RS13 score</t>
+          <t>RS13 coping class</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>RS13 score</t>
+          <t>Resilient coping, RS13 coping class</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Resilient coping</t>
+          <t>Sense of coherence</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>RS13 coping class</t>
+          <t>SOC-9L score</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>RS13 coping class</t>
+          <t>Loss of sense of coherence, SOC-9L score</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Alcohol and drug abuse</t>
+          <t>PHQ mental health</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>CAGE score</t>
+          <t>PHQ-9 score</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CAGE score</t>
+          <t>PHQ-9 score, depression</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Alcohol and drug abuse</t>
+          <t>PHQ mental health</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Abuse+ (CAGE ≥2)</t>
+          <t>Depression symptoms (PHQ-9 ≥11)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Abuse+ (CAGE ≥2)</t>
+          <t>PHQ-9 score, depression signs</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Psychosocial stress</t>
+          <t>PHQ mental health</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>PSS4 score</t>
+          <t>GAD-7 score</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>PSS4 score</t>
+          <t>GAD-7 score, anxiety</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Sense of coherence</t>
+          <t>PHQ mental health</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>SOC-9L score</t>
+          <t>Anxiety symptoms (GAD-7 ≥10)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>SOC-9L score</t>
+          <t>GAD-7 score, anxiety signs</t>
         </is>
       </c>
     </row>
@@ -2300,12 +3121,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>PHQ-9 score</t>
+          <t>PHQ-panic score</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>PHQ-9 score, depression</t>
+          <t>PHQ panic 4 item score</t>
         </is>
       </c>
     </row>
@@ -2317,12 +3138,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Depression+ (PHQ-9 ≥11)</t>
+          <t>Panic symptoms (PHQ-panic)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>PHQ-9 score, depression signs</t>
+          <t>PHQ panic positivity</t>
         </is>
       </c>
     </row>
@@ -2334,12 +3155,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>GAD-7 score</t>
+          <t>PHQ-15 score</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>GAD-7 score, anxiety</t>
+          <t>PHQ-15 health problems, somatization</t>
         </is>
       </c>
     </row>
@@ -2351,80 +3172,80 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Anxiety+ (GAD-7 ≥10)</t>
+          <t>Somatization symptoms (PHQ-15 ≥11)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>GAD-7 score, anxiety signs</t>
+          <t>PHQ-15 health problems, moderate-severe symptoms</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>PHQ mental health</t>
+          <t>Quality of life</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>PHQ-panic score</t>
+          <t>EUROHIS-QOL 8 score</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>PHQ panic 4 item score</t>
+          <t>Quality of life loss, EUROHIS-QOL 8 score</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>PHQ mental health</t>
+          <t>Quality of life</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Panic+ (PHQ-panic)</t>
+          <t>EUROHIS-QOL 8 QoL score</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>PHQ panic positivity</t>
+          <t>Quality of life loss, EUROHIS-QOL 8 score QoL problems</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>PHQ mental health</t>
+          <t>Quality of life</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>PHQ-15 score</t>
+          <t>EUROHIS-QOL 8 health score</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>PHQ-15 health problems, somatization</t>
+          <t>Quality of life loss, EUROHIS-QOL 8 score health problems</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>PHQ mental health</t>
+          <t>Quality of life</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Somatization+ (PHQ-15 ≥11)</t>
+          <t>EUROHIS-QOL 8 energy score</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>PHQ-15 health problems, moderate-severe symptoms</t>
+          <t>Quality of life loss, EUROHIS-QOL 8 score energy problems</t>
         </is>
       </c>
     </row>
@@ -2436,12 +3257,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>EUROHIS-QOL 8 score</t>
+          <t>EUROHIS-QOL 8 finances score</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>EUROHIS-QOL 8 score</t>
+          <t>Quality of life loss, EUROHIS-QOL 8 score financial problems</t>
         </is>
       </c>
     </row>
@@ -2453,12 +3274,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>EUROHIS-QOL 8 QoL score</t>
+          <t>EUROHIS-QOL 8 activity score</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>EUROHIS-QOL 8 score QoL problems</t>
+          <t>Quality of life loss, EUROHIS-QOL 8 score activity problems</t>
         </is>
       </c>
     </row>
@@ -2470,12 +3291,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>EUROHIS-QOL 8 health score</t>
+          <t>EUROHIS-QOL 8 self-esteem score</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>EUROHIS-QOL 8 score health problems</t>
+          <t>Quality of life loss, EUROHIS-QOL 8 score self-esteem problems</t>
         </is>
       </c>
     </row>
@@ -2487,12 +3308,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>EUROHIS-QOL 8 energy score</t>
+          <t>EUROHIS-QOL 8 relationship score</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>EUROHIS-QOL 8 score energy problems</t>
+          <t>Quality of life loss, EUROHIS-QOL 8 score relationship problems</t>
         </is>
       </c>
     </row>
@@ -2504,80 +3325,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>EUROHIS-QOL 8 finances score</t>
+          <t>EUROHIS-QOL 8 housing score</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>EUROHIS-QOL 8 score financial problems</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Quality of life</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>EUROHIS-QOL 8 activity score</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>EUROHIS-QOL 8 score activity problems</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Quality of life</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>EUROHIS-QOL 8 self-esteem score</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>EUROHIS-QOL 8 score self-esteem problems</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Quality of life</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>EUROHIS-QOL 8 relationship score</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>EUROHIS-QOL 8 score relationship problems</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Quality of life</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>EUROHIS-QOL 8 housing score</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>EUROHIS-QOL 8 score housing problems</t>
+          <t>Quality of life loss, EUROHIS-QOL 8 score housing problems</t>
         </is>
       </c>
     </row>
@@ -2588,7 +3341,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2597,379 +3350,148 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Variable</t>
+          <t>Scale</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Included</t>
+          <t>Number of latent factors</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Excluded</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Significance (FDR)</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Effect size</t>
+          <t>Total omega</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>employment</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>employed: 68% (n = 210)
-household: 3.3% (n = 10)
-unemployed: 0.33% (n = 1)
-student: 10% (n = 32)
-retired: 18% (n = 54)
-n = 307</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>employed: 54% (n = 43)
-household: 1.2% (n = 1)
-unemployed: 3.8% (n = 3)
-student: 19% (n = 15)
-retired: 22% (n = 18)
-n = 80</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>ns (p = 0.11)</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>V = 0.19</t>
-        </is>
+          <t>RS13</t>
+        </is>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>0.94</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>income/year</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>no income: 21% (n = 63)
-&lt; 15000 Euro: 5.5% (n = 17)
-15000 - 30000 Euro: 13% (n = 39)
-30000 - 45000 Euro: 19% (n = 59)
-&gt; 45000 Euro: 42% (n = 129)
-n = 307</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>no income: 44% (n = 35)
-&lt; 15000 Euro: 1.2% (n = 1)
-15000 - 30000 Euro: 12% (n = 10)
-30000 - 45000 Euro: 16% (n = 13)
-&gt; 45000 Euro: 26% (n = 21)
-n = 80</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>p = 0.026</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>V = 0.23</t>
-        </is>
+          <t>PTGI</t>
+        </is>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>0.9300000000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>injury severity class, AIS score</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>1: 37% (n = 104)
-2: 33% (n = 93)
-3+: 29% (n = 82)
-n = 279</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1: 46% (n = 32)
-2: 40% (n = 28)
-3+: 14% (n = 10)
-n = 70</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>ns (p = 0.23)</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>V = 0.14</t>
-        </is>
+          <t>GAD-7</t>
+        </is>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>0.89</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>upper limb injury</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>42% (n = 118)
-n = 279</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>57% (n = 40)
-n = 70</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>ns (p = 0.23)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>V = 0.12</t>
-        </is>
+          <t>PHQ-panic</t>
+        </is>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0.88</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>somatic accident aftermath</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>37% (n = 115)
-n = 307</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>22% (n = 12)
-n = 55</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>ns (p = 0.23)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>V = 0.12</t>
-        </is>
+          <t>EUROHIS-QOL 8</t>
+        </is>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>0.88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>PTGI score</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>32 [IQR: 16 - 48]
-range: 0 - 100
-n = 307</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>8.5 [IQR: 3 - 41]
-range: 0 - 78
-n = 18</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>ns (p = 0.23)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>r = 0.12</t>
-        </is>
+          <t>PHQ-9</t>
+        </is>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>0.87</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>PTGI I relations score</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>12 [IQR: 6 - 18]
-range: 0 - 35
-n = 307</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>2.5 [IQR: 0 - 13]
-range: 0 - 28
-n = 18</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>ns (p = 0.11)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>r = 0.15</t>
-        </is>
+          <t>PHQ-15</t>
+        </is>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>0.84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>PTGI III personal strength score</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>8 [IQR: 4 - 11]
-range: 0 - 20
-n = 307</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>4.5 [IQR: 0 - 8.8]
-range: 0 - 16
-n = 18</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>ns (p = 0.23)</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>r = 0.12</t>
-        </is>
+          <t>PCL-5 DSM-5</t>
+        </is>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>PTGI V life appreciation score</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>6 [IQR: 2 - 9]
-range: 0 - 15
-n = 307</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1.5 [IQR: 0.25 - 6.8]
-range: 0 - 12
-n = 18</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>ns (p = 0.28)</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>r = 0.11</t>
-        </is>
+          <t>PSS4</t>
+        </is>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>0.65</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>PSS4 score</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>4 [IQR: 3 - 6]
-range: 0 - 14
-n = 307</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>5.5 [IQR: 4 - 7]
-range: 0 - 9
-n = 42</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>ns (p = 0.23)</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>r = 0.12</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>SOC-9L score</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>19 [IQR: 16 - 25]
-range: 10 - 49
-n = 307</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>27 [IQR: 20 - 35]
-range: 17 - 50
-n = 11</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>ns (p = 0.11)</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>r = 0.15</t>
-        </is>
+          <t>BRCS</t>
+        </is>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>0.63</v>
       </c>
     </row>
   </sheetData>
@@ -2979,7 +3501,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2993,25 +3515,20 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Young adult</t>
+          <t>Included</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Middle-aged</t>
+          <t>Excluded</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Elderly</t>
+          <t>Significance</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>significance (FDR)</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Effect size</t>
         </is>
@@ -3025,42 +3542,30 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>employed: 54% (n = 33)
-household: 0% (n = 0)
-unemployed: 0% (n = 0)
-student: 46% (n = 28)
-retired: 0% (n = 0)
-n = 61</t>
+          <t>employed: 68% (n = 210)
+unemployed: 3.6% (n = 11)
+student: 10% (n = 32)
+retired: 18% (n = 54)
+n = 307</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>employed: 85% (n = 172)
-household: 3.5% (n = 7)
-unemployed: 0.5% (n = 1)
-student: 1.5% (n = 3)
-retired: 9.4% (n = 19)
-n = 202</t>
+          <t>employed: 54% (n = 43)
+unemployed: 5% (n = 4)
+student: 19% (n = 15)
+retired: 22% (n = 18)
+n = 80</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>employed: 11% (n = 5)
-household: 6.8% (n = 3)
-unemployed: 0% (n = 0)
-student: 2.3% (n = 1)
-retired: 80% (n = 35)
-n = 44</t>
+          <t>ns (p = 0.077)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>p &lt; 0.001</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>V = 0.63</t>
+          <t>V = 0.13</t>
         </is>
       </c>
     </row>
@@ -3072,273 +3577,650 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>no income: 18% (n = 11)
-&lt; 15000 Euro: 16% (n = 10)
-15000 - 30000 Euro: 21% (n = 13)
-30000 - 45000 Euro: 18% (n = 11)
-&gt; 45000 Euro: 26% (n = 16)
-n = 61</t>
+          <t>no income: 21% (n = 63)
+&lt; 30000 EUR: 18% (n = 56)
+30000 - 45000 EUR: 19% (n = 59)
+≥ 45000 EUR: 42% (n = 129)
+n = 307</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>no income: 19% (n = 38)
-&lt; 15000 Euro: 3% (n = 6)
-15000 - 30000 Euro: 10% (n = 21)
-30000 - 45000 Euro: 19% (n = 38)
-&gt; 45000 Euro: 49% (n = 99)
-n = 202</t>
+          <t>no income: 44% (n = 35)
+&lt; 30000 EUR: 14% (n = 11)
+30000 - 45000 EUR: 16% (n = 13)
+≥ 45000 EUR: 26% (n = 21)
+n = 80</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>no income: 32% (n = 14)
-&lt; 15000 Euro: 2.3% (n = 1)
-15000 - 30000 Euro: 11% (n = 5)
-30000 - 45000 Euro: 23% (n = 10)
-&gt; 45000 Euro: 32% (n = 14)
-n = 44</t>
+          <t>p &lt; 0.001</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>p = 0.0033</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>V = 0.23</t>
+          <t>V = 0.22</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>alone during the accident</t>
+          <t>income ≥ 45K EUR/year</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>15% (n = 9)
-n = 61</t>
+          <t>42% (n = 129)
+n = 307</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>33% (n = 67)
-n = 202</t>
+          <t>26% (n = 21)
+n = 80</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>48% (n = 21)
-n = 44</t>
+          <t>p = 0.014</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>p = 0.019</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>V = 0.21</t>
+          <t>V = 0.13</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>rescue</t>
+          <t>somatic illness</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>self: 57% (n = 35)
-tour partner: 8.2% (n = 5)
-rescue team: 30% (n = 18)
-third party: 4.9% (n = 3)
-n = 61</t>
+          <t>15% (n = 47)
+n = 307</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>self: 51% (n = 104)
-tour partner: 14% (n = 29)
-rescue team: 29% (n = 58)
-third party: 5.4% (n = 11)
-n = 202</t>
+          <t>5.3% (n = 3)
+n = 57</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>self: 36% (n = 16)
-tour partner: 11% (n = 5)
-rescue team: 30% (n = 13)
-third party: 23% (n = 10)
-n = 44</t>
+          <t>ns (p = 0.07)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ns (p = 0.06)</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>V = 0.17</t>
+          <t>V = 0.11</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>PTGI V life appreciation score</t>
+          <t>accident year</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>4 [IQR: 0 - 7]
-range: 0 - 15
-n = 61</t>
+          <t>2018: 69% (n = 213)
+2019: 7.2% (n = 22)
+2020: 23% (n = 72)
+n = 307</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>7 [IQR: 3 - 9]
-range: 0 - 15
-n = 202</t>
+          <t>2018: 72% (n = 3042)
+2019: 9.6% (n = 408)
+2020: 19% (n = 801)
+n = 4251</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5 [IQR: 2 - 8.2]
-range: 0 - 13
-n = 44</t>
+          <t>ns (p = 0.076)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ns (p = 0.06)</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>η² = 0.028</t>
+          <t>V = 0.034</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SOC-9L score</t>
+          <t>sport type</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>22 [IQR: 20 - 31]
-range: 11 - 41
-n = 61</t>
+          <t>ski/snowboard: 64% (n = 197)
+sledding: 3.9% (n = 12)
+mountain: 14% (n = 42)
+biking: 16% (n = 48)
+other: 2.6% (n = 8)
+n = 307</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>18 [IQR: 16 - 23]
-range: 10 - 49
-n = 202</t>
+          <t>ski/snowboard: 52% (n = 2224)
+sledding: 5% (n = 212)
+mountain: 11% (n = 467)
+biking: 27% (n = 1144)
+other: 4.8% (n = 205)
+n = 4252</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>19 [IQR: 16 - 21]
-range: 13 - 31
-n = 44</t>
+          <t>p &lt; 0.001</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>p &lt; 0.001</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>η² = 0.07</t>
+          <t>V = 0.077</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>PHQ-panic score</t>
+          <t>alone during the accident</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0 [IQR: 0 - 0]
-range: 0 - 4
-n = 61</t>
+          <t>32% (n = 97)
+n = 307</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0 [IQR: 0 - 0]
-range: 0 - 4
-n = 202</t>
+          <t>20% (n = 14)
+n = 69</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0 [IQR: 0 - 0]
-range: 0 - 2
-n = 44</t>
+          <t>ns (p = 0.086)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>p = 0.0079</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>η² = 0.045</t>
+          <t>V = 0.096</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>EUROHIS-QOL 8 housing score</t>
+          <t>accident culprit</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1 [IQR: 1 - 2]
+          <t>self: 77% (n = 237)
+non-self: 23% (n = 70)
+n = 307</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>self: 65% (n = 45)
+non-self: 35% (n = 24)
+n = 69</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>ns (p = 0.054)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>V = 0.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>rescue</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>self: 50% (n = 155)
+partner/third party: 21% (n = 63)
+rescue team: 29% (n = 89)
+n = 307</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>self: 66% (n = 42)
+partner/third party: 19% (n = 12)
+rescue team: 16% (n = 10)
+n = 64</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ns (p = 0.052)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>V = 0.13</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>injury severity, AIS</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1: 37% (n = 108)
+2: 35% (n = 103)
+3+: 28% (n = 83)
+0: 0% (n = 0)
+n = 294</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1: 46% (n = 156)
+2: 36% (n = 121)
+3+: 17% (n = 56)
+0: 1.2% (n = 4)
+n = 337</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>V = 0.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>injury severity, AIS</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2 [IQR: 1 - 3]
 range: 1 - 5
-n = 61</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1 [IQR: 1 - 2]
-range: 1 - 5
-n = 202</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1 [IQR: 1 - 1]
-range: 1 - 5
+n = 294</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2 [IQR: 1 - 2]
+range: 0 - 4
+n = 337</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>r = 0.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>upper limb injury</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>41% (n = 120)
+n = 294</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>48% (n = 163)
+n = 337</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>ns (p = 0.068)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>V = 0.076</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>26% (n = 80)
+n = 307</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>9.5% (n = 404)
+n = 4252</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>V = 0.13</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>surgery</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>14% (n = 43)
+n = 307</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>4.2% (n = 179)
+n = 4252</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>V = 0.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>surgery diagnoses</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0 [IQR: 0 - 0]
+range: 0 - 9
+n = 307</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0 [IQR: 0 - 0]
+range: 0 - 9
+n = 4252</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>r = 0.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>somatic accident aftermath</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>37% (n = 115)
+n = 307</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>22% (n = 12)
+n = 55</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>p = 0.037</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>V = 0.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>PCL-5 DSM-5 score</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>3 [IQR: 1 - 7]
+range: 0 - 44
+n = 307</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2 [IQR: 0 - 4.2]
+range: 0 - 37
 n = 44</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>ns (p = 0.06)</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>η² = 0.027</t>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>ns (p = 0.096)</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>r = 0.089</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>PTGI score</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>32 [IQR: 16 - 48]
+range: 0 - 100
+n = 307</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>8.5 [IQR: 3 - 41]
+range: 0 - 78
+n = 18</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>p = 0.026</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>r = 0.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>PTGI I relations score</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>12 [IQR: 6 - 18]
+range: 0 - 35
+n = 307</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2.5 [IQR: 0 - 13]
+range: 0 - 28
+n = 18</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>p = 0.0071</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>r = 0.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>PTGI III personal strength score</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>8 [IQR: 4 - 11]
+range: 0 - 20
+n = 307</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>4.5 [IQR: 0 - 8.8]
+range: 0 - 16
+n = 18</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>p = 0.028</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>r = 0.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>PTGI V life appreciation score</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>6 [IQR: 2 - 9]
+range: 0 - 15
+n = 307</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>1.5 [IQR: 0.25 - 6.8]
+range: 0 - 12
+n = 18</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>p = 0.049</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>r = 0.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>SOC-9L score</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>19 [IQR: 16 - 25]
+range: 10 - 49
+n = 307</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>27 [IQR: 20 - 35]
+range: 17 - 50
+n = 11</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>p = 0.0062</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>r = 0.15</t>
         </is>
       </c>
     </row>
@@ -3349,7 +4231,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3363,17 +4245,17 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Training</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Significance (FDR)</t>
+          <t>Significance</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -3385,221 +4267,62 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>income/year</t>
+          <t>face injury</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>no income: 25% (n = 34)
-&lt; 15000 Euro: 8% (n = 11)
-15000 - 30000 Euro: 17% (n = 23)
-30000 - 45000 Euro: 20% (n = 27)
-&gt; 45000 Euro: 31% (n = 42)
-n = 137</t>
+          <t>14% (n = 28)
+n = 198</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>no income: 17% (n = 29)
-&lt; 15000 Euro: 3.5% (n = 6)
-15000 - 30000 Euro: 9.4% (n = 16)
-30000 - 45000 Euro: 19% (n = 32)
-&gt; 45000 Euro: 51% (n = 87)
-n = 170</t>
+          <t>6.2% (n = 6)
+n = 96</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ns (p = 0.052)</t>
+          <t>ns (p = 0.074)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>V = 0.23</t>
+          <t>V = 0.12</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>upper limb injury</t>
+          <t>RS13 coping class</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>33% (n = 42)
-n = 126</t>
+          <t>low: 21% (n = 42)
+moderate: 11% (n = 22)
+high: 69% (n = 140)
+n = 204</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>50% (n = 76)
-n = 153</t>
+          <t>low: 14% (n = 14)
+moderate: 19% (n = 20)
+high: 67% (n = 69)
+n = 103</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ns (p = 0.1)</t>
+          <t>ns (p = 0.061)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>V = 0.16</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>PCL-5 DSM-5 cluster C score</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0 [IQR: 0 - 1]
-range: 0 - 8
-n = 137</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0 [IQR: 0 - 0]
-range: 0 - 5
-n = 170</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>p = 0.037</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>r = 0.18</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>PTGI score</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>35 [IQR: 24 - 52]
-range: 0 - 100
-n = 137</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>28 [IQR: 10 - 45]
-range: 0 - 94
-n = 170</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>p = 0.037</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>r = 0.18</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>PTGI I relations score</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>14 [IQR: 9 - 20]
-range: 0 - 35
-n = 137</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>11 [IQR: 5 - 17]
-range: 0 - 34
-n = 170</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>ns (p = 0.082)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>r = 0.16</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>PTGI III personal strength score</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>9 [IQR: 6 - 12]
-range: 0 - 20
-n = 137</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>7 [IQR: 2 - 11]
-range: 0 - 19
-n = 170</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>p = 0.031</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>r = 0.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>PTGI V life appreciation score</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>7 [IQR: 4 - 9]
-range: 0 - 15
-n = 137</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>4 [IQR: 1.2 - 8]
-range: 0 - 15
-n = 170</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>p = 0.037</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>r = 0.18</t>
+          <t>V = 0.14</t>
         </is>
       </c>
     </row>
@@ -3610,7 +4333,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3624,282 +4347,3482 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No mental illness</t>
+          <t>Neutral cluster</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Mental illness</t>
+          <t>PTG cluster</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Significance (FDR)</t>
+          <t>PTSD cluster</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Significance</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Effect size</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Cohort subset</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>smoking</t>
+          <t>Participants, n</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>6.9% (n = 20)
-n = 291</t>
+          <t>63</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>25% (n = 4)
-n = 16</t>
+          <t>77</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ns (p = 0.094)</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>V = 0.15</t>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>training</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>smoking history, years</t>
+          <t>PCL-5 DSM-5 score</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0 [IQR: 0 - 0]
-range: 0 - 50
-n = 291</t>
+          <t>1 [IQR: 0 - 3]
+range: 0 - 10</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0 [IQR: 0 - 2.5]
-range: 0 - 30
-n = 16</t>
+          <t>3 [IQR: 0 - 6]
+range: 0 - 16</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>p = 0.034</t>
+          <t>7 [IQR: 3 - 13]
+range: 0 - 44</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>r = 0.15</t>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>η² = 0.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>training</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>self-reported traumatic event type</t>
+          <t>PCL-5 DSM-5 domain B score</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>none: 89% (n = 259)
-severe accident: 6.5% (n = 19)
-physical assult: 1.4% (n = 4)
-sexual molestation: 0.69% (n = 2)
-rape: 0% (n = 0)
-severe disease: 1.7% (n = 5)
-natural diseaster: 0.34% (n = 1)
-war: 0.34% (n = 1)
-n = 291</t>
+          <t>0 [IQR: 0 - 0]
+range: 0 - 3</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>none: 75% (n = 12)
-severe accident: 0% (n = 0)
-physical assult: 6.2% (n = 1)
-sexual molestation: 0% (n = 0)
-rape: 6.2% (n = 1)
-severe disease: 6.2% (n = 1)
-natural diseaster: 6.2% (n = 1)
-war: 0% (n = 0)
-n = 16</t>
+          <t>1 [IQR: 0 - 2]
+range: 0 - 7</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>1 [IQR: 0 - 3]
+range: 0 - 14</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>p &lt; 0.001</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>V = 0.32</t>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>η² = 0.15</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>training</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>flashbacks during sport</t>
+          <t>PCL-5 DSM-5 domain C score</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>37% (n = 108)
-n = 291</t>
+          <t>0 [IQR: 0 - 0]
+range: 0 - 3</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>88% (n = 14)
-n = 16</t>
+          <t>0 [IQR: 0 - 1]
+range: 0 - 4</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>0 [IQR: 0 - 1.2]
+range: 0 - 8</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>p &lt; 0.001</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>V = 0.23</t>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>η² = 0.12</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>training</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>flashback frequency</t>
+          <t>PCL-5 DSM-5 domain D score</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>no flashbacks: 63% (n = 183)
-&gt; 1 – 2 per week: 2.7% (n = 8)
-several per month: 4.8% (n = 14)
-1 – 2 per month: 8.9% (n = 26)
-1 – 2 per year: 21% (n = 60)
-n = 291</t>
+          <t>0 [IQR: 0 - 1]
+range: 0 - 8</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>no flashbacks: 12% (n = 2)
-&gt; 1 – 2 per week: 0% (n = 0)
-several per month: 12% (n = 2)
-1 – 2 per month: 25% (n = 4)
-1 – 2 per year: 50% (n = 8)
-n = 16</t>
+          <t>0 [IQR: 0 - 1]
+range: 0 - 7</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>p = 0.0039</t>
+          <t>2 [IQR: 1 - 4]
+range: 0 - 15</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>V = 0.25</t>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>η² = 0.22</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>training</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>PCL-5 DSM-5 score</t>
+          <t>PCL-5 DSM-5 domain E score</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>3 [IQR: 1 - 6]
-range: 0 - 44
-n = 291</t>
+          <t>0 [IQR: 0 - 1]
+range: 0 - 4</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>10 [IQR: 3.8 - 18]
-range: 0 - 29
-n = 16</t>
+          <t>0 [IQR: 0 - 2]
+range: 0 - 6</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>p = 0.0053</t>
+          <t>2 [IQR: 1 - 4.2]
+range: 0 - 12</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>r = 0.18</t>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>η² = 0.18</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>training</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>PTSD+ (at least one cluster)</t>
+          <t>PTGI score</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>18% (n = 51)
-n = 291</t>
+          <t>11 [IQR: 1 - 22]
+range: 0 - 32</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>44% (n = 7)
-n = 16</t>
+          <t>52 [IQR: 40 - 58]
+range: 27 - 100</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ns (p = 0.07)</t>
+          <t>31 [IQR: 19 - 44]
+range: 0 - 63</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>V = 0.15</t>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>η² = 0.58</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>training</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>PTGI I relations score</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>5 [IQR: 0 - 8.5]
+range: 0 - 17</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>18 [IQR: 15 - 22]
+range: 1 - 35</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12 [IQR: 7 - 16]
+range: 0 - 25</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>η² = 0.48</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>training</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>PTGI II possibilities score</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0 [IQR: 0 - 3]
+range: 0 - 8</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>9 [IQR: 7 - 13]
+range: 0 - 25</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4 [IQR: 0.75 - 8]
+range: 0 - 17</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>η² = 0.46</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>training</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>PTGI III personal strength score</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>3 [IQR: 0 - 6.5]
+range: 0 - 15</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>12 [IQR: 10 - 15]
+range: 6 - 20</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7 [IQR: 4 - 9]
+range: 0 - 16</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>η² = 0.51</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>training</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>PTGI IV spiritual score</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0 [IQR: 0 - 0]
+range: 0 - 2</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2 [IQR: 0 - 4]
+range: 0 - 10</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0 [IQR: 0 - 2]
+range: 0 - 8</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>η² = 0.24</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>training</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>PTGI V life appreciation score</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2 [IQR: 0 - 3]
+range: 0 - 9</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>9 [IQR: 7 - 12]
+range: 2 - 15</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6 [IQR: 2.8 - 9]
+range: 0 - 13</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>η² = 0.44</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>training</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>RS13 score</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>84 [IQR: 78 - 88]
+range: 15 - 91</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>80 [IQR: 77 - 86]
+range: 54 - 91</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>66 [IQR: 58 - 74]
+range: 15 - 91</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>η² = 0.3</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>training</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>SOC-9L score</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>18 [IQR: 16 - 20]
+range: 12 - 31</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>17 [IQR: 15 - 20]
+range: 10 - 31</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>28 [IQR: 21 - 35]
+range: 16 - 49</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>η² = 0.33</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>training</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>PHQ-9 score</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1 [IQR: 0 - 2]
+range: 0 - 7</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2 [IQR: 1 - 3]
+range: 0 - 11</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6 [IQR: 4 - 9]
+range: 0 - 16</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>η² = 0.31</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>training</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>GAD-7 score</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0 [IQR: 0 - 2]
+range: 0 - 5</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1 [IQR: 0 - 2]
+range: 0 - 7</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4 [IQR: 1.8 - 7]
+range: 0 - 15</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>η² = 0.28</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>training</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>PHQ-panic score</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0 [IQR: 0 - 0]
+range: 0 - 3</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0 [IQR: 0 - 0]
+range: 0 - 4</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0 [IQR: 0 - 0]
+range: 0 - 4</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>p = 0.0023</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>η² = 0.05</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>training</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>PHQ-15 score</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2 [IQR: 1 - 3]
+range: 0 - 12</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2 [IQR: 1 - 4]
+range: 0 - 9</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4 [IQR: 2 - 7]
+range: 0 - 17</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>η² = 0.13</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>training</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>EUROHIS-QOL 8 score</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1.5 [IQR: 1.2 - 1.6]
+range: 1 - 2</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1.5 [IQR: 1.2 - 1.8]
+range: 1 - 2.2</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.2 [IQR: 1.9 - 2.6]
+range: 1.5 - 3.4</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>η² = 0.46</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>training</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>EUROHIS-QOL 8 QoL score</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1 [IQR: 1 - 1.5]
+range: 1 - 2</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1 [IQR: 1 - 2]
+range: 1 - 2</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2 [IQR: 1 - 2]
+range: 1 - 3</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>η² = 0.18</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>training</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>EUROHIS-QOL 8 health score</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2 [IQR: 1 - 2]
+range: 1 - 5</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2 [IQR: 1 - 2]
+range: 1 - 5</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2 [IQR: 2 - 3]
+range: 1 - 5</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>η² = 0.21</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>training</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>EUROHIS-QOL 8 energy score</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>1 [IQR: 1 - 2]
+range: 1 - 3</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2 [IQR: 1 - 2]
+range: 1 - 3</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2 [IQR: 2 - 3]
+range: 1 - 4</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>η² = 0.26</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>training</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>EUROHIS-QOL 8 finances score</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>1 [IQR: 1 - 2]
+range: 1 - 3</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2 [IQR: 1 - 2]
+range: 1 - 4</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2 [IQR: 1 - 2]
+range: 1 - 5</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>η² = 0.068</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>training</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>EUROHIS-QOL 8 activity score</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>1 [IQR: 1 - 2]
+range: 1 - 2</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>1 [IQR: 1 - 2]
+range: 1 - 2</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2 [IQR: 2 - 3]
+range: 1 - 5</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>η² = 0.28</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>training</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>EUROHIS-QOL 8 self-esteem score</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2 [IQR: 1 - 2]
+range: 1 - 2</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2 [IQR: 1 - 2]
+range: 1 - 3</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2 [IQR: 2 - 3]
+range: 2 - 5</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>η² = 0.36</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>training</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>EUROHIS-QOL 8 relationship score</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2 [IQR: 1 - 2]
+range: 1 - 4</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>1 [IQR: 1 - 2]
+range: 1 - 3</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2 [IQR: 2 - 3]
+range: 1 - 5</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>η² = 0.22</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>training</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>EUROHIS-QOL 8 housing score</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>1 [IQR: 1 - 2]
+range: 1 - 3</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>1 [IQR: 1 - 2]
+range: 1 - 2</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2 [IQR: 1 - 2]
+range: 1 - 5</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>η² = 0.083</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>training</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Participants, n</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>PCL-5 DSM-5 score</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>1.5 [IQR: 0 - 4]
+range: 0 - 11</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>4 [IQR: 1 - 6]
+range: 0 - 15</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>8 [IQR: 3.2 - 13]
+range: 0 - 44</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>η² = 0.21</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>PCL-5 DSM-5 domain B score</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>0 [IQR: 0 - 1]
+range: 0 - 4</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0 [IQR: 0 - 1]
+range: 0 - 5</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2 [IQR: 0 - 2.8]
+range: 0 - 15</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>η² = 0.15</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>PCL-5 DSM-5 domain C score</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>0 [IQR: 0 - 0]
+range: 0 - 5</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>0 [IQR: 0 - 1]
+range: 0 - 4</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0 [IQR: 0 - 1]
+range: 0 - 5</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>p = 0.032</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>η² = 0.049</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>PCL-5 DSM-5 domain D score</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>0 [IQR: 0 - 1]
+range: 0 - 4</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>0 [IQR: 0 - 2]
+range: 0 - 6</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1 [IQR: 1 - 3]
+range: 0 - 15</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>p = 0.0013</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>η² = 0.11</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>PCL-5 DSM-5 domain E score</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>0 [IQR: 0 - 1]
+range: 0 - 4</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>1 [IQR: 0 - 2]
+range: 0 - 9</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3 [IQR: 0.25 - 5]
+range: 0 - 13</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>η² = 0.16</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>PTGI score</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>18 [IQR: 4 - 24]
+range: 0 - 35</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>50 [IQR: 44 - 61]
+range: 31 - 94</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>31 [IQR: 20 - 38]
+range: 0 - 73</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>η² = 0.57</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>PTGI I relations score</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>6 [IQR: 1 - 10]
+range: 0 - 20</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>20 [IQR: 15 - 23]
+range: 9 - 34</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>12 [IQR: 8.2 - 16]
+range: 0 - 28</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>η² = 0.43</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>PTGI II possibilities score</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>1 [IQR: 0 - 3]
+range: 0 - 13</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>9 [IQR: 7 - 12]
+range: 0 - 23</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.5 [IQR: 2.2 - 8]
+range: 0 - 14</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>η² = 0.41</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>PTGI III personal strength score</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>3.5 [IQR: 0 - 6]
+range: 0 - 13</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>12 [IQR: 9 - 15]
+range: 4 - 19</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>8 [IQR: 5 - 9]
+range: 0 - 16</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>η² = 0.46</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>PTGI IV spiritual score</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>0 [IQR: 0 - 0]
+range: 0 - 3</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2 [IQR: 0 - 3]
+range: 0 - 10</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0 [IQR: 0 - 1.8]
+range: 0 - 4</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>η² = 0.21</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>PTGI V life appreciation score</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2 [IQR: 0 - 4]
+range: 0 - 9</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>9 [IQR: 8 - 13]
+range: 6 - 15</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.5 [IQR: 3.2 - 7]
+range: 0 - 14</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>η² = 0.53</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>RS13 score</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>82 [IQR: 76 - 86]
+range: 68 - 91</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>83 [IQR: 77 - 87]
+range: 61 - 91</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>68 [IQR: 60 - 73]
+range: 46 - 88</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>η² = 0.34</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>SOC-9L score</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>18 [IQR: 16 - 21]
+range: 11 - 32</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>17 [IQR: 15 - 19]
+range: 10 - 33</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>26 [IQR: 20 - 30]
+range: 15 - 45</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>η² = 0.24</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>PHQ-9 score</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2 [IQR: 0.75 - 2.2]
+range: 0 - 8</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>2 [IQR: 1 - 4]
+range: 0 - 11</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>5 [IQR: 3 - 9]
+range: 0 - 16</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>η² = 0.23</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>GAD-7 score</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>0 [IQR: 0 - 1.2]
+range: 0 - 6</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>1 [IQR: 0 - 3]
+range: 0 - 6</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3 [IQR: 1 - 5.8]
+range: 0 - 14</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>η² = 0.14</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>PHQ-panic score</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>0 [IQR: 0 - 0]
+range: 0 - 0</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>0 [IQR: 0 - 0]
+range: 0 - 0</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0 [IQR: 0 - 0]
+range: 0 - 3</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>p = 0.0051</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>η² = 0.086</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>PHQ-15 score</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>1 [IQR: 0 - 3]
+range: 0 - 7</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>2 [IQR: 1 - 3]
+range: 0 - 13</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4 [IQR: 3 - 7]
+range: 0 - 23</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>η² = 0.18</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>EUROHIS-QOL 8 score</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>1.5 [IQR: 1.2 - 1.6]
+range: 1 - 2.1</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>1.6 [IQR: 1.4 - 1.9]
+range: 1.1 - 2.2</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.2 [IQR: 1.9 - 2.8]
+range: 1.6 - 4</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>η² = 0.51</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>EUROHIS-QOL 8 QoL score</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>1 [IQR: 1 - 1.2]
+range: 1 - 2</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>1 [IQR: 1 - 2]
+range: 1 - 3</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2 [IQR: 1 - 2]
+range: 1 - 3</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>η² = 0.17</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>EUROHIS-QOL 8 health score</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2 [IQR: 1 - 2]
+range: 1 - 5</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>2 [IQR: 1 - 2]
+range: 1 - 4</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2 [IQR: 2 - 2]
+range: 1 - 4</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>p = 0.0086</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>η² = 0.075</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>EUROHIS-QOL 8 energy score</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>1 [IQR: 1 - 2]
+range: 1 - 2</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>2 [IQR: 1 - 2]
+range: 1 - 3</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2 [IQR: 2 - 2]
+range: 1 - 5</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>η² = 0.2</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>EUROHIS-QOL 8 finances score</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>1 [IQR: 1 - 2]
+range: 1 - 4</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>2 [IQR: 1 - 2]
+range: 1 - 3</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2 [IQR: 1 - 2]
+range: 1 - 5</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>p = 0.021</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>η² = 0.058</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>EUROHIS-QOL 8 activity score</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>1 [IQR: 1 - 2]
+range: 1 - 2</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>1 [IQR: 1 - 2]
+range: 1 - 2</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2 [IQR: 2 - 3]
+range: 1 - 5</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>η² = 0.38</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>EUROHIS-QOL 8 self-esteem score</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2 [IQR: 1 - 2]
+range: 1 - 2</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>2 [IQR: 1 - 2]
+range: 1 - 3</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2 [IQR: 2 - 4]
+range: 1 - 5</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>η² = 0.29</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>EUROHIS-QOL 8 relationship score</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2 [IQR: 1 - 2]
+range: 1 - 3</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>2 [IQR: 1 - 2]
+range: 1 - 2</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.5 [IQR: 2 - 4]
+range: 1 - 5</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>η² = 0.31</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>EUROHIS-QOL 8 housing score</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>1 [IQR: 1 - 1]
+range: 1 - 3</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>1 [IQR: 1 - 2]
+range: 1 - 3</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2 [IQR: 1 - 3]
+range: 1 - 5</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>η² = 0.16</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variable</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Neutral cluster</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PTG cluster</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>PTGI cluster</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Significance</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Effect size</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Cohort subset</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>accident daytime</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>day: 92% (n = 58)
+night: 7.9% (n = 5)
+n = 63</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>day: 88% (n = 68)
+night: 12% (n = 9)
+n = 77</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>day: 98% (n = 63)
+night: 1.6% (n = 1)
+n = 64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>ns (p = 0.07)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>V = 0.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>training</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sex</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>female: 30% (n = 19)
+male: 70% (n = 44)
+n = 63</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>female: 55% (n = 42)
+male: 45% (n = 35)
+n = 77</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>female: 48% (n = 31)
+male: 52% (n = 33)
+n = 64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>p = 0.013</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>V = 0.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>training</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>trauma-risk profession</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>3.2% (n = 2)
+n = 63</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>12% (n = 9)
+n = 77</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.6% (n = 1)
+n = 64</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>p = 0.021</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>V = 0.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>training</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>income/year</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>no income: 16% (n = 10)
+&lt; 30000 EUR: 13% (n = 8)
+30000 - 45000 EUR: 16% (n = 10)
+≥ 45000 EUR: 56% (n = 35)
+n = 63</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>no income: 30% (n = 23)
+&lt; 30000 EUR: 22% (n = 17)
+30000 - 45000 EUR: 12% (n = 9)
+≥ 45000 EUR: 36% (n = 28)
+n = 77</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>no income: 17% (n = 11)
+&lt; 30000 EUR: 19% (n = 12)
+30000 - 45000 EUR: 25% (n = 16)
+≥ 45000 EUR: 39% (n = 25)
+n = 64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>p = 0.048</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>V = 0.18</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>training</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>income ≥ 45K EUR/year</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>56% (n = 35)
+n = 63</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>36% (n = 28)
+n = 77</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>39% (n = 25)
+n = 64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>ns (p = 0.054)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>V = 0.17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>training</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>somatic illness</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>6.3% (n = 4)
+n = 63</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>19% (n = 15)
+n = 77</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>20% (n = 13)
+n = 64</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>p = 0.049</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>V = 0.17</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>training</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>mental illness</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0% (n = 0)
+n = 63</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1.3% (n = 1)
+n = 77</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14% (n = 9)
+n = 64</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>V = 0.29</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>training</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>prior traumatic event/DIA-X</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1.6 [IQR: 1.4 - 1.9]
+          <t>30% (n = 19)
+n = 63</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>49% (n = 38)
+n = 77</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>41% (n = 26)
+n = 64</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>ns (p = 0.071)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>V = 0.16</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>training</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>substance abuse (CAGE ≥2)</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>3.2% (n = 2)
+n = 63</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>5.2% (n = 4)
+n = 77</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>14% (n = 9)
+n = 64</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>p = 0.041</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>V = 0.18</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>training</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>alone during the accident</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>24% (n = 15)
+n = 63</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>43% (n = 33)
+n = 77</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>31% (n = 20)
+n = 64</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>ns (p = 0.054)</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>V = 0.17</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>training</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>accident culprit</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>self: 87% (n = 55)
+non-self: 13% (n = 8)
+n = 63</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>self: 71% (n = 55)
+non-self: 29% (n = 22)
+n = 77</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>self: 83% (n = 53)
+non-self: 17% (n = 11)
+n = 64</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>ns (p = 0.052)</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>V = 0.17</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>training</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>rescue</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>self: 65% (n = 41)
+partner/third party: 22% (n = 14)
+rescue team: 13% (n = 8)
+n = 63</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>self: 47% (n = 36)
+partner/third party: 21% (n = 16)
+rescue team: 32% (n = 25)
+n = 77</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>self: 41% (n = 26)
+partner/third party: 20% (n = 13)
+rescue team: 39% (n = 25)
+n = 64</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>p = 0.013</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>V = 0.18</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>training</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>rescue mode</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>no professional rescue: 87% (n = 55)
+airborne: 6.3% (n = 4)
+on ground: 3.2% (n = 2)
+other: 3.2% (n = 2)
+n = 63</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>no professional rescue: 68% (n = 52)
+airborne: 14% (n = 11)
+on ground: 9.1% (n = 7)
+other: 9.1% (n = 7)
+n = 77</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>no professional rescue: 61% (n = 39)
+airborne: 14% (n = 9)
+on ground: 12% (n = 8)
+other: 12% (n = 8)
+n = 64</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>ns (p = 0.053)</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>V = 0.17</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>training</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>surgery</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>6.3% (n = 4)
+n = 63</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>13% (n = 10)
+n = 77</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>20% (n = 13)
+n = 64</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ns (p = 0.067)</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>V = 0.16</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>training</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>surgery diagnoses</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0 [IQR: 0 - 0]
+range: 0 - 1
+n = 63</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0 [IQR: 0 - 0]
+range: 0 - 5
+n = 77</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0 [IQR: 0 - 0]
+range: 0 - 9
+n = 64</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ns (p = 0.053)</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>η² = 0.019</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>training</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>psychological support</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>1.6% (n = 1)
+n = 63</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>16% (n = 12)
+n = 77</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.4% (n = 6)
+n = 64</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>p = 0.018</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>V = 0.2</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>training</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>psychological support need</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0% (n = 0)
+n = 63</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>9.1% (n = 7)
+n = 77</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>16% (n = 10)
+n = 64</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>p = 0.006</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>V = 0.22</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>training</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>somatic accident aftermath</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>27% (n = 17)
+n = 63</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>27% (n = 21)
+n = 77</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>53% (n = 34)
+n = 64</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>p = 0.0015</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>V = 0.25</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>training</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>caution post accident</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>no change: 56% (n = 35)
+more cautious: 44% (n = 28)
+less cautious: 0% (n = 0)
+n = 63</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>no change: 31% (n = 24)
+more cautious: 68% (n = 52)
+less cautious: 1.3% (n = 1)
+n = 77</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>no change: 17% (n = 11)
+more cautious: 83% (n = 53)
+less cautious: 0% (n = 0)
+n = 64</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>V = 0.24</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>training</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>flashbacks during sport</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>25% (n = 16)
+n = 63</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>30% (n = 23)
+n = 77</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>59% (n = 38)
+n = 64</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>V = 0.3</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>training</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>flashback frequency</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>none: 75% (n = 47)
+&gt; 1/month: 7.9% (n = 5)
+&gt; 1/year: 17% (n = 11)
+n = 63</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>none: 70% (n = 54)
+&gt; 1/month: 13% (n = 10)
+&gt; 1/year: 17% (n = 13)
+n = 77</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>none: 41% (n = 26)
+&gt; 1/month: 34% (n = 22)
+&gt; 1/year: 25% (n = 16)
+n = 64</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>V = 0.24</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>training</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>accident season</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>spring: 25% (n = 9)
+summer: 8.3% (n = 3)
+fall: 19% (n = 7)
+winter: 47% (n = 17)
+n = 36</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>spring: 33% (n = 11)
+summer: 18% (n = 6)
+fall: 3% (n = 1)
+winter: 45% (n = 15)
+n = 33</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>spring: 12% (n = 4)
+summer: 8.8% (n = 3)
+fall: 24% (n = 8)
+winter: 56% (n = 19)
+n = 34</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>ns (p = 0.098)</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>V = 0.23</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>somatic illness</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>5.6% (n = 2)
+n = 36</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>24% (n = 8)
+n = 33</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>15% (n = 5)
+n = 34</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>ns (p = 0.089)</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>V = 0.22</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>mental illness</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>0% (n = 0)
+n = 36</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>3% (n = 1)
+n = 33</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>15% (n = 5)
+n = 34</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>p = 0.023</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>V = 0.27</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>injury severity, AIS</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2 [IQR: 1 - 3]
 range: 1 - 4
-n = 291</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>2.5 [IQR: 2.2 - 2.8]
-range: 1.4 - 3.2
-n = 16</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>p &lt; 0.001</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>r = 0.27</t>
+n = 32</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2 [IQR: 2 - 3]
+range: 1 - 4
+n = 32</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2 [IQR: 1 - 2]
+range: 1 - 3
+n = 32</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>p = 0.046</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>η² = 0.042</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>14% (n = 5)
+n = 36</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>39% (n = 13)
+n = 33</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>26% (n = 9)
+n = 34</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>ns (p = 0.055)</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>V = 0.24</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>psychological support need</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>0% (n = 0)
+n = 36</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>0% (n = 0)
+n = 33</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>18% (n = 6)
+n = 34</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>p = 0.0016</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>V = 0.35</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>somatic accident aftermath</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>22% (n = 8)
+n = 36</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>45% (n = 15)
+n = 33</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>59% (n = 20)
+n = 34</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>p = 0.0071</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>V = 0.31</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>flashbacks during sport</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>22% (n = 8)
+n = 36</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>45% (n = 15)
+n = 33</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>65% (n = 22)
+n = 34</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>p = 0.0016</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>V = 0.35</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>flashback frequency</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>none: 78% (n = 28)
+&gt; 1/month: 5.6% (n = 2)
+&gt; 1/year: 17% (n = 6)
+n = 36</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>none: 55% (n = 18)
+&gt; 1/month: 18% (n = 6)
+&gt; 1/year: 27% (n = 9)
+n = 33</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>none: 35% (n = 12)
+&gt; 1/month: 26% (n = 9)
+&gt; 1/year: 38% (n = 13)
+n = 34</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>p = 0.0097</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>V = 0.25</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>

--- a/paper/supplementary_tables.xlsx
+++ b/paper/supplementary_tables.xlsx
@@ -567,12 +567,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ward – survey time</t>
+          <t>hospital visit – survey time</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Time between the accident and survey</t>
+          <t>Time between the hospital management and survey</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -918,12 +918,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>somatic illness</t>
+          <t>pre-existing somatic illness</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Somatic illness</t>
+          <t>Somatic illness prior to the accident</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -945,12 +945,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>mental illness</t>
+          <t>pre-existing mental illness</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Mental illness</t>
+          <t>Mental illness prior to the accident</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -999,12 +999,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>substance abuse (CAGE ≥2)</t>
+          <t>alcohol abuse (CAGE ≥2)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Substance abuse (CAGE ≥2)</t>
+          <t>Alcohol abuse (CAGE ≥2)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1242,7 +1242,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>injury severity</t>
+          <t>injury severity class</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>injury severity</t>
+          <t>injury severity AIS</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -3636,7 +3636,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>somatic illness</t>
+          <t>pre-existing somatic illness</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -3828,7 +3828,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>injury severity, AIS</t>
+          <t>injury severity class, AIS</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -3863,7 +3863,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>injury severity, AIS</t>
+          <t>injury severity AIS, AIS</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -4357,7 +4357,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>PTSD cluster</t>
+          <t>PTS cluster</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -6541,7 +6541,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>PTGI cluster</t>
+          <t>PTS cluster</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -6778,7 +6778,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>somatic illness</t>
+          <t>pre-existing somatic illness</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -6818,7 +6818,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>mental illness</t>
+          <t>pre-existing mental illness</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -6898,7 +6898,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>substance abuse (CAGE ≥2)</t>
+          <t>alcohol abuse (CAGE ≥2)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -7500,7 +7500,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>somatic illness</t>
+          <t>pre-existing somatic illness</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -7540,7 +7540,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>mental illness</t>
+          <t>pre-existing mental illness</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -7580,7 +7580,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>injury severity, AIS</t>
+          <t>injury severity AIS, AIS</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">

--- a/paper/supplementary_tables.xlsx
+++ b/paper/supplementary_tables.xlsx
@@ -420,7 +420,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Significant differences between individuals excluded from analysis and analyzed study participants. Numeric variables are presented as medians with interquartile ranges (IQR). Categorical variables are presented as percentages and counts within the complete observation set.</t>
+          <t>Significant differences (p &lt; 0.05) between individuals excluded from analysis and analyzed study participants. Numeric variables are presented as medians with interquartile ranges (IQR). Categorical variables are presented as percentages and counts within the complete observation set.</t>
         </is>
       </c>
     </row>
@@ -432,7 +432,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Significant and near-significant (p &lt; 0.1) differences between the training and test subsets of the study cohort. Numeric variables are presented as medians with interquartile ranges (IQR). Categorical variables are presented as percentages and counts within the complete observation set.</t>
+          <t>Differences in psychometric clustering factors between the mental clusters. Numeric variables are presented as medians with interquartile ranges (IQR). The table is available in a supplementary Excel file.</t>
         </is>
       </c>
     </row>
@@ -444,7 +444,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Differences in psychometric clustering factors between the mental clusters. Numeric variables are presented as medians with interquartile ranges (IQR). The table is available in a supplementary Excel file.</t>
+          <t>Significant (p &lt; 0.05) differences in demographic, socioeconomic, clinical and accident-related factors between the mental clusters. Numeric variables are presented as medians with interquartile ranges (IQR). Categorical variables are presented as percentages and counts within the complete observation set. The table is available in a supplementary Excel file.</t>
         </is>
       </c>
     </row>
@@ -456,7 +456,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Significant and near-significant (p &lt; 0.1) differences in demographic, socioeconomic, clinical and accident-related factors between the mental clusters. Numeric variables are presented as medians with interquartile ranges (IQR). Categorical variables are presented as percentages and counts within the complete observation set. The table is available in a supplementary Excel file.</t>
+          <t>Sets of explanatory factors (early: available during acute medical management of the accident) used for modeling of the mental cluster assignment.</t>
         </is>
       </c>
     </row>
@@ -467,7 +467,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F87"/>
+  <dimension ref="A1:F88"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -553,9 +553,14 @@
           <t>factor</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>years</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>young, middle, elderly</t>
+          <t>16-30, 31-65, &gt;65</t>
         </is>
       </c>
     </row>
@@ -940,17 +945,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>psych_comorbidity</t>
+          <t>somatic_comorbidity_type</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pre-existing mental illness</t>
+          <t>pre-existing somatic illness type</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Mental illness prior to the accident</t>
+          <t>Type of somatic illness prior to the accident</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -960,24 +965,24 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>no, yes</t>
+          <t>none, CVD, neurological, metabolic, pulmonary, cancer, rheumatoid, skin, other</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>traumatic_event</t>
+          <t>psych_comorbidity</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>prior traumatic event/DIA-X</t>
+          <t>pre-existing mental illness</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Traumatic event prior to accident (DIA-X ≥ 1)</t>
+          <t>Mental illness prior to the accident</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -994,17 +999,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>cage_total_class</t>
+          <t>traumatic_event</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>alcohol abuse (CAGE ≥2)</t>
+          <t>prior traumatic event/DIA-X</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Alcohol abuse (CAGE ≥2)</t>
+          <t>Traumatic event prior to accident (DIA-X ≥ 1)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1014,24 +1019,24 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>negative, positive</t>
+          <t>no, yes</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>prior_accident</t>
+          <t>cage_total_class</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>prior sport accidents</t>
+          <t>alcohol abuse (CAGE ≥2)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Prior sport accidents</t>
+          <t>Alcohol abuse (CAGE ≥2)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1041,24 +1046,24 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>no, yes</t>
+          <t>negative, positive</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>accident_year</t>
+          <t>prior_accident</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>accident year</t>
+          <t>prior sport accidents</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Year of the accident</t>
+          <t>Prior sport accidents</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1068,24 +1073,24 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2018, 2019, 2020</t>
+          <t>no, yes</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>sport_type</t>
+          <t>accident_year</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>sport type</t>
+          <t>accident year</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Type of sport at the accident</t>
+          <t>Year of the accident</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1095,24 +1100,24 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>ski/snowboard, sledding, mountain, biking, other</t>
+          <t>2018, 2019, 2020</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>accident_alone</t>
+          <t>sport_type</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>alone during the accident</t>
+          <t>sport type</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Alone during the accident</t>
+          <t>Type of sport at the accident</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1122,24 +1127,24 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>no, yes</t>
+          <t>ski/snowboard, sledding, climbing/hiking/mountaineering, biking, other</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>accident_culprit</t>
+          <t>accident_alone</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>accident culprit</t>
+          <t>alone during the accident</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Accident culprit</t>
+          <t>Alone during the accident</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1149,24 +1154,24 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>self, non-self</t>
+          <t>no, yes</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>accident_injured_persons</t>
+          <t>accident_culprit</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>injured persons</t>
+          <t>accident culprit</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Accident injured persons</t>
+          <t>Accident culprit</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1176,24 +1181,24 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>only self, self and partner, 3+ persons, no information</t>
+          <t>self, non-self</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>accident_rescue</t>
+          <t>accident_injured_persons</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>rescue</t>
+          <t>injured persons</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Accident rescue</t>
+          <t>Accident injured persons</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1203,24 +1208,24 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>self, partner/third party, rescue team</t>
+          <t>only self, self and partner, 3+ persons, no information</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>accident_rescue_mode</t>
+          <t>accident_rescue</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>rescue mode</t>
+          <t>rescue</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Accident rescue mode</t>
+          <t>Accident rescue</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1230,24 +1235,24 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>no professional rescue, airborne, on ground, other</t>
+          <t>self, partner/third party, rescue team</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>injury_sev_strata</t>
+          <t>accident_rescue_mode</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>injury severity class</t>
+          <t>rescue mode</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>AIS (abbreviated injury scale) injury severity grade</t>
+          <t>Accident rescue mode</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1255,26 +1260,21 @@
           <t>factor</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>AIS</t>
-        </is>
-      </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>1, 2, 3+</t>
+          <t>no professional rescue, airborne, on ground, other</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>injury_severity_ais</t>
+          <t>injury_sev_strata</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>injury severity AIS</t>
+          <t>injury severity class</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1284,56 +1284,61 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>factor</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
           <t>AIS</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1, 2, 3+</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>injury_head</t>
+          <t>injury_severity_ais</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>head injury</t>
+          <t>injury severity</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Head injury except of face</t>
+          <t>AIS (abbreviated injury scale) injury severity grade</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>factor</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>no, yes</t>
+          <t>numeric</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>AIS</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>injury_face</t>
+          <t>injury_head</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>face injury</t>
+          <t>head injury</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Face injury</t>
+          <t>Head injury except of face</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1350,17 +1355,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>injury_neck</t>
+          <t>injury_face</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>neck injury</t>
+          <t>face injury</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Neck injury</t>
+          <t>Face injury</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1377,17 +1382,17 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>injury_chest</t>
+          <t>injury_neck</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>chest injury</t>
+          <t>neck injury</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Chest injury</t>
+          <t>Neck injury</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1404,17 +1409,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>injury_abdomen</t>
+          <t>injury_chest</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>abdomen injury</t>
+          <t>chest injury</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Abdomen injury</t>
+          <t>Chest injury</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1431,17 +1436,17 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>injury_spine</t>
+          <t>injury_abdomen</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>spine region injury</t>
+          <t>abdomen injury</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Spine region injury</t>
+          <t>Abdomen injury</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1458,17 +1463,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>injury_upper_limbs</t>
+          <t>injury_spine</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>upper limb injury</t>
+          <t>spine region injury</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Hand, arm or shoulder injury</t>
+          <t>Spine region injury</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1485,17 +1490,17 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>injury_lower_limbs</t>
+          <t>injury_upper_limbs</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>lower limb injury</t>
+          <t>upper limb injury</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Leg, foot or hip injury</t>
+          <t>Hand, arm or shoulder injury</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1512,17 +1517,17 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>injury_external_other</t>
+          <t>injury_lower_limbs</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>other injury</t>
+          <t>lower limb injury</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Other external injury</t>
+          <t>Leg, foot or hip injury</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1539,66 +1544,66 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>injured_count</t>
+          <t>injury_external_other</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>number of injured body parts</t>
+          <t>other injury</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Number of injured body parts</t>
+          <t>Other external injury</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>factor</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>no, yes</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>hospitalization</t>
+          <t>injured_count</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>hospitalized</t>
+          <t>number of injured body parts</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Hospitalized</t>
+          <t>Number of injured body parts</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>factor</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>no, yes</t>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>surgery_done</t>
+          <t>hospitalization</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>surgery</t>
+          <t>hospitalized</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Need for surgical therapy</t>
+          <t>Hospitalized</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1615,66 +1620,66 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>surgery_complexity</t>
+          <t>surgery_done</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>surgery diagnoses</t>
+          <t>surgery</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Number of diagnoses during surgery</t>
+          <t>Need for surgical therapy</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>factor</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>no, yes</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>psych_support_post_accident</t>
+          <t>surgery_complexity</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>psychological support</t>
+          <t>surgery diagnoses</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Psychological support or therapy after the accident</t>
+          <t>Number of diagnoses during surgery</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>factor</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>no, yes</t>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>psych_support_need</t>
+          <t>psych_support_post_accident</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>psychological support need</t>
+          <t>psychological support</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Subjective need for psychological support</t>
+          <t>Psychological support or therapy after the accident</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1691,17 +1696,17 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>accident_aftermath</t>
+          <t>psych_support_need</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>somatic accident aftermath</t>
+          <t>psychological support need</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Accident consequences felt, somatic health</t>
+          <t>Subjective need for psychological support</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1718,17 +1723,17 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>same_sport_type_post_accident</t>
+          <t>accident_aftermath</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>returned to same sport</t>
+          <t>somatic accident aftermath</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Returned to the same sport activity post accident</t>
+          <t>Accident consequences felt, somatic health</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1745,17 +1750,17 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>caution_post_accident</t>
+          <t>same_sport_type_post_accident</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>caution post accident</t>
+          <t>returned to same sport</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Caution after accident</t>
+          <t>Returned to the same sport activity post accident</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1765,24 +1770,24 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>no change, more cautious, less cautious</t>
+          <t>no, yes</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>unwilling_flashback</t>
+          <t>caution_post_accident</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>flashbacks during sport</t>
+          <t>caution post accident</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Flashback during sport activity</t>
+          <t>Caution after accident</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1792,24 +1797,24 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>no, yes</t>
+          <t>no change, more cautious, less cautious</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>flashback_frequency</t>
+          <t>unwilling_flashback</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>flashback frequency</t>
+          <t>flashbacks during sport</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Flashback frequency</t>
+          <t>Flashback during sport activity</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1819,24 +1824,24 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>none, &gt; 1/month, &gt; 1/year</t>
+          <t>no, yes</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>confusion_during_sport</t>
+          <t>flashback_frequency</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>confusion during sport</t>
+          <t>flashback frequency</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Confusion during sport activity</t>
+          <t>Flashback frequency</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1846,291 +1851,296 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>no, yes</t>
+          <t>none, &gt; 1/month, &gt; 1/year</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>dsm5_total</t>
+          <t>confusion_during_sport</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>PCL-5 DSM-5 score</t>
+          <t>confusion during sport</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>PTSD total score, PCL-5 DSM-5, sum of all items</t>
+          <t>Confusion during sport activity</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>factor</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>no, yes</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>dsm5_cluster_class</t>
+          <t>dsm5_total</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>PTSD+ (at least one domain)</t>
+          <t>PCL-5 DSM-5 score</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>At least one PCL-5 DSM-5 domain positive</t>
+          <t>PTSD total score, PCL-5 DSM-5, sum of all items</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>factor</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>negative, positive</t>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>dsm5_B</t>
+          <t>dsm5_cluster_class</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>PCL-5 DSM-5 domain B score</t>
+          <t>PTSD+ (at least one domain)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>PTSD rating, PCL-5 DSM-5 domain B</t>
+          <t>At least one PCL-5 DSM-5 domain positive</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>factor</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>negative, positive</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>dsm5_B_class</t>
+          <t>dsm5_B</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>PTSD domain B symptoms</t>
+          <t>PCL-5 DSM-5 domain B score</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>PTSD symptoms, PCL-5 DSM-5 domain B positive</t>
+          <t>PTSD rating, PCL-5 DSM-5 domain B</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>factor</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>negative, positive</t>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>dsm5_C</t>
+          <t>dsm5_B_class</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>PCL-5 DSM-5 domain C score</t>
+          <t>PTSD domain B symptoms</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>PTSD rating, PCL-5 DSM-5 domain C</t>
+          <t>PTSD symptoms, PCL-5 DSM-5 domain B positive</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>factor</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>negative, positive</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>dsm5_C_class</t>
+          <t>dsm5_C</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>PTSD domain C symptoms</t>
+          <t>PCL-5 DSM-5 domain C score</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>PTSD symptoms, PCL-5 DSM-5 domain C positive</t>
+          <t>PTSD rating, PCL-5 DSM-5 domain C</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>factor</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>negative, positive</t>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>dsm5_D</t>
+          <t>dsm5_C_class</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>PCL-5 DSM-5 domain D score</t>
+          <t>PTSD domain C symptoms</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>PTSD rating, PCL-5 DSM-5 domain D</t>
+          <t>PTSD symptoms, PCL-5 DSM-5 domain C positive</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>factor</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>negative, positive</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>dsm5_D_class</t>
+          <t>dsm5_D</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>PTSD domain D symptoms</t>
+          <t>PCL-5 DSM-5 domain D score</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>PTSD symptoms, PCL-5 DSM-5 domain D positive</t>
+          <t>PTSD rating, PCL-5 DSM-5 domain D</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>factor</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>negative, positive</t>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>dsm5_E</t>
+          <t>dsm5_D_class</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>PCL-5 DSM-5 domain E score</t>
+          <t>PTSD domain D symptoms</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>PTSD rating, PCL-5 DSM-5 domain E</t>
+          <t>PTSD symptoms, PCL-5 DSM-5 domain D positive</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>factor</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>negative, positive</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>dsm5_E_class</t>
+          <t>dsm5_E</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>PTSD domain E symptoms</t>
+          <t>PCL-5 DSM-5 domain E score</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>PTSD symptoms, PCL-5 DSM-5 domain E positive</t>
+          <t>PTSD rating, PCL-5 DSM-5 domain E</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>factor</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>negative, positive</t>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>ptgi_total</t>
+          <t>dsm5_E_class</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>PTGI score</t>
+          <t>PTSD domain E symptoms</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Post-traumatic growth, PTGI total score, sum of all items</t>
+          <t>PTSD symptoms, PCL-5 DSM-5 domain E positive</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>factor</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>negative, positive</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>ptgi_fctI</t>
+          <t>ptgi_total</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>PTGI I relations score</t>
+          <t>PTGI score</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Post-traumatic growth, PTGI scoring, domain I, relations</t>
+          <t>Post-traumatic growth, PTGI total score, sum of all items</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2142,17 +2152,17 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>ptgi_fctII</t>
+          <t>ptgi_fctI</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>PTGI II possibilities score</t>
+          <t>PTGI I relations score</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Post-traumatic growth, PTGI scoring, domain II, new possibilities</t>
+          <t>Post-traumatic growth, PTGI scoring, domain I, relations</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2164,17 +2174,17 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>ptgi_fctIII</t>
+          <t>ptgi_fctII</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>PTGI III personal strength score</t>
+          <t>PTGI II possibilities score</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Post-traumatic growth, PTGI scoring, domain III, personal strength</t>
+          <t>Post-traumatic growth, PTGI scoring, domain II, new possibilities</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2186,17 +2196,17 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ptgi_fctIV</t>
+          <t>ptgi_fctIII</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>PTGI IV spiritual score</t>
+          <t>PTGI III personal strength score</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Post-traumatic growth, PTGI scoring, domain IV, spiritual</t>
+          <t>Post-traumatic growth, PTGI scoring, domain III, personal strength</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2208,17 +2218,17 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>ptgi_fctV</t>
+          <t>ptgi_fctIV</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>PTGI V life appreciation score</t>
+          <t>PTGI IV spiritual score</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Post-traumatic growth, PTGI scoring, domain V, appreciation of life</t>
+          <t>Post-traumatic growth, PTGI scoring, domain IV, spiritual</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2230,17 +2240,17 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>rs13_total</t>
+          <t>ptgi_fctV</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>RS13 score</t>
+          <t>PTGI V life appreciation score</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Resilient coping, RS13 score</t>
+          <t>Post-traumatic growth, PTGI scoring, domain V, appreciation of life</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2252,66 +2262,66 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>rs13_total_class</t>
+          <t>rs13_total</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>RS13 coping class</t>
+          <t>RS13 score</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Resilient coping, RS13 coping class</t>
+          <t>Resilient coping, RS13 score</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>factor</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>low, moderate, high</t>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>soc9l_total</t>
+          <t>rs13_total_class</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>SOC-9L score</t>
+          <t>RS13 coping class</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Loss of sense of coherence, SOC-9L score</t>
+          <t>Resilient coping, RS13 coping class</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>factor</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>low, moderate, high</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>phq9_total</t>
+          <t>soc9l_total</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>PHQ-9 score</t>
+          <t>SOC-9L score</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>PHQ-9 score, depression</t>
+          <t>Loss of sense of coherence, SOC-9L score</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2323,213 +2333,213 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>phq9_total_class</t>
+          <t>phq9_total</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Depression symptoms (PHQ-9 ≥11)</t>
+          <t>PHQ-9 score</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>PHQ-9 score, depression signs</t>
+          <t>PHQ-9 score, depression</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>factor</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>negative, positive</t>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>gad7_total</t>
+          <t>phq9_total_class</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>GAD-7 score</t>
+          <t>Depression symptoms (PHQ-9 ≥11)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>GAD-7 score, anxiety</t>
+          <t>PHQ-9 score, depression signs</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>factor</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>negative, positive</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>gad7_total_class</t>
+          <t>gad7_total</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Anxiety symptoms (GAD-7 ≥10)</t>
+          <t>GAD-7 score</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>GAD-7 score, anxiety signs</t>
+          <t>GAD-7 score, anxiety</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>factor</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>negative, positive</t>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>phqd_panic_total</t>
+          <t>gad7_total_class</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>PHQ-panic score</t>
+          <t>Anxiety symptoms (GAD-7 ≥10)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>PHQ panic 4 item score</t>
+          <t>GAD-7 score, anxiety signs</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>factor</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>negative, positive</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>phqd_panic_total_class</t>
+          <t>phqd_panic_total</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Panic symptoms (PHQ-panic)</t>
+          <t>PHQ-panic score</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>PHQ panic positivity</t>
+          <t>PHQ panic 4 item score</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>factor</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>no, yes</t>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>phq_events_total</t>
+          <t>phqd_panic_total_class</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>PHQ-15 score</t>
+          <t>Panic symptoms (PHQ-panic)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>PHQ-15 health problems, somatization</t>
+          <t>PHQ panic positivity</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>factor</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>no, yes</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>phq_events_total_class</t>
+          <t>phq_events_total</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Somatization symptoms (PHQ-15 ≥11)</t>
+          <t>PHQ-15 score</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>PHQ-15 health problems, moderate-severe symptoms</t>
+          <t>PHQ-15 health problems, somatization</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>factor</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>negative, positive</t>
+          <t>numeric</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>eurohis_total</t>
+          <t>phq_events_total_class</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>EUROHIS-QOL 8 score</t>
+          <t>Somatization symptoms (PHQ-15 ≥11)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Quality of life loss, EUROHIS-QOL 8 score</t>
+          <t>PHQ-15 health problems, moderate-severe symptoms</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>numeric</t>
+          <t>factor</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>negative, positive</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>eurohis_qol</t>
+          <t>eurohis_total</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>EUROHIS-QOL 8 QoL score</t>
+          <t>EUROHIS-QOL 8 score</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Quality of life loss, EUROHIS-QOL 8 score QoL problems</t>
+          <t>Quality of life, EUROHIS-QOL 8 score</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2541,17 +2551,17 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>eurohis_health</t>
+          <t>eurohis_qol</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>EUROHIS-QOL 8 health score</t>
+          <t>EUROHIS-QOL 8 QoL score</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Quality of life loss, EUROHIS-QOL 8 score health problems</t>
+          <t>Quality of life, EUROHIS-QOL 8 score QoL</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2563,17 +2573,17 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>eurohis_energy</t>
+          <t>eurohis_health</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>EUROHIS-QOL 8 energy score</t>
+          <t>EUROHIS-QOL 8 health score</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Quality of life loss, EUROHIS-QOL 8 score energy problems</t>
+          <t>Quality of life, EUROHIS-QOL 8 score health</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2585,17 +2595,17 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>eurohis_finances</t>
+          <t>eurohis_energy</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>EUROHIS-QOL 8 finances score</t>
+          <t>EUROHIS-QOL 8 energy score</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Quality of life loss, EUROHIS-QOL 8 score financial problems</t>
+          <t>Quality of life, EUROHIS-QOL 8 score energy</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2607,17 +2617,17 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>eurohis_activity</t>
+          <t>eurohis_finances</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>EUROHIS-QOL 8 activity score</t>
+          <t>EUROHIS-QOL 8 finances score</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Quality of life loss, EUROHIS-QOL 8 score activity problems</t>
+          <t>Quality of life, EUROHIS-QOL 8 score financial aspects</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2629,17 +2639,17 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>eurohis_selfesteem</t>
+          <t>eurohis_activity</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>EUROHIS-QOL 8 self-esteem score</t>
+          <t>EUROHIS-QOL 8 activity score</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Quality of life loss, EUROHIS-QOL 8 score self-esteem problems</t>
+          <t>Quality of life, EUROHIS-QOL 8 score activity</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2651,17 +2661,17 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>eurohis_relationship</t>
+          <t>eurohis_selfesteem</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>EUROHIS-QOL 8 relationship score</t>
+          <t>EUROHIS-QOL 8 self-esteem score</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Quality of life loss, EUROHIS-QOL 8 score relationship problems</t>
+          <t>Quality of life, EUROHIS-QOL 8 score self-esteem</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2673,20 +2683,42 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
+          <t>eurohis_relationship</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>EUROHIS-QOL 8 relationship score</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Quality of life, EUROHIS-QOL 8 score relationship</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>numeric</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
           <t>eurohis_housing</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B88" t="inlineStr">
         <is>
           <t>EUROHIS-QOL 8 housing score</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>Quality of life loss, EUROHIS-QOL 8 score housing problems</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Quality of life, EUROHIS-QOL 8 score housing</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
         <is>
           <t>numeric</t>
         </is>
@@ -3194,7 +3226,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Quality of life loss, EUROHIS-QOL 8 score</t>
+          <t>Quality of life, EUROHIS-QOL 8 score</t>
         </is>
       </c>
     </row>
@@ -3211,7 +3243,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Quality of life loss, EUROHIS-QOL 8 score QoL problems</t>
+          <t>Quality of life, EUROHIS-QOL 8 score QoL</t>
         </is>
       </c>
     </row>
@@ -3228,7 +3260,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Quality of life loss, EUROHIS-QOL 8 score health problems</t>
+          <t>Quality of life, EUROHIS-QOL 8 score health</t>
         </is>
       </c>
     </row>
@@ -3245,7 +3277,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Quality of life loss, EUROHIS-QOL 8 score energy problems</t>
+          <t>Quality of life, EUROHIS-QOL 8 score energy</t>
         </is>
       </c>
     </row>
@@ -3262,7 +3294,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Quality of life loss, EUROHIS-QOL 8 score financial problems</t>
+          <t>Quality of life, EUROHIS-QOL 8 score financial aspects</t>
         </is>
       </c>
     </row>
@@ -3279,7 +3311,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Quality of life loss, EUROHIS-QOL 8 score activity problems</t>
+          <t>Quality of life, EUROHIS-QOL 8 score activity</t>
         </is>
       </c>
     </row>
@@ -3296,7 +3328,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Quality of life loss, EUROHIS-QOL 8 score self-esteem problems</t>
+          <t>Quality of life, EUROHIS-QOL 8 score self-esteem</t>
         </is>
       </c>
     </row>
@@ -3313,7 +3345,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Quality of life loss, EUROHIS-QOL 8 score relationship problems</t>
+          <t>Quality of life, EUROHIS-QOL 8 score relationship</t>
         </is>
       </c>
     </row>
@@ -3330,7 +3362,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Quality of life loss, EUROHIS-QOL 8 score housing problems</t>
+          <t>Quality of life, EUROHIS-QOL 8 score housing</t>
         </is>
       </c>
     </row>
@@ -3341,7 +3373,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3374,7 +3406,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.94</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -3387,7 +3419,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.9300000000000001</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="4">
@@ -3466,32 +3498,6 @@
       </c>
       <c r="C9">
         <v>0.8100000000000001</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>PSS4</t>
-        </is>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>BRCS</t>
-        </is>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>0.63</v>
       </c>
     </row>
   </sheetData>
@@ -3501,7 +3507,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3537,45 +3543,10 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>employment</t>
+          <t>income/year</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
-        <is>
-          <t>employed: 68% (n = 210)
-unemployed: 3.6% (n = 11)
-student: 10% (n = 32)
-retired: 18% (n = 54)
-n = 307</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>employed: 54% (n = 43)
-unemployed: 5% (n = 4)
-student: 19% (n = 15)
-retired: 22% (n = 18)
-n = 80</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>ns (p = 0.077)</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>V = 0.13</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>income/year</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
         <is>
           <t>no income: 21% (n = 63)
 &lt; 30000 EUR: 18% (n = 56)
@@ -3584,7 +3555,7 @@
 n = 307</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>no income: 44% (n = 35)
 &lt; 30000 EUR: 14% (n = 11)
@@ -3593,245 +3564,90 @@
 n = 80</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>V = 0.22</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>income ≥ 45K EUR/year</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>42% (n = 129)
+n = 307</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>26% (n = 21)
+n = 80</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>p &lt; 0.001</t>
+          <t>p = 0.014</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>V = 0.22</t>
+          <t>V = 0.13</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>income ≥ 45K EUR/year</t>
+          <t>sport type</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
-        <is>
-          <t>42% (n = 129)
-n = 307</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>26% (n = 21)
-n = 80</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>p = 0.014</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>V = 0.13</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>pre-existing somatic illness</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>15% (n = 47)
-n = 307</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>5.3% (n = 3)
-n = 57</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>ns (p = 0.07)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>V = 0.11</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>accident year</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2018: 69% (n = 213)
-2019: 7.2% (n = 22)
-2020: 23% (n = 72)
-n = 307</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>2018: 72% (n = 3042)
-2019: 9.6% (n = 408)
-2020: 19% (n = 801)
-n = 4251</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>ns (p = 0.076)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>V = 0.034</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>sport type</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
         <is>
           <t>ski/snowboard: 64% (n = 197)
 sledding: 3.9% (n = 12)
-mountain: 14% (n = 42)
+climbing/hiking/mountaineering: 14% (n = 42)
 biking: 16% (n = 48)
 other: 2.6% (n = 8)
 n = 307</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>ski/snowboard: 52% (n = 2224)
 sledding: 5% (n = 212)
-mountain: 11% (n = 467)
+climbing/hiking/mountaineering: 11% (n = 467)
 biking: 27% (n = 1144)
 other: 4.8% (n = 205)
 n = 4252</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>p &lt; 0.001</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>V = 0.077</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>alone during the accident</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>32% (n = 97)
-n = 307</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>20% (n = 14)
-n = 69</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>ns (p = 0.086)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>V = 0.096</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>accident culprit</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>self: 77% (n = 237)
-non-self: 23% (n = 70)
-n = 307</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>self: 65% (n = 45)
-non-self: 35% (n = 24)
-n = 69</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>ns (p = 0.054)</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>V = 0.11</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>rescue</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>self: 50% (n = 155)
-partner/third party: 21% (n = 63)
-rescue team: 29% (n = 89)
-n = 307</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>self: 66% (n = 42)
-partner/third party: 19% (n = 12)
-rescue team: 16% (n = 10)
-n = 64</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>ns (p = 0.052)</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>V = 0.13</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>injury severity class, AIS</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>1: 37% (n = 108)
 2: 35% (n = 103)
@@ -3840,7 +3656,7 @@
 n = 294</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>1: 46% (n = 156)
 2: 36% (n = 121)
@@ -3849,376 +3665,316 @@
 n = 337</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>p &lt; 0.001</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>V = 0.16</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>injury severity AIS, AIS</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>injury severity, AIS</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>2 [IQR: 1 - 3]
 range: 1 - 5
 n = 294</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>2 [IQR: 1 - 2]
 range: 0 - 4
 n = 337</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>p &lt; 0.001</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>r = 0.15</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>upper limb injury</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>41% (n = 120)
-n = 294</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>48% (n = 163)
-n = 337</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>ns (p = 0.068)</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>V = 0.076</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>hospitalized</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>26% (n = 80)
 n = 307</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>9.5% (n = 404)
 n = 4252</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>p &lt; 0.001</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>V = 0.13</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>surgery</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>14% (n = 43)
 n = 307</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>4.2% (n = 179)
 n = 4252</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>p &lt; 0.001</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>V = 0.11</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>surgery diagnoses</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>0 [IQR: 0 - 0]
 range: 0 - 9
 n = 307</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>0 [IQR: 0 - 0]
 range: 0 - 9
 n = 4252</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>p &lt; 0.001</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>r = 0.11</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>somatic accident aftermath</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>37% (n = 115)
 n = 307</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>22% (n = 12)
 n = 55</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>p = 0.037</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>V = 0.12</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>PCL-5 DSM-5 score</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>3 [IQR: 1 - 7]
-range: 0 - 44
-n = 307</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>2 [IQR: 0 - 4.2]
-range: 0 - 37
-n = 44</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>ns (p = 0.096)</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>r = 0.089</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>PTGI score</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>32 [IQR: 16 - 48]
 range: 0 - 100
 n = 307</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>8.5 [IQR: 3 - 41]
 range: 0 - 78
 n = 18</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>p = 0.026</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>r = 0.12</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>PTGI I relations score</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>12 [IQR: 6 - 18]
 range: 0 - 35
 n = 307</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>2.5 [IQR: 0 - 13]
 range: 0 - 28
 n = 18</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>p = 0.0071</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>r = 0.15</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>PTGI III personal strength score</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>8 [IQR: 4 - 11]
 range: 0 - 20
 n = 307</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>4.5 [IQR: 0 - 8.8]
 range: 0 - 16
 n = 18</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>p = 0.028</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>r = 0.12</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>PTGI V life appreciation score</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>6 [IQR: 2 - 9]
 range: 0 - 15
 n = 307</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>1.5 [IQR: 0.25 - 6.8]
 range: 0 - 12
 n = 18</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>p = 0.049</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>r = 0.11</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>SOC-9L score</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>19 [IQR: 16 - 25]
 range: 10 - 49
 n = 307</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>27 [IQR: 20 - 35]
 range: 17 - 50
 n = 11</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>p = 0.0062</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>r = 0.15</t>
         </is>
@@ -4230,108 +3986,6 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Variable</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Training</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Test</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Significance</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Effect size</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>face injury</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>14% (n = 28)
-n = 198</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>6.2% (n = 6)
-n = 96</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>ns (p = 0.074)</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>V = 0.12</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>RS13 coping class</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>low: 21% (n = 42)
-moderate: 11% (n = 22)
-high: 69% (n = 140)
-n = 204</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>low: 14% (n = 14)
-moderate: 19% (n = 20)
-high: 67% (n = 69)
-n = 103</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>ns (p = 0.061)</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>V = 0.14</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G55"/>
   <sheetViews>
@@ -4357,7 +4011,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>PTS cluster</t>
+          <t>PTB cluster</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -5091,20 +4745,20 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1.5 [IQR: 1.2 - 1.6]
-range: 1 - 2</t>
+          <t>4.5 [IQR: 4.4 - 4.8]
+range: 4 - 5</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1.5 [IQR: 1.2 - 1.8]
-range: 1 - 2.2</t>
+          <t>4.5 [IQR: 4.2 - 4.8]
+range: 3.8 - 5</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2.2 [IQR: 1.9 - 2.6]
-range: 1.5 - 3.4</t>
+          <t>3.8 [IQR: 3.4 - 4.1]
+range: 2.6 - 4.5</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -5131,1382 +4785,2228 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1 [IQR: 1 - 1.5]
-range: 1 - 2</t>
+          <t>5 [IQR: 4.5 - 5]
+range: 4 - 5</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1 [IQR: 1 - 2]
-range: 1 - 2</t>
+          <t>5 [IQR: 4 - 5]
+range: 4 - 5</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
+        <is>
+          <t>4 [IQR: 4 - 5]
+range: 3 - 5</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>η² = 0.18</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>training</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>EUROHIS-QOL 8 health score</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>4 [IQR: 4 - 5]
+range: 1 - 5</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>4 [IQR: 4 - 5]
+range: 1 - 5</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4 [IQR: 3 - 4]
+range: 1 - 5</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>η² = 0.21</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>training</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>EUROHIS-QOL 8 energy score</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>5 [IQR: 4 - 5]
+range: 3 - 5</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>4 [IQR: 4 - 5]
+range: 3 - 5</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4 [IQR: 3 - 4]
+range: 2 - 5</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>η² = 0.26</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>training</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>EUROHIS-QOL 8 finances score</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>5 [IQR: 4 - 5]
+range: 3 - 5</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>4 [IQR: 4 - 5]
+range: 2 - 5</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4 [IQR: 4 - 5]
+range: 1 - 5</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>η² = 0.068</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>training</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>EUROHIS-QOL 8 activity score</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>5 [IQR: 4 - 5]
+range: 4 - 5</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>5 [IQR: 4 - 5]
+range: 4 - 5</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4 [IQR: 3 - 4]
+range: 1 - 5</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>η² = 0.28</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>training</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>EUROHIS-QOL 8 self-esteem score</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>4 [IQR: 4 - 5]
+range: 4 - 5</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>4 [IQR: 4 - 5]
+range: 3 - 5</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4 [IQR: 3 - 4]
+range: 1 - 4</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>η² = 0.36</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>training</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>EUROHIS-QOL 8 relationship score</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>4 [IQR: 4 - 5]
+range: 2 - 5</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>5 [IQR: 4 - 5]
+range: 3 - 5</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4 [IQR: 3 - 4]
+range: 1 - 5</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>η² = 0.22</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>training</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>EUROHIS-QOL 8 housing score</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>5 [IQR: 4 - 5]
+range: 3 - 5</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>5 [IQR: 4 - 5]
+range: 4 - 5</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4 [IQR: 4 - 5]
+range: 1 - 5</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>η² = 0.083</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>training</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Participants, n</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>PCL-5 DSM-5 score</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>1.5 [IQR: 0 - 4]
+range: 0 - 11</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>4 [IQR: 1 - 6]
+range: 0 - 15</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>8 [IQR: 3.2 - 13]
+range: 0 - 44</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>η² = 0.21</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>PCL-5 DSM-5 domain B score</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>0 [IQR: 0 - 1]
+range: 0 - 4</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0 [IQR: 0 - 1]
+range: 0 - 5</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2 [IQR: 0 - 2.8]
+range: 0 - 15</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>η² = 0.15</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>PCL-5 DSM-5 domain C score</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>0 [IQR: 0 - 0]
+range: 0 - 5</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>0 [IQR: 0 - 1]
+range: 0 - 4</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0 [IQR: 0 - 1]
+range: 0 - 5</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>p = 0.032</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>η² = 0.049</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>PCL-5 DSM-5 domain D score</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>0 [IQR: 0 - 1]
+range: 0 - 4</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>0 [IQR: 0 - 2]
+range: 0 - 6</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1 [IQR: 1 - 3]
+range: 0 - 15</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>p = 0.0013</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>η² = 0.11</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>PCL-5 DSM-5 domain E score</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>0 [IQR: 0 - 1]
+range: 0 - 4</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>1 [IQR: 0 - 2]
+range: 0 - 9</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3 [IQR: 0.25 - 5]
+range: 0 - 13</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>η² = 0.16</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>PTGI score</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>18 [IQR: 4 - 24]
+range: 0 - 35</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>50 [IQR: 44 - 61]
+range: 31 - 94</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>31 [IQR: 20 - 38]
+range: 0 - 73</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>η² = 0.57</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>PTGI I relations score</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>6 [IQR: 1 - 10]
+range: 0 - 20</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>20 [IQR: 15 - 23]
+range: 9 - 34</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>12 [IQR: 8.2 - 16]
+range: 0 - 28</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>η² = 0.43</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>PTGI II possibilities score</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>1 [IQR: 0 - 3]
+range: 0 - 13</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>9 [IQR: 7 - 12]
+range: 0 - 23</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.5 [IQR: 2.2 - 8]
+range: 0 - 14</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>η² = 0.41</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>PTGI III personal strength score</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>3.5 [IQR: 0 - 6]
+range: 0 - 13</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>12 [IQR: 9 - 15]
+range: 4 - 19</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>8 [IQR: 5 - 9]
+range: 0 - 16</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>η² = 0.46</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>PTGI IV spiritual score</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>0 [IQR: 0 - 0]
+range: 0 - 3</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2 [IQR: 0 - 3]
+range: 0 - 10</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0 [IQR: 0 - 1.8]
+range: 0 - 4</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>η² = 0.21</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>PTGI V life appreciation score</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2 [IQR: 0 - 4]
+range: 0 - 9</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>9 [IQR: 8 - 13]
+range: 6 - 15</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.5 [IQR: 3.2 - 7]
+range: 0 - 14</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>η² = 0.53</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>RS13 score</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>82 [IQR: 76 - 86]
+range: 68 - 91</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>83 [IQR: 77 - 87]
+range: 61 - 91</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>68 [IQR: 60 - 73]
+range: 46 - 88</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>η² = 0.34</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>SOC-9L score</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>18 [IQR: 16 - 21]
+range: 11 - 32</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>17 [IQR: 15 - 19]
+range: 10 - 33</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>26 [IQR: 20 - 30]
+range: 15 - 45</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>η² = 0.24</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>PHQ-9 score</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2 [IQR: 0.75 - 2.2]
+range: 0 - 8</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>2 [IQR: 1 - 4]
+range: 0 - 11</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>5 [IQR: 3 - 9]
+range: 0 - 16</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>η² = 0.23</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>GAD-7 score</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>0 [IQR: 0 - 1.2]
+range: 0 - 6</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>1 [IQR: 0 - 3]
+range: 0 - 6</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3 [IQR: 1 - 5.8]
+range: 0 - 14</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>η² = 0.14</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>PHQ-panic score</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>0 [IQR: 0 - 0]
+range: 0 - 0</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>0 [IQR: 0 - 0]
+range: 0 - 0</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0 [IQR: 0 - 0]
+range: 0 - 3</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>p = 0.0051</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>η² = 0.086</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>PHQ-15 score</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>1 [IQR: 0 - 3]
+range: 0 - 7</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>2 [IQR: 1 - 3]
+range: 0 - 13</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4 [IQR: 3 - 7]
+range: 0 - 23</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>η² = 0.18</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>EUROHIS-QOL 8 score</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>4.5 [IQR: 4.4 - 4.8]
+range: 3.9 - 5</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>4.4 [IQR: 4.1 - 4.6]
+range: 3.8 - 4.9</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.8 [IQR: 3.2 - 4.1]
+range: 2 - 4.4</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>η² = 0.51</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>EUROHIS-QOL 8 QoL score</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>5 [IQR: 4.8 - 5]
+range: 4 - 5</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>5 [IQR: 4 - 5]
+range: 3 - 5</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4 [IQR: 4 - 5]
+range: 3 - 5</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>η² = 0.17</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>EUROHIS-QOL 8 health score</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>4 [IQR: 4 - 5]
+range: 1 - 5</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>4 [IQR: 4 - 5]
+range: 2 - 5</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>4 [IQR: 4 - 4]
+range: 2 - 5</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>p = 0.0086</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>η² = 0.075</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>EUROHIS-QOL 8 energy score</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>5 [IQR: 4 - 5]
+range: 4 - 5</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>4 [IQR: 4 - 5]
+range: 3 - 5</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4 [IQR: 4 - 4]
+range: 1 - 5</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>η² = 0.2</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>EUROHIS-QOL 8 finances score</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>5 [IQR: 4 - 5]
+range: 2 - 5</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>4 [IQR: 4 - 5]
+range: 3 - 5</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4 [IQR: 4 - 5]
+range: 1 - 5</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>p = 0.021</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>η² = 0.058</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>EUROHIS-QOL 8 activity score</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>5 [IQR: 4 - 5]
+range: 4 - 5</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>5 [IQR: 4 - 5]
+range: 4 - 5</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>4 [IQR: 3 - 4]
+range: 1 - 5</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>η² = 0.38</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>EUROHIS-QOL 8 self-esteem score</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>4 [IQR: 4 - 5]
+range: 4 - 5</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>4 [IQR: 4 - 5]
+range: 3 - 5</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>4 [IQR: 2 - 4]
+range: 1 - 5</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>η² = 0.29</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>EUROHIS-QOL 8 relationship score</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>4 [IQR: 4 - 5]
+range: 3 - 5</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>4 [IQR: 4 - 5]
+range: 4 - 5</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.5 [IQR: 2 - 4]
+range: 1 - 5</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>η² = 0.31</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>EUROHIS-QOL 8 housing score</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>5 [IQR: 5 - 5]
+range: 3 - 5</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>5 [IQR: 4 - 5]
+range: 3 - 5</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>4 [IQR: 3 - 5]
+range: 1 - 5</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>η² = 0.16</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Cohort subset</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Variable</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Neutral cluster</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>PTG cluster</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PTB cluster</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Significance</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Effect size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>training</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Participants, n</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>training</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>sex</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>female: 30% (n = 19)
+male: 70% (n = 44)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>female: 55% (n = 42)
+male: 45% (n = 35)</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>female: 48% (n = 31)
+male: 52% (n = 33)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>p = 0.013</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>V = 0.21</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>training</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>trauma-risk profession</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>3.2% (n = 2)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12% (n = 9)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1.6% (n = 1)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>p = 0.021</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>V = 0.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>training</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>income/year</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>no income: 16% (n = 10)
+&lt; 30000 EUR: 13% (n = 8)
+30000 - 45000 EUR: 16% (n = 10)
+≥ 45000 EUR: 56% (n = 35)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>no income: 30% (n = 23)
+&lt; 30000 EUR: 22% (n = 17)
+30000 - 45000 EUR: 12% (n = 9)
+≥ 45000 EUR: 36% (n = 28)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>no income: 17% (n = 11)
+&lt; 30000 EUR: 19% (n = 12)
+30000 - 45000 EUR: 25% (n = 16)
+≥ 45000 EUR: 39% (n = 25)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>p = 0.048</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>V = 0.18</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>training</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>pre-existing somatic illness</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>6.3% (n = 4)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>19% (n = 15)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>20% (n = 13)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>p = 0.049</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>V = 0.17</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>training</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>pre-existing mental illness</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0% (n = 0)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.3% (n = 1)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>14% (n = 9)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>V = 0.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>training</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>alcohol abuse (CAGE ≥2)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>3.2% (n = 2)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.2% (n = 4)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>14% (n = 9)</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>p = 0.041</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>V = 0.18</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>training</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>rescue</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>self: 65% (n = 41)
+partner/third party: 22% (n = 14)
+rescue team: 13% (n = 8)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>self: 47% (n = 36)
+partner/third party: 21% (n = 16)
+rescue team: 32% (n = 25)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>self: 41% (n = 26)
+partner/third party: 20% (n = 13)
+rescue team: 39% (n = 25)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>p = 0.013</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>V = 0.18</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>training</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>psychological support</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1.6% (n = 1)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>16% (n = 12)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>9.4% (n = 6)</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>p = 0.018</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>V = 0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>training</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>psychological support need</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0% (n = 0)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.1% (n = 7)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>16% (n = 10)</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>p = 0.006</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>V = 0.22</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>training</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>somatic accident aftermath</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>27% (n = 17)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>27% (n = 21)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>53% (n = 34)</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>p = 0.0015</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>V = 0.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>training</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>caution post accident</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>no change: 56% (n = 35)
+more cautious: 44% (n = 28)
+less cautious: 0% (n = 0)</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>no change: 31% (n = 24)
+more cautious: 68% (n = 52)
+less cautious: 1.3% (n = 1)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>no change: 17% (n = 11)
+more cautious: 83% (n = 53)
+less cautious: 0% (n = 0)</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>V = 0.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>training</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>flashbacks during sport</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>25% (n = 16)</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>30% (n = 23)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>59% (n = 38)</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>V = 0.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>training</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>flashback frequency</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>none: 75% (n = 47)
+&gt; 1/month: 7.9% (n = 5)
+&gt; 1/year: 17% (n = 11)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>none: 70% (n = 54)
+&gt; 1/month: 13% (n = 10)
+&gt; 1/year: 17% (n = 13)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>none: 41% (n = 26)
+&gt; 1/month: 34% (n = 22)
+&gt; 1/year: 25% (n = 16)</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>V = 0.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Participants, n</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>pre-existing mental illness</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0% (n = 0)</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3% (n = 1)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>15% (n = 5)</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>p = 0.023</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>V = 0.27</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>injury severity, AIS</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2 [IQR: 1 - 3]
+range: 1 - 4</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2 [IQR: 2 - 3]
+range: 1 - 4</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>2 [IQR: 1 - 2]
 range: 1 - 3</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>p = 0.046</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>η² = 0.042</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>psychological support need</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0% (n = 0)</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0% (n = 0)</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>18% (n = 6)</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>p = 0.0016</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>V = 0.35</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>somatic accident aftermath</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>22% (n = 8)</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>45% (n = 15)</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>59% (n = 20)</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>p = 0.0071</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>V = 0.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>flashbacks during sport</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>22% (n = 8)</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>45% (n = 15)</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>p &lt; 0.001</t>
+          <t>65% (n = 22)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>η² = 0.18</t>
+          <t>p = 0.0016</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>training</t>
+          <t>V = 0.35</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>EUROHIS-QOL 8 health score</t>
+          <t>test</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2 [IQR: 1 - 2]
-range: 1 - 5</t>
+          <t>flashback frequency</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2 [IQR: 1 - 2]
-range: 1 - 5</t>
+          <t>none: 78% (n = 28)
+&gt; 1/month: 5.6% (n = 2)
+&gt; 1/year: 17% (n = 6)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2 [IQR: 2 - 3]
-range: 1 - 5</t>
+          <t>none: 55% (n = 18)
+&gt; 1/month: 18% (n = 6)
+&gt; 1/year: 27% (n = 9)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>p &lt; 0.001</t>
+          <t>none: 35% (n = 12)
+&gt; 1/month: 26% (n = 9)
+&gt; 1/year: 38% (n = 13)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>η² = 0.21</t>
+          <t>p = 0.0097</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>training</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>EUROHIS-QOL 8 energy score</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>1 [IQR: 1 - 2]
-range: 1 - 3</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>2 [IQR: 1 - 2]
-range: 1 - 3</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>2 [IQR: 2 - 3]
-range: 1 - 4</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>p &lt; 0.001</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>η² = 0.26</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>EUROHIS-QOL 8 finances score</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>1 [IQR: 1 - 2]
-range: 1 - 3</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>2 [IQR: 1 - 2]
-range: 1 - 4</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>2 [IQR: 1 - 2]
-range: 1 - 5</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>p &lt; 0.001</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>η² = 0.068</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>EUROHIS-QOL 8 activity score</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>1 [IQR: 1 - 2]
-range: 1 - 2</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>1 [IQR: 1 - 2]
-range: 1 - 2</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>2 [IQR: 2 - 3]
-range: 1 - 5</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>p &lt; 0.001</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>η² = 0.28</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>EUROHIS-QOL 8 self-esteem score</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>2 [IQR: 1 - 2]
-range: 1 - 2</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>2 [IQR: 1 - 2]
-range: 1 - 3</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>2 [IQR: 2 - 3]
-range: 2 - 5</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>p &lt; 0.001</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>η² = 0.36</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>EUROHIS-QOL 8 relationship score</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>2 [IQR: 1 - 2]
-range: 1 - 4</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>1 [IQR: 1 - 2]
-range: 1 - 3</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>2 [IQR: 2 - 3]
-range: 1 - 5</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>p &lt; 0.001</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>η² = 0.22</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>EUROHIS-QOL 8 housing score</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>1 [IQR: 1 - 2]
-range: 1 - 3</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>1 [IQR: 1 - 2]
-range: 1 - 2</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>2 [IQR: 1 - 2]
-range: 1 - 5</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>p &lt; 0.001</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>η² = 0.083</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Participants, n</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>PCL-5 DSM-5 score</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>1.5 [IQR: 0 - 4]
-range: 0 - 11</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>4 [IQR: 1 - 6]
-range: 0 - 15</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>8 [IQR: 3.2 - 13]
-range: 0 - 44</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>p &lt; 0.001</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>η² = 0.21</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>PCL-5 DSM-5 domain B score</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>0 [IQR: 0 - 1]
-range: 0 - 4</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>0 [IQR: 0 - 1]
-range: 0 - 5</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>2 [IQR: 0 - 2.8]
-range: 0 - 15</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>p &lt; 0.001</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>η² = 0.15</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>PCL-5 DSM-5 domain C score</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>0 [IQR: 0 - 0]
-range: 0 - 5</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>0 [IQR: 0 - 1]
-range: 0 - 4</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0 [IQR: 0 - 1]
-range: 0 - 5</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>p = 0.032</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>η² = 0.049</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>PCL-5 DSM-5 domain D score</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>0 [IQR: 0 - 1]
-range: 0 - 4</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>0 [IQR: 0 - 2]
-range: 0 - 6</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>1 [IQR: 1 - 3]
-range: 0 - 15</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>p = 0.0013</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>η² = 0.11</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>PCL-5 DSM-5 domain E score</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>0 [IQR: 0 - 1]
-range: 0 - 4</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>1 [IQR: 0 - 2]
-range: 0 - 9</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>3 [IQR: 0.25 - 5]
-range: 0 - 13</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>p &lt; 0.001</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>η² = 0.16</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>PTGI score</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>18 [IQR: 4 - 24]
-range: 0 - 35</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>50 [IQR: 44 - 61]
-range: 31 - 94</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>31 [IQR: 20 - 38]
-range: 0 - 73</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>p &lt; 0.001</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>η² = 0.57</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>PTGI I relations score</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>6 [IQR: 1 - 10]
-range: 0 - 20</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>20 [IQR: 15 - 23]
-range: 9 - 34</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>12 [IQR: 8.2 - 16]
-range: 0 - 28</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>p &lt; 0.001</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>η² = 0.43</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>PTGI II possibilities score</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>1 [IQR: 0 - 3]
-range: 0 - 13</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>9 [IQR: 7 - 12]
-range: 0 - 23</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>5.5 [IQR: 2.2 - 8]
-range: 0 - 14</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>p &lt; 0.001</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>η² = 0.41</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>PTGI III personal strength score</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>3.5 [IQR: 0 - 6]
-range: 0 - 13</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>12 [IQR: 9 - 15]
-range: 4 - 19</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>8 [IQR: 5 - 9]
-range: 0 - 16</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>p &lt; 0.001</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>η² = 0.46</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>PTGI IV spiritual score</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>0 [IQR: 0 - 0]
-range: 0 - 3</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>2 [IQR: 0 - 3]
-range: 0 - 10</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>0 [IQR: 0 - 1.8]
-range: 0 - 4</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>p &lt; 0.001</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>η² = 0.21</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>PTGI V life appreciation score</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>2 [IQR: 0 - 4]
-range: 0 - 9</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>9 [IQR: 8 - 13]
-range: 6 - 15</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>4.5 [IQR: 3.2 - 7]
-range: 0 - 14</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>p &lt; 0.001</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>η² = 0.53</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>RS13 score</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>82 [IQR: 76 - 86]
-range: 68 - 91</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>83 [IQR: 77 - 87]
-range: 61 - 91</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>68 [IQR: 60 - 73]
-range: 46 - 88</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>p &lt; 0.001</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>η² = 0.34</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>SOC-9L score</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>18 [IQR: 16 - 21]
-range: 11 - 32</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>17 [IQR: 15 - 19]
-range: 10 - 33</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>26 [IQR: 20 - 30]
-range: 15 - 45</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>p &lt; 0.001</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>η² = 0.24</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>PHQ-9 score</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>2 [IQR: 0.75 - 2.2]
-range: 0 - 8</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>2 [IQR: 1 - 4]
-range: 0 - 11</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>5 [IQR: 3 - 9]
-range: 0 - 16</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>p &lt; 0.001</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>η² = 0.23</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>GAD-7 score</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>0 [IQR: 0 - 1.2]
-range: 0 - 6</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>1 [IQR: 0 - 3]
-range: 0 - 6</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>3 [IQR: 1 - 5.8]
-range: 0 - 14</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>p &lt; 0.001</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>η² = 0.14</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>PHQ-panic score</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>0 [IQR: 0 - 0]
-range: 0 - 0</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>0 [IQR: 0 - 0]
-range: 0 - 0</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>0 [IQR: 0 - 0]
-range: 0 - 3</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>p = 0.0051</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>η² = 0.086</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>PHQ-15 score</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>1 [IQR: 0 - 3]
-range: 0 - 7</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>2 [IQR: 1 - 3]
-range: 0 - 13</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>4 [IQR: 3 - 7]
-range: 0 - 23</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>p &lt; 0.001</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>η² = 0.18</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>EUROHIS-QOL 8 score</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>1.5 [IQR: 1.2 - 1.6]
-range: 1 - 2.1</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>1.6 [IQR: 1.4 - 1.9]
-range: 1.1 - 2.2</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>2.2 [IQR: 1.9 - 2.8]
-range: 1.6 - 4</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>p &lt; 0.001</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>η² = 0.51</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>EUROHIS-QOL 8 QoL score</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>1 [IQR: 1 - 1.2]
-range: 1 - 2</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>1 [IQR: 1 - 2]
-range: 1 - 3</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>2 [IQR: 1 - 2]
-range: 1 - 3</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>p &lt; 0.001</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>η² = 0.17</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>EUROHIS-QOL 8 health score</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>2 [IQR: 1 - 2]
-range: 1 - 5</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>2 [IQR: 1 - 2]
-range: 1 - 4</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>2 [IQR: 2 - 2]
-range: 1 - 4</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>p = 0.0086</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>η² = 0.075</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>EUROHIS-QOL 8 energy score</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>1 [IQR: 1 - 2]
-range: 1 - 2</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>2 [IQR: 1 - 2]
-range: 1 - 3</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>2 [IQR: 2 - 2]
-range: 1 - 5</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>p &lt; 0.001</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>η² = 0.2</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>EUROHIS-QOL 8 finances score</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>1 [IQR: 1 - 2]
-range: 1 - 4</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>2 [IQR: 1 - 2]
-range: 1 - 3</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>2 [IQR: 1 - 2]
-range: 1 - 5</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>p = 0.021</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>η² = 0.058</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>EUROHIS-QOL 8 activity score</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>1 [IQR: 1 - 2]
-range: 1 - 2</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>1 [IQR: 1 - 2]
-range: 1 - 2</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>2 [IQR: 2 - 3]
-range: 1 - 5</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>p &lt; 0.001</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>η² = 0.38</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>EUROHIS-QOL 8 self-esteem score</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>2 [IQR: 1 - 2]
-range: 1 - 2</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>2 [IQR: 1 - 2]
-range: 1 - 3</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>2 [IQR: 2 - 4]
-range: 1 - 5</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>p &lt; 0.001</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>η² = 0.29</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>EUROHIS-QOL 8 relationship score</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>2 [IQR: 1 - 2]
-range: 1 - 3</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>2 [IQR: 1 - 2]
-range: 1 - 2</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>2.5 [IQR: 2 - 4]
-range: 1 - 5</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>p &lt; 0.001</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>η² = 0.31</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>EUROHIS-QOL 8 housing score</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>1 [IQR: 1 - 1]
-range: 1 - 3</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>1 [IQR: 1 - 2]
-range: 1 - 3</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>2 [IQR: 1 - 3]
-range: 1 - 5</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>p &lt; 0.001</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>η² = 0.16</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>test</t>
+          <t>V = 0.25</t>
         </is>
       </c>
     </row>
@@ -6517,7 +7017,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6526,1303 +7026,36 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Variable</t>
+          <t>Classifier type</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Neutral cluster</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PTG cluster</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>PTS cluster</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Significance</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Effect size</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Cohort subset</t>
+          <t>Explanatory variables</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>accident daytime</t>
+          <t>early predictor model</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>day: 92% (n = 58)
-night: 7.9% (n = 5)
-n = 63</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>day: 88% (n = 68)
-night: 12% (n = 9)
-n = 77</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>day: 98% (n = 63)
-night: 1.6% (n = 1)
-n = 64</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>ns (p = 0.07)</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>V = 0.16</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>training</t>
+          <t>age, age class, accident season, accident daytime, sex, education, employment, sport profession, trauma-risk profession, healthcare profession, income/year, income ≥ 45K EUR/year, residence in the Alps, smoking, pre-existing somatic illness, pre-existing mental illness, prior traumatic event/DIA-X, alcohol abuse (CAGE ≥2), prior sport accidents, sport type, alone during the accident, accident culprit, rescue, rescue mode, injury severity class, injury severity, head injury, face injury, neck injury, chest injury, abdomen injury, spine region injury, upper limb injury, lower limb injury, other injury, number of injured body parts, hospitalized, surgery, surgery diagnoses</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>sex</t>
+          <t>full set predictor model</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>female: 30% (n = 19)
-male: 70% (n = 44)
-n = 63</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>female: 55% (n = 42)
-male: 45% (n = 35)
-n = 77</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>female: 48% (n = 31)
-male: 52% (n = 33)
-n = 64</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>p = 0.013</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>V = 0.21</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>trauma-risk profession</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>3.2% (n = 2)
-n = 63</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>12% (n = 9)
-n = 77</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.6% (n = 1)
-n = 64</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>p = 0.021</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>V = 0.19</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>income/year</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>no income: 16% (n = 10)
-&lt; 30000 EUR: 13% (n = 8)
-30000 - 45000 EUR: 16% (n = 10)
-≥ 45000 EUR: 56% (n = 35)
-n = 63</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>no income: 30% (n = 23)
-&lt; 30000 EUR: 22% (n = 17)
-30000 - 45000 EUR: 12% (n = 9)
-≥ 45000 EUR: 36% (n = 28)
-n = 77</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>no income: 17% (n = 11)
-&lt; 30000 EUR: 19% (n = 12)
-30000 - 45000 EUR: 25% (n = 16)
-≥ 45000 EUR: 39% (n = 25)
-n = 64</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>p = 0.048</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>V = 0.18</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>income ≥ 45K EUR/year</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>56% (n = 35)
-n = 63</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>36% (n = 28)
-n = 77</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>39% (n = 25)
-n = 64</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>ns (p = 0.054)</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>V = 0.17</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>pre-existing somatic illness</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>6.3% (n = 4)
-n = 63</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>19% (n = 15)
-n = 77</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>20% (n = 13)
-n = 64</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>p = 0.049</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>V = 0.17</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>pre-existing mental illness</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>0% (n = 0)
-n = 63</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1.3% (n = 1)
-n = 77</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>14% (n = 9)
-n = 64</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>p &lt; 0.001</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>V = 0.29</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>prior traumatic event/DIA-X</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>30% (n = 19)
-n = 63</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>49% (n = 38)
-n = 77</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>41% (n = 26)
-n = 64</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>ns (p = 0.071)</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>V = 0.16</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>alcohol abuse (CAGE ≥2)</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>3.2% (n = 2)
-n = 63</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>5.2% (n = 4)
-n = 77</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>14% (n = 9)
-n = 64</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>p = 0.041</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>V = 0.18</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>alone during the accident</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>24% (n = 15)
-n = 63</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>43% (n = 33)
-n = 77</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>31% (n = 20)
-n = 64</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>ns (p = 0.054)</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>V = 0.17</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>accident culprit</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>self: 87% (n = 55)
-non-self: 13% (n = 8)
-n = 63</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>self: 71% (n = 55)
-non-self: 29% (n = 22)
-n = 77</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>self: 83% (n = 53)
-non-self: 17% (n = 11)
-n = 64</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>ns (p = 0.052)</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>V = 0.17</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>rescue</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>self: 65% (n = 41)
-partner/third party: 22% (n = 14)
-rescue team: 13% (n = 8)
-n = 63</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>self: 47% (n = 36)
-partner/third party: 21% (n = 16)
-rescue team: 32% (n = 25)
-n = 77</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>self: 41% (n = 26)
-partner/third party: 20% (n = 13)
-rescue team: 39% (n = 25)
-n = 64</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>p = 0.013</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>V = 0.18</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>rescue mode</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>no professional rescue: 87% (n = 55)
-airborne: 6.3% (n = 4)
-on ground: 3.2% (n = 2)
-other: 3.2% (n = 2)
-n = 63</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>no professional rescue: 68% (n = 52)
-airborne: 14% (n = 11)
-on ground: 9.1% (n = 7)
-other: 9.1% (n = 7)
-n = 77</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>no professional rescue: 61% (n = 39)
-airborne: 14% (n = 9)
-on ground: 12% (n = 8)
-other: 12% (n = 8)
-n = 64</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>ns (p = 0.053)</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>V = 0.17</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>surgery</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>6.3% (n = 4)
-n = 63</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>13% (n = 10)
-n = 77</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>20% (n = 13)
-n = 64</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>ns (p = 0.067)</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>V = 0.16</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>surgery diagnoses</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>0 [IQR: 0 - 0]
-range: 0 - 1
-n = 63</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>0 [IQR: 0 - 0]
-range: 0 - 5
-n = 77</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0 [IQR: 0 - 0]
-range: 0 - 9
-n = 64</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>ns (p = 0.053)</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>η² = 0.019</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>psychological support</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>1.6% (n = 1)
-n = 63</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>16% (n = 12)
-n = 77</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>9.4% (n = 6)
-n = 64</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>p = 0.018</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>V = 0.2</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>psychological support need</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>0% (n = 0)
-n = 63</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>9.1% (n = 7)
-n = 77</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>16% (n = 10)
-n = 64</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>p = 0.006</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>V = 0.22</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>somatic accident aftermath</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>27% (n = 17)
-n = 63</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>27% (n = 21)
-n = 77</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>53% (n = 34)
-n = 64</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>p = 0.0015</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>V = 0.25</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>caution post accident</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>no change: 56% (n = 35)
-more cautious: 44% (n = 28)
-less cautious: 0% (n = 0)
-n = 63</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>no change: 31% (n = 24)
-more cautious: 68% (n = 52)
-less cautious: 1.3% (n = 1)
-n = 77</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>no change: 17% (n = 11)
-more cautious: 83% (n = 53)
-less cautious: 0% (n = 0)
-n = 64</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>p &lt; 0.001</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>V = 0.24</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>flashbacks during sport</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>25% (n = 16)
-n = 63</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>30% (n = 23)
-n = 77</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>59% (n = 38)
-n = 64</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>p &lt; 0.001</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>V = 0.3</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>flashback frequency</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>none: 75% (n = 47)
-&gt; 1/month: 7.9% (n = 5)
-&gt; 1/year: 17% (n = 11)
-n = 63</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>none: 70% (n = 54)
-&gt; 1/month: 13% (n = 10)
-&gt; 1/year: 17% (n = 13)
-n = 77</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>none: 41% (n = 26)
-&gt; 1/month: 34% (n = 22)
-&gt; 1/year: 25% (n = 16)
-n = 64</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>p &lt; 0.001</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>V = 0.24</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>accident season</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>spring: 25% (n = 9)
-summer: 8.3% (n = 3)
-fall: 19% (n = 7)
-winter: 47% (n = 17)
-n = 36</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>spring: 33% (n = 11)
-summer: 18% (n = 6)
-fall: 3% (n = 1)
-winter: 45% (n = 15)
-n = 33</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>spring: 12% (n = 4)
-summer: 8.8% (n = 3)
-fall: 24% (n = 8)
-winter: 56% (n = 19)
-n = 34</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>ns (p = 0.098)</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>V = 0.23</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>pre-existing somatic illness</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>5.6% (n = 2)
-n = 36</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>24% (n = 8)
-n = 33</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>15% (n = 5)
-n = 34</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>ns (p = 0.089)</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>V = 0.22</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>pre-existing mental illness</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>0% (n = 0)
-n = 36</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>3% (n = 1)
-n = 33</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>15% (n = 5)
-n = 34</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>p = 0.023</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>V = 0.27</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>injury severity AIS, AIS</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>2 [IQR: 1 - 3]
-range: 1 - 4
-n = 32</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>2 [IQR: 2 - 3]
-range: 1 - 4
-n = 32</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>2 [IQR: 1 - 2]
-range: 1 - 3
-n = 32</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>p = 0.046</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>η² = 0.042</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>hospitalized</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>14% (n = 5)
-n = 36</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>39% (n = 13)
-n = 33</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>26% (n = 9)
-n = 34</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>ns (p = 0.055)</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>V = 0.24</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>psychological support need</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>0% (n = 0)
-n = 36</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>0% (n = 0)
-n = 33</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>18% (n = 6)
-n = 34</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>p = 0.0016</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>V = 0.35</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>somatic accident aftermath</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>22% (n = 8)
-n = 36</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>45% (n = 15)
-n = 33</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>59% (n = 20)
-n = 34</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>p = 0.0071</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>V = 0.31</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>flashbacks during sport</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>22% (n = 8)
-n = 36</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>45% (n = 15)
-n = 33</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>65% (n = 22)
-n = 34</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>p = 0.0016</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>V = 0.35</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>flashback frequency</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>none: 78% (n = 28)
-&gt; 1/month: 5.6% (n = 2)
-&gt; 1/year: 17% (n = 6)
-n = 36</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>none: 55% (n = 18)
-&gt; 1/month: 18% (n = 6)
-&gt; 1/year: 27% (n = 9)
-n = 33</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>none: 35% (n = 12)
-&gt; 1/month: 26% (n = 9)
-&gt; 1/year: 38% (n = 13)
-n = 34</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>p = 0.0097</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>V = 0.25</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>test</t>
+          <t>age, age class, accident season, accident daytime, sex, education, employment, sport profession, trauma-risk profession, healthcare profession, income/year, income ≥ 45K EUR/year, residence in the Alps, smoking, pre-existing somatic illness, pre-existing mental illness, prior traumatic event/DIA-X, alcohol abuse (CAGE ≥2), prior sport accidents, sport type, alone during the accident, accident culprit, rescue, rescue mode, injury severity class, injury severity, head injury, face injury, neck injury, chest injury, abdomen injury, spine region injury, upper limb injury, lower limb injury, other injury, number of injured body parts, hospitalized, surgery, surgery diagnoses, psychological support, psychological support need, somatic accident aftermath, returned to same sport, caution post accident, flashbacks during sport, flashback frequency, confusion during sport</t>
         </is>
       </c>
     </row>

--- a/paper/supplementary_tables.xlsx
+++ b/paper/supplementary_tables.xlsx
@@ -3029,7 +3029,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Resilient coping</t>
+          <t>Mental health, resilience, coherence</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3046,7 +3046,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Resilient coping</t>
+          <t>Mental health, resilience, coherence</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3063,7 +3063,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Sense of coherence</t>
+          <t>Mental health, resilience, coherence</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3080,7 +3080,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>PHQ mental health</t>
+          <t>Mental health, resilience, coherence</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3097,7 +3097,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>PHQ mental health</t>
+          <t>Mental health, resilience, coherence</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3114,7 +3114,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>PHQ mental health</t>
+          <t>Mental health, resilience, coherence</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3131,7 +3131,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>PHQ mental health</t>
+          <t>Mental health, resilience, coherence</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3148,7 +3148,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>PHQ mental health</t>
+          <t>Mental health, resilience, coherence</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3165,7 +3165,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>PHQ mental health</t>
+          <t>Mental health, resilience, coherence</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3182,7 +3182,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>PHQ mental health</t>
+          <t>Mental health, resilience, coherence</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -3199,7 +3199,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>PHQ mental health</t>
+          <t>Mental health, resilience, coherence</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">

--- a/paper/supplementary_tables.xlsx
+++ b/paper/supplementary_tables.xlsx
@@ -849,7 +849,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -883,15 +883,10 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Brier skill score</t>
+          <t>Sensitivity, PTS cluster</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Sensitivity, PTS cluster</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Specificity, PTS cluster</t>
         </is>
@@ -918,14 +913,11 @@
         <v>0.15</v>
       </c>
       <c r="F2">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -945,15 +937,12 @@
         <v>0.11</v>
       </c>
       <c r="E3">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="F3">
-        <v>0.48</v>
+        <v>0.42</v>
       </c>
       <c r="G3">
-        <v>0.42</v>
-      </c>
-      <c r="H3">
         <v>0.68</v>
       </c>
     </row>
@@ -978,12 +967,9 @@
         <v>0.66</v>
       </c>
       <c r="F4">
-        <v>0.52</v>
+        <v>0.48</v>
       </c>
       <c r="G4">
-        <v>0.48</v>
-      </c>
-      <c r="H4">
         <v>0.68</v>
       </c>
     </row>
@@ -1008,14 +994,11 @@
         <v>0.018</v>
       </c>
       <c r="F5">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1038,12 +1021,9 @@
         <v>0.88</v>
       </c>
       <c r="F6">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="G6">
-        <v>0.35</v>
-      </c>
-      <c r="H6">
         <v>0.6899999999999999</v>
       </c>
     </row>
@@ -1068,12 +1048,9 @@
         <v>0.96</v>
       </c>
       <c r="F7">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="G7">
-        <v>0.33</v>
-      </c>
-      <c r="H7">
         <v>0.72</v>
       </c>
     </row>
@@ -1098,12 +1075,9 @@
         <v>0.57</v>
       </c>
       <c r="F8">
-        <v>0.52</v>
+        <v>0.88</v>
       </c>
       <c r="G8">
-        <v>0.88</v>
-      </c>
-      <c r="H8">
         <v>0.99</v>
       </c>
     </row>
@@ -1128,12 +1102,9 @@
         <v>0.67</v>
       </c>
       <c r="F9">
-        <v>0.48</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G9">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="H9">
         <v>0.59</v>
       </c>
     </row>
@@ -1158,12 +1129,9 @@
         <v>0.66</v>
       </c>
       <c r="F10">
-        <v>0.55</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G10">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="H10">
         <v>0.64</v>
       </c>
     </row>
@@ -1188,12 +1156,9 @@
         <v>0.5</v>
       </c>
       <c r="F11">
-        <v>0.61</v>
+        <v>0.62</v>
       </c>
       <c r="G11">
-        <v>0.62</v>
-      </c>
-      <c r="H11">
         <v>0.84</v>
       </c>
     </row>
@@ -1218,12 +1183,9 @@
         <v>0.77</v>
       </c>
       <c r="F12">
-        <v>0.44</v>
+        <v>0.38</v>
       </c>
       <c r="G12">
-        <v>0.38</v>
-      </c>
-      <c r="H12">
         <v>0.76</v>
       </c>
     </row>
@@ -1248,12 +1210,9 @@
         <v>0.78</v>
       </c>
       <c r="F13">
-        <v>0.41</v>
+        <v>0.33</v>
       </c>
       <c r="G13">
-        <v>0.33</v>
-      </c>
-      <c r="H13">
         <v>0.7</v>
       </c>
     </row>
@@ -1278,12 +1237,9 @@
         <v>0.41</v>
       </c>
       <c r="F14">
-        <v>0.7</v>
+        <v>0.68</v>
       </c>
       <c r="G14">
-        <v>0.68</v>
-      </c>
-      <c r="H14">
         <v>0.87</v>
       </c>
     </row>
@@ -1308,12 +1264,9 @@
         <v>0.8</v>
       </c>
       <c r="F15">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="G15">
-        <v>0.38</v>
-      </c>
-      <c r="H15">
         <v>0.68</v>
       </c>
     </row>
@@ -1338,12 +1291,9 @@
         <v>0.74</v>
       </c>
       <c r="F16">
-        <v>0.41</v>
+        <v>0.33</v>
       </c>
       <c r="G16">
-        <v>0.33</v>
-      </c>
-      <c r="H16">
         <v>0.68</v>
       </c>
     </row>
@@ -1368,12 +1318,9 @@
         <v>0.55</v>
       </c>
       <c r="F17">
-        <v>0.57</v>
+        <v>0.75</v>
       </c>
       <c r="G17">
-        <v>0.75</v>
-      </c>
-      <c r="H17">
         <v>0.84</v>
       </c>
     </row>
@@ -1398,12 +1345,9 @@
         <v>0.66</v>
       </c>
       <c r="F18">
-        <v>0.52</v>
+        <v>0.4</v>
       </c>
       <c r="G18">
-        <v>0.4</v>
-      </c>
-      <c r="H18">
         <v>0.67</v>
       </c>
     </row>
@@ -1428,12 +1372,9 @@
         <v>0.65</v>
       </c>
       <c r="F19">
-        <v>0.44</v>
+        <v>0.48</v>
       </c>
       <c r="G19">
-        <v>0.48</v>
-      </c>
-      <c r="H19">
         <v>0.74</v>
       </c>
     </row>
@@ -1458,12 +1399,9 @@
         <v>0.41</v>
       </c>
       <c r="F20">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="G20">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="H20">
         <v>0.86</v>
       </c>
     </row>
@@ -1488,12 +1426,9 @@
         <v>0.76</v>
       </c>
       <c r="F21">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="G21">
-        <v>0.38</v>
-      </c>
-      <c r="H21">
         <v>0.66</v>
       </c>
     </row>
@@ -1518,12 +1453,9 @@
         <v>0.74</v>
       </c>
       <c r="F22">
-        <v>0.52</v>
+        <v>0.41</v>
       </c>
       <c r="G22">
-        <v>0.41</v>
-      </c>
-      <c r="H22">
         <v>0.62</v>
       </c>
     </row>
@@ -1534,7 +1466,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1568,15 +1500,10 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Brier skill score</t>
+          <t>Sensitivity, PTS cluster</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Sensitivity, PTS cluster</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Specificity, PTS cluster</t>
         </is>
@@ -1603,12 +1530,9 @@
         <v>0.42</v>
       </c>
       <c r="F2">
-        <v>0.68</v>
+        <v>0.95</v>
       </c>
       <c r="G2">
-        <v>0.95</v>
-      </c>
-      <c r="H2">
         <v>0.98</v>
       </c>
     </row>
@@ -1633,12 +1557,9 @@
         <v>0.65</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>0.48</v>
       </c>
       <c r="G3">
-        <v>0.48</v>
-      </c>
-      <c r="H3">
         <v>0.68</v>
       </c>
     </row>
@@ -1663,12 +1584,9 @@
         <v>0.64</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>0.52</v>
       </c>
       <c r="G4">
-        <v>0.52</v>
-      </c>
-      <c r="H4">
         <v>0.7</v>
       </c>
     </row>
@@ -1693,12 +1611,9 @@
         <v>0.18</v>
       </c>
       <c r="F5">
-        <v>0.87</v>
+        <v>0.91</v>
       </c>
       <c r="G5">
-        <v>0.91</v>
-      </c>
-      <c r="H5">
         <v>1</v>
       </c>
     </row>
@@ -1723,12 +1638,9 @@
         <v>0.9</v>
       </c>
       <c r="F6">
-        <v>0.28</v>
+        <v>0.48</v>
       </c>
       <c r="G6">
-        <v>0.48</v>
-      </c>
-      <c r="H6">
         <v>0.75</v>
       </c>
     </row>
@@ -1753,12 +1665,9 @@
         <v>0.92</v>
       </c>
       <c r="F7">
-        <v>0.28</v>
+        <v>0.3</v>
       </c>
       <c r="G7">
-        <v>0.3</v>
-      </c>
-      <c r="H7">
         <v>0.85</v>
       </c>
     </row>
@@ -1783,12 +1692,9 @@
         <v>0.52</v>
       </c>
       <c r="F8">
-        <v>0.59</v>
+        <v>0.75</v>
       </c>
       <c r="G8">
-        <v>0.75</v>
-      </c>
-      <c r="H8">
         <v>0.8</v>
       </c>
     </row>
@@ -1813,12 +1719,9 @@
         <v>0.63</v>
       </c>
       <c r="F9">
-        <v>0.5</v>
+        <v>0.59</v>
       </c>
       <c r="G9">
-        <v>0.59</v>
-      </c>
-      <c r="H9">
         <v>0.68</v>
       </c>
     </row>
@@ -1843,12 +1746,9 @@
         <v>0.64</v>
       </c>
       <c r="F10">
-        <v>0.54</v>
+        <v>0.48</v>
       </c>
       <c r="G10">
-        <v>0.48</v>
-      </c>
-      <c r="H10">
         <v>0.7</v>
       </c>
     </row>
@@ -1876,9 +1776,6 @@
         <v>0.55</v>
       </c>
       <c r="G11">
-        <v>0.55</v>
-      </c>
-      <c r="H11">
         <v>0.79</v>
       </c>
     </row>
@@ -1903,12 +1800,9 @@
         <v>0.7</v>
       </c>
       <c r="F12">
-        <v>0.46</v>
+        <v>0.39</v>
       </c>
       <c r="G12">
-        <v>0.39</v>
-      </c>
-      <c r="H12">
         <v>0.66</v>
       </c>
     </row>
@@ -1933,12 +1827,9 @@
         <v>0.7</v>
       </c>
       <c r="F13">
-        <v>0.36</v>
+        <v>0.41</v>
       </c>
       <c r="G13">
-        <v>0.41</v>
-      </c>
-      <c r="H13">
         <v>0.72</v>
       </c>
     </row>
@@ -1963,12 +1854,9 @@
         <v>0.34</v>
       </c>
       <c r="F14">
-        <v>0.74</v>
+        <v>0.71</v>
       </c>
       <c r="G14">
-        <v>0.71</v>
-      </c>
-      <c r="H14">
         <v>0.88</v>
       </c>
     </row>
@@ -1996,9 +1884,6 @@
         <v>0.42</v>
       </c>
       <c r="G15">
-        <v>0.42</v>
-      </c>
-      <c r="H15">
         <v>0.77</v>
       </c>
     </row>
@@ -2023,12 +1908,9 @@
         <v>0.76</v>
       </c>
       <c r="F16">
-        <v>0.39</v>
+        <v>0.33</v>
       </c>
       <c r="G16">
-        <v>0.33</v>
-      </c>
-      <c r="H16">
         <v>0.8100000000000001</v>
       </c>
     </row>
@@ -2053,12 +1935,9 @@
         <v>0.59</v>
       </c>
       <c r="F17">
-        <v>0.55</v>
+        <v>0.82</v>
       </c>
       <c r="G17">
-        <v>0.82</v>
-      </c>
-      <c r="H17">
         <v>0.79</v>
       </c>
     </row>
@@ -2083,12 +1962,9 @@
         <v>0.65</v>
       </c>
       <c r="F18">
-        <v>0.54</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G18">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="H18">
         <v>0.62</v>
       </c>
     </row>
@@ -2113,12 +1989,9 @@
         <v>0.65</v>
       </c>
       <c r="F19">
-        <v>0.49</v>
+        <v>0.48</v>
       </c>
       <c r="G19">
-        <v>0.48</v>
-      </c>
-      <c r="H19">
         <v>0.68</v>
       </c>
     </row>
@@ -2143,12 +2016,9 @@
         <v>0.31</v>
       </c>
       <c r="F20">
-        <v>0.76</v>
+        <v>0.79</v>
       </c>
       <c r="G20">
-        <v>0.79</v>
-      </c>
-      <c r="H20">
         <v>0.9</v>
       </c>
     </row>
@@ -2173,12 +2043,9 @@
         <v>0.77</v>
       </c>
       <c r="F21">
-        <v>0.4</v>
+        <v>0.48</v>
       </c>
       <c r="G21">
-        <v>0.48</v>
-      </c>
-      <c r="H21">
         <v>0.6899999999999999</v>
       </c>
     </row>
@@ -2203,12 +2070,9 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="F22">
-        <v>0.42</v>
+        <v>0.3</v>
       </c>
       <c r="G22">
-        <v>0.3</v>
-      </c>
-      <c r="H22">
         <v>0.74</v>
       </c>
     </row>

--- a/paper/supplementary_tables.xlsx
+++ b/paper/supplementary_tables.xlsx
@@ -20,6 +20,7 @@
     <sheet name="Supplementary Table S10" sheetId="11" r:id="rId11"/>
     <sheet name="Supplementary Table S11" sheetId="12" r:id="rId12"/>
     <sheet name="Supplementary Table S12" sheetId="13" r:id="rId13"/>
+    <sheet name="Supplementary Table S13" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -363,7 +364,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -473,7 +474,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Significant differences in demographic, socioeconomic, clinical, accident- and recovery-related factors, and mental disorder symptoms between the mental clusters in the entire cohort. Numeric variables are presented as medians with interquartile ranges (IQR). Categorical variables are presented as percentages and counts within the complete observation set.</t>
+          <t>Frequency of mental disorder symptoms in the mental health clusters in the entire cohort. Categorical variables are presented as percentages and counts within the clusters.</t>
         </is>
       </c>
     </row>
@@ -485,7 +486,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sets of explanatory factors used for modeling of the mental cluster assignment.</t>
+          <t>Differences in demographic, socioeconomic, clinical, accident- and recovery-related factors, and between the mental clusters in the entire cohort. Significant effects are presented, the full table is available as a supplementary Excel file. Numeric variables are presented as medians with interquartile ranges (IQR). Categorical variables are presented as percentages and counts within the clusters.</t>
         </is>
       </c>
     </row>
@@ -497,7 +498,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>The optimal combinations of machine learning algorithm parameters found in 10-fold cross-validation of the training subset of the study cohort.</t>
+          <t>Sets of explanatory factors used for modeling of the mental cluster assignment.</t>
         </is>
       </c>
     </row>
@@ -509,7 +510,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Performance statistics of machine learning classifiers at predicting the mental cluster assignment. Models employing early predictors available during acute medical management of the accident.</t>
+          <t>The optimal combinations of machine learning algorithm parameters found in 10-fold cross-validation of the training subset of the study cohort.</t>
         </is>
       </c>
     </row>
@@ -521,7 +522,19 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Performance statistics of machine learning classifiers at predicting the mental cluster assignment. Models employing the full predictor set available during acute medical management of the accident and follow-up.</t>
+          <t>Performance statistics of machine learning classifiers at predicting the mental cluster assignment. Models employing early predictors available during acute medical management of the patient.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Supplementary Table S13</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Performance statistics of machine learning classifiers at predicting the mental cluster assignment. Models employing the full predictor set available during acute medical management of the patient and follow-up.</t>
         </is>
       </c>
     </row>
@@ -531,6 +544,1762 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variable</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Neutral cluster</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PTG cluster</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>PTS cluster</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Significance</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Effect size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Participants, n</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>age at the accident, years</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>53 [IQR: 34 - 61]
+range: 18 - 82</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>54 [IQR: 39 - 61]
+range: 18 - 81</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>45 [IQR: 29 - 56]
+range: 18 - 82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>p = 0.023</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>η² = 0.027</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>age at the accident, class, years</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>16-30: 19% (n = 20)
+31-65: 62% (n = 64)
+&gt;65: 18% (n = 19)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>16-30: 12% (n = 11)
+31-65: 74% (n = 70)
+&gt;65: 14% (n = 13)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16-30: 27% (n = 30)
+31-65: 62% (n = 68)
+&gt;65: 11% (n = 12)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>ns (p = 0.11)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>V = 0.13</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>hospital visit – survey time, days</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1400 [IQR: 760 - 1400]
+range: 400 - 1600</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1300 [IQR: 860 - 1400]
+range: 400 - 1500</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1300 [IQR: 960 - 1400]
+range: 390 - 1500</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ns (p = 0.99)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>η² = -0.0065</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>accident season</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>spring: 21% (n = 22)
+summer: 14% (n = 14)
+fall: 14% (n = 14)
+winter: 51% (n = 53)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>spring: 31% (n = 29)
+summer: 11% (n = 10)
+fall: 4.3% (n = 4)
+winter: 54% (n = 51)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>spring: 26% (n = 29)
+summer: 12% (n = 13)
+fall: 12% (n = 13)
+winter: 50% (n = 55)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>ns (p = 0.47)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>V = 0.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>accident daytime</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>day: 93% (n = 96)
+night: 6.8% (n = 7)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>day: 86% (n = 81)
+night: 14% (n = 13)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>day: 93% (n = 102)
+night: 7.3% (n = 8)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>ns (p = 0.27)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>V = 0.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sex</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>female: 36% (n = 37)
+male: 64% (n = 66)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>female: 50% (n = 47)
+male: 50% (n = 47)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>female: 48% (n = 53)
+male: 52% (n = 57)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>ns (p = 0.18)</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>V = 0.13</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>highest education grade</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>primary/apprenticeship: 9% (n = 9)
+secondary: 39% (n = 39)
+tertiary: 52% (n = 52)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>primary/apprenticeship: 26% (n = 24)
+secondary: 32% (n = 30)
+tertiary: 42% (n = 39)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>primary/apprenticeship: 15% (n = 16)
+secondary: 43% (n = 46)
+tertiary: 42% (n = 45)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>ns (p = 0.068)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>V = 0.14</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>employment at the accident</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>employed: 69% (n = 71)
+unemployed: 2.9% (n = 3)
+student: 7.8% (n = 8)
+retired: 20% (n = 21)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>employed: 67% (n = 63)
+unemployed: 4.3% (n = 4)
+student: 7.4% (n = 7)
+retired: 21% (n = 20)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>employed: 69% (n = 76)
+unemployed: 3.6% (n = 4)
+student: 15% (n = 17)
+retired: 12% (n = 13)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>ns (p = 0.41)</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>V = 0.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>mountain sport profession</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>5.8% (n = 6)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>3.2% (n = 3)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.4% (n = 7)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>ns (p = 0.66)</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>V = 0.061</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>search and rescue profession</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>6.8% (n = 7)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>12% (n = 11)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.6% (n = 4)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>ns (p = 0.18)</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>V = 0.13</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>healthcare profession</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>4.9% (n = 5)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2.1% (n = 2)</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.8% (n = 2)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>ns (p = 0.48)</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>V = 0.081</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>income/year</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>no income: 18% (n = 19)
+&lt; 30000 EUR: 16% (n = 16)
+30000 - 45000 EUR: 18% (n = 19)
+≥ 45000 EUR: 48% (n = 49)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>no income: 26% (n = 24)
+&lt; 30000 EUR: 20% (n = 19)
+30000 - 45000 EUR: 12% (n = 11)
+≥ 45000 EUR: 43% (n = 40)</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>no income: 18% (n = 20)
+&lt; 30000 EUR: 19% (n = 21)
+30000 - 45000 EUR: 26% (n = 29)
+≥ 45000 EUR: 36% (n = 40)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>ns (p = 0.25)</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>V = 0.13</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>residence in the Alps</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>76% (n = 78)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>70% (n = 66)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>74% (n = 81)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ns (p = 0.75)</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>V = 0.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>smoking</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>9.7% (n = 10)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>4.3% (n = 4)</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.1% (n = 10)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ns (p = 0.45)</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>V = 0.089</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>pre-existing physical illness</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>5.8% (n = 6)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>22% (n = 21)</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>18% (n = 20)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>p = 0.013</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>V = 0.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>pre-existing physical illness type</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>none: 94% (n = 97)
+CVD: 1.9% (n = 2)
+neurological: 0% (n = 0)
+metabolic: 0% (n = 0)
+pulmonary: 0.97% (n = 1)
+cancer: 0% (n = 0)
+rheumatoid: 0% (n = 0)
+skin: 0% (n = 0)
+other: 2.9% (n = 3)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>none: 78% (n = 73)
+CVD: 5.3% (n = 5)
+neurological: 3.2% (n = 3)
+metabolic: 3.2% (n = 3)
+pulmonary: 0% (n = 0)
+cancer: 1.1% (n = 1)
+rheumatoid: 1.1% (n = 1)
+skin: 0% (n = 0)
+other: 8.5% (n = 8)</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>none: 82% (n = 90)
+CVD: 1.8% (n = 2)
+neurological: 0.91% (n = 1)
+metabolic: 0.91% (n = 1)
+pulmonary: 0.91% (n = 1)
+cancer: 0.91% (n = 1)
+rheumatoid: 0% (n = 0)
+skin: 0.91% (n = 1)
+other: 12% (n = 13)</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>ns (p = 0.18)</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>V = 0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>pre-existing diagnosed mental disorder</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0% (n = 0)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1.1% (n = 1)</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>14% (n = 15)</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>V = 0.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>number of prior traumatic events/DIA-X</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>none: 70% (n = 72)
+1: 20% (n = 21)
+2: 7.8% (n = 8)
+3+: 1.9% (n = 2)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>none: 51% (n = 48)
+1: 41% (n = 39)
+2: 4.3% (n = 4)
+3+: 3.2% (n = 3)</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>none: 57% (n = 63)
+1: 29% (n = 32)
+2: 10% (n = 11)
+3+: 3.6% (n = 4)</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>ns (p = 0.1)</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>V = 0.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>problematic alcohol use (CAGE ≥2)</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>7.8% (n = 8)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>7.4% (n = 7)</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>13% (n = 14)</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>ns (p = 0.47)</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>V = 0.084</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>prior mountain sport accidents</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>40% (n = 41)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>35% (n = 33)</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>40% (n = 44)</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>ns (p = 0.77)</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>V = 0.046</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>accident year</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2018: 71% (n = 73)
+2019: 4.9% (n = 5)
+2020: 24% (n = 25)</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2018: 67% (n = 63)
+2019: 12% (n = 11)
+2020: 21% (n = 20)</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2018: 70% (n = 77)
+2019: 5.5% (n = 6)
+2020: 25% (n = 27)</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>ns (p = 0.48)</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>V = 0.084</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>mountain sport type</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ski/snowboard/cross-country: 62% (n = 64)
+sledding: 4.9% (n = 5)
+climbing/hiking/mountaineering/skitour: 12% (n = 12)
+biking: 20% (n = 21)
+other: 0.97% (n = 1)</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>ski/snowboard/cross-country: 70% (n = 66)
+sledding: 2.1% (n = 2)
+climbing/hiking/mountaineering/skitour: 13% (n = 12)
+biking: 13% (n = 12)
+other: 2.1% (n = 2)</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>ski/snowboard/cross-country: 61% (n = 67)
+sledding: 4.5% (n = 5)
+climbing/hiking/mountaineering/skitour: 16% (n = 18)
+biking: 14% (n = 15)
+other: 4.5% (n = 5)</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>ns (p = 0.56)</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>V = 0.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>alone during the accident</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>28% (n = 29)</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>39% (n = 37)</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>28% (n = 31)</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>ns (p = 0.26)</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>V = 0.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>responsible for the accident</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>self: 82% (n = 84)
+non-self: 18% (n = 19)</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>self: 67% (n = 63)
+non-self: 33% (n = 31)</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>self: 82% (n = 90)
+non-self: 18% (n = 20)</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>ns (p = 0.062)</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>V = 0.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>number of injured persons</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>only self: 65% (n = 67)
+self and partner: 5.8% (n = 6)
+3+ persons: 0.97% (n = 1)
+no information: 28% (n = 29)</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>only self: 56% (n = 53)
+self and partner: 3.2% (n = 3)
+3+ persons: 1.1% (n = 1)
+no information: 39% (n = 37)</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>only self: 68% (n = 75)
+self and partner: 1.8% (n = 2)
+3+ persons: 1.8% (n = 2)
+no information: 28% (n = 31)</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>ns (p = 0.48)</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>V = 0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>rescue mode</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>self: 61% (n = 63)
+companion: 19% (n = 20)
+rescue team: 19% (n = 20)</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>self: 43% (n = 40)
+companion: 21% (n = 20)
+rescue team: 36% (n = 34)</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>self: 47% (n = 52)
+companion: 21% (n = 23)
+rescue team: 32% (n = 35)</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>ns (p = 0.14)</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>V = 0.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>professional rescue mode</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>no professional rescue: 81% (n = 83)
+airborne: 8.7% (n = 9)
+on ground: 4.9% (n = 5)
+other: 5.8% (n = 6)</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>no professional rescue: 64% (n = 60)
+airborne: 17% (n = 16)
+on ground: 8.5% (n = 8)
+other: 11% (n = 10)</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>no professional rescue: 68% (n = 75)
+airborne: 14% (n = 15)
+on ground: 9.1% (n = 10)
+other: 9.1% (n = 10)</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>ns (p = 0.41)</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>V = 0.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>injury severity class, AIS</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>1: 44% (n = 42)
+2: 33% (n = 32)
+3+: 23% (n = 22)</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>1: 26% (n = 24)
+2: 41% (n = 38)
+3+: 33% (n = 30)</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1: 40% (n = 42)
+2: 31% (n = 33)
+3+: 29% (n = 31)</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>ns (p = 0.21)</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>V = 0.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>injury severity, AIS</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2 [IQR: 1 - 2]
+range: 1 - 5</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2 [IQR: 1 - 3]
+range: 1 - 5</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2 [IQR: 1 - 3]
+range: 1 - 5</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>ns (p = 0.094)</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>η² = 0.016</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>head injury</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>12% (n = 12)</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>17% (n = 16)</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>14% (n = 15)</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>ns (p = 0.71)</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>V = 0.056</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>face injury</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>6.2% (n = 6)</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>14% (n = 13)</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>14% (n = 15)</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>ns (p = 0.25)</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>V = 0.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>neck injury</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>0% (n = 0)</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>1.1% (n = 1)</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.9% (n = 2)</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>ns (p = 0.52)</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>V = 0.078</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>chest injury</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>9.4% (n = 9)</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>11% (n = 10)</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>13% (n = 14)</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>ns (p = 0.75)</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>V = 0.051</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>abdomen injury</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>4.2% (n = 4)</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>4.3% (n = 4)</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.9% (n = 2)</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>ns (p = 0.66)</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>V = 0.063</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>spine region injury</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>9.4% (n = 9)</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>11% (n = 10)</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>9.4% (n = 10)</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>ns (p = 0.94)</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>V = 0.023</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>upper limb injury</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>42% (n = 40)</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>43% (n = 40)</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>38% (n = 40)</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>ns (p = 0.75)</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>V = 0.049</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>lower limb injury</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>40% (n = 38)</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>39% (n = 36)</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>50% (n = 53)</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>ns (p = 0.34)</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>V = 0.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>other injury</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>16% (n = 15)</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>8.8% (n = 8)</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>14% (n = 15)</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>ns (p = 0.47)</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>V = 0.086</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>number of injured body parts</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>1 [IQR: 1 - 2]
+range: 1 - 4</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>1 [IQR: 1 - 2]
+range: 1 - 5</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1 [IQR: 1 - 2]
+range: 1 - 7</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>ns (p = 0.66)</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>η² = -0.0027</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>hospitalized</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>17% (n = 17)</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>32% (n = 30)</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>30% (n = 33)</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>ns (p = 0.073)</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>V = 0.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>surgical therapy</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>7.8% (n = 8)</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>14% (n = 13)</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>20% (n = 22)</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>ns (p = 0.1)</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>V = 0.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>number of surgical ICD-10 diagnoses</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>none: 92% (n = 95)
+1: 5.8% (n = 6)
+2+: 1.9% (n = 2)</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>none: 86% (n = 81)
+1: 8.5% (n = 8)
+2+: 5.3% (n = 5)</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>none: 80% (n = 88)
+1: 11% (n = 12)
+2+: 9.1% (n = 10)</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>ns (p = 0.21)</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>V = 0.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>psychological/psychiatric support post accident</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>3.9% (n = 4)</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>13% (n = 12)</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>11% (n = 12)</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>ns (p = 0.15)</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>V = 0.13</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>psychological/psychiatric support need post accident</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>0% (n = 0)</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>8.5% (n = 8)</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>14% (n = 15)</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>p = 0.0039</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>V = 0.22</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>physical health consequences of the accident</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>27% (n = 28)</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>32% (n = 30)</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>52% (n = 57)</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>p = 0.0025</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>V = 0.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>returned to same mountain sport post accident</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>86% (n = 89)</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>87% (n = 82)</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>83% (n = 91)</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>ns (p = 0.71)</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>V = 0.056</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>caution during mountain sport post accident</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>no change: 50% (n = 52)
+more cautious: 49% (n = 50)
+less cautious: 0.97% (n = 1)</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>no change: 32% (n = 30)
+more cautious: 67% (n = 63)
+less cautious: 1.1% (n = 1)</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>no change: 22% (n = 24)
+more cautious: 78% (n = 86)
+less cautious: 0% (n = 0)</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>p = 0.0018</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>V = 0.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>confusion during mountain sport</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>4.9% (n = 5)</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>4.3% (n = 4)</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.6% (n = 4)</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>ns (p = 0.94)</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>V = 0.025</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -558,7 +2327,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>age, age class, accident season, accident daytime, sex, education, employment, sport profession, trauma-risk profession, healthcare profession, income/year, residence in the Alps, smoking, pre-existing physical illness, pre-existing physical illness type, pre-existing mental disorder, number of prior traumatic events/DIA-X, problematic alcohol use (CAGE ≥2), prior sport accidents, sport type, alone during the accident, responsible for the accident, injured persons, rescue, rescue mode, injury severity class, injury severity, head injury, face injury, neck injury, chest injury, abdomen injury, spine region injury, upper limb injury, lower limb injury, other injury, number of injured body parts, hospitalized, surgery, number of surgical ICD-10 diagnoses, psychological support, psychological support need, physical health consequences, returned to same sport, caution post accident, confusion during sport</t>
+          <t>age at the accident, age at the accident, class, accident season, accident daytime, sex, highest education grade, employment at the accident, mountain sport profession, search and rescue profession, healthcare profession, income/year, residence in the Alps, smoking, pre-existing physical illness, pre-existing physical illness type, pre-existing diagnosed mental disorder, number of prior traumatic events/DIA-X, problematic alcohol use (CAGE ≥2), prior mountain sport accidents, mountain sport type, alone during the accident, responsible for the accident, number of injured persons, rescue mode, professional rescue mode, injury severity class, injury severity, head injury, face injury, neck injury, chest injury, abdomen injury, spine region injury, upper limb injury, lower limb injury, other injury, number of injured body parts, hospitalized, surgical therapy, number of surgical ICD-10 diagnoses, psychological/psychiatric support post accident, psychological/psychiatric support need post accident, physical health consequences of the accident, returned to same mountain sport post accident, caution during mountain sport post accident, confusion during mountain sport</t>
         </is>
       </c>
     </row>
@@ -570,7 +2339,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>age, age class, accident season, accident daytime, sex, education, employment, sport profession, trauma-risk profession, healthcare profession, income/year, residence in the Alps, smoking, pre-existing physical illness, pre-existing physical illness type, pre-existing mental disorder, number of prior traumatic events/DIA-X, problematic alcohol use (CAGE ≥2), prior sport accidents, sport type, alone during the accident, responsible for the accident, injured persons, rescue, rescue mode, injury severity class, injury severity, head injury, face injury, neck injury, chest injury, abdomen injury, spine region injury, upper limb injury, lower limb injury, other injury, number of injured body parts, hospitalized, surgery, number of surgical ICD-10 diagnoses</t>
+          <t>age at the accident, age at the accident, class, accident season, accident daytime, sex, highest education grade, employment at the accident, mountain sport profession, search and rescue profession, healthcare profession, income/year, residence in the Alps, smoking, pre-existing physical illness, pre-existing physical illness type, pre-existing diagnosed mental disorder, number of prior traumatic events/DIA-X, problematic alcohol use (CAGE ≥2), prior mountain sport accidents, mountain sport type, alone during the accident, responsible for the accident, number of injured persons, rescue mode, professional rescue mode, injury severity class, injury severity, head injury, face injury, neck injury, chest injury, abdomen injury, spine region injury, upper limb injury, lower limb injury, other injury, number of injured body parts, hospitalized, surgical therapy, number of surgical ICD-10 diagnoses</t>
         </is>
       </c>
     </row>
@@ -579,7 +2348,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -840,623 +2609,6 @@
         <is>
           <t>alpha = 0.5, lambda = 0.0158</t>
         </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Algorithm</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Data subset</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Accuracy</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Cohen's κ</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Brier score</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Sensitivity, PTS cluster</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Specificity, PTS cluster</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>0.99</v>
-      </c>
-      <c r="E2">
-        <v>0.15</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>10-fold CV</t>
-        </is>
-      </c>
-      <c r="C3">
-        <v>0.41</v>
-      </c>
-      <c r="D3">
-        <v>0.11</v>
-      </c>
-      <c r="E3">
-        <v>0.68</v>
-      </c>
-      <c r="F3">
-        <v>0.42</v>
-      </c>
-      <c r="G3">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="C4">
-        <v>0.47</v>
-      </c>
-      <c r="D4">
-        <v>0.21</v>
-      </c>
-      <c r="E4">
-        <v>0.66</v>
-      </c>
-      <c r="F4">
-        <v>0.48</v>
-      </c>
-      <c r="G4">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>NNet</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>0.018</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>NNet</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>10-fold CV</t>
-        </is>
-      </c>
-      <c r="C6">
-        <v>0.45</v>
-      </c>
-      <c r="D6">
-        <v>0.17</v>
-      </c>
-      <c r="E6">
-        <v>0.88</v>
-      </c>
-      <c r="F6">
-        <v>0.35</v>
-      </c>
-      <c r="G6">
-        <v>0.6899999999999999</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>NNet</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="C7">
-        <v>0.38</v>
-      </c>
-      <c r="D7">
-        <v>0.078</v>
-      </c>
-      <c r="E7">
-        <v>0.96</v>
-      </c>
-      <c r="F7">
-        <v>0.33</v>
-      </c>
-      <c r="G7">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>SVM/radial</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-      <c r="C8">
-        <v>0.93</v>
-      </c>
-      <c r="D8">
-        <v>0.9</v>
-      </c>
-      <c r="E8">
-        <v>0.57</v>
-      </c>
-      <c r="F8">
-        <v>0.88</v>
-      </c>
-      <c r="G8">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>SVM/radial</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>10-fold CV</t>
-        </is>
-      </c>
-      <c r="C9">
-        <v>0.42</v>
-      </c>
-      <c r="D9">
-        <v>0.12</v>
-      </c>
-      <c r="E9">
-        <v>0.67</v>
-      </c>
-      <c r="F9">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="G9">
-        <v>0.59</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>SVM/radial</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="C10">
-        <v>0.47</v>
-      </c>
-      <c r="D10">
-        <v>0.21</v>
-      </c>
-      <c r="E10">
-        <v>0.66</v>
-      </c>
-      <c r="F10">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="G10">
-        <v>0.64</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>RPart</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-      <c r="C11">
-        <v>0.64</v>
-      </c>
-      <c r="D11">
-        <v>0.45</v>
-      </c>
-      <c r="E11">
-        <v>0.5</v>
-      </c>
-      <c r="F11">
-        <v>0.62</v>
-      </c>
-      <c r="G11">
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>RPart</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>10-fold CV</t>
-        </is>
-      </c>
-      <c r="C12">
-        <v>0.38</v>
-      </c>
-      <c r="D12">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E12">
-        <v>0.77</v>
-      </c>
-      <c r="F12">
-        <v>0.38</v>
-      </c>
-      <c r="G12">
-        <v>0.76</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>RPart</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="C13">
-        <v>0.34</v>
-      </c>
-      <c r="D13">
-        <v>0.018</v>
-      </c>
-      <c r="E13">
-        <v>0.78</v>
-      </c>
-      <c r="F13">
-        <v>0.33</v>
-      </c>
-      <c r="G13">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>SDA</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-      <c r="C14">
-        <v>0.68</v>
-      </c>
-      <c r="D14">
-        <v>0.52</v>
-      </c>
-      <c r="E14">
-        <v>0.41</v>
-      </c>
-      <c r="F14">
-        <v>0.68</v>
-      </c>
-      <c r="G14">
-        <v>0.87</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>SDA</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>10-fold CV</t>
-        </is>
-      </c>
-      <c r="C15">
-        <v>0.41</v>
-      </c>
-      <c r="D15">
-        <v>0.12</v>
-      </c>
-      <c r="E15">
-        <v>0.8</v>
-      </c>
-      <c r="F15">
-        <v>0.38</v>
-      </c>
-      <c r="G15">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>SDA</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="C16">
-        <v>0.39</v>
-      </c>
-      <c r="D16">
-        <v>0.094</v>
-      </c>
-      <c r="E16">
-        <v>0.74</v>
-      </c>
-      <c r="F16">
-        <v>0.33</v>
-      </c>
-      <c r="G16">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>cForest</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-      <c r="C17">
-        <v>0.7</v>
-      </c>
-      <c r="D17">
-        <v>0.55</v>
-      </c>
-      <c r="E17">
-        <v>0.55</v>
-      </c>
-      <c r="F17">
-        <v>0.75</v>
-      </c>
-      <c r="G17">
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>cForest</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>10-fold CV</t>
-        </is>
-      </c>
-      <c r="C18">
-        <v>0.38</v>
-      </c>
-      <c r="D18">
-        <v>0.058</v>
-      </c>
-      <c r="E18">
-        <v>0.66</v>
-      </c>
-      <c r="F18">
-        <v>0.4</v>
-      </c>
-      <c r="G18">
-        <v>0.67</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>cForest</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="C19">
-        <v>0.46</v>
-      </c>
-      <c r="D19">
-        <v>0.2</v>
-      </c>
-      <c r="E19">
-        <v>0.65</v>
-      </c>
-      <c r="F19">
-        <v>0.48</v>
-      </c>
-      <c r="G19">
-        <v>0.74</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>ElasticNet</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-      <c r="C20">
-        <v>0.72</v>
-      </c>
-      <c r="D20">
-        <v>0.58</v>
-      </c>
-      <c r="E20">
-        <v>0.41</v>
-      </c>
-      <c r="F20">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="G20">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>ElasticNet</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>10-fold CV</t>
-        </is>
-      </c>
-      <c r="C21">
-        <v>0.42</v>
-      </c>
-      <c r="D21">
-        <v>0.13</v>
-      </c>
-      <c r="E21">
-        <v>0.76</v>
-      </c>
-      <c r="F21">
-        <v>0.38</v>
-      </c>
-      <c r="G21">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>ElasticNet</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="C22">
-        <v>0.38</v>
-      </c>
-      <c r="D22">
-        <v>0.06900000000000001</v>
-      </c>
-      <c r="E22">
-        <v>0.74</v>
-      </c>
-      <c r="F22">
-        <v>0.41</v>
-      </c>
-      <c r="G22">
-        <v>0.62</v>
       </c>
     </row>
   </sheetData>
@@ -1521,6 +2673,623 @@
         </is>
       </c>
       <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0.99</v>
+      </c>
+      <c r="E2">
+        <v>0.15</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>10-fold CV</t>
+        </is>
+      </c>
+      <c r="C3">
+        <v>0.41</v>
+      </c>
+      <c r="D3">
+        <v>0.11</v>
+      </c>
+      <c r="E3">
+        <v>0.68</v>
+      </c>
+      <c r="F3">
+        <v>0.42</v>
+      </c>
+      <c r="G3">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="C4">
+        <v>0.47</v>
+      </c>
+      <c r="D4">
+        <v>0.21</v>
+      </c>
+      <c r="E4">
+        <v>0.66</v>
+      </c>
+      <c r="F4">
+        <v>0.48</v>
+      </c>
+      <c r="G4">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>NNet</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>training</t>
+        </is>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0.018</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>NNet</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>10-fold CV</t>
+        </is>
+      </c>
+      <c r="C6">
+        <v>0.45</v>
+      </c>
+      <c r="D6">
+        <v>0.17</v>
+      </c>
+      <c r="E6">
+        <v>0.88</v>
+      </c>
+      <c r="F6">
+        <v>0.35</v>
+      </c>
+      <c r="G6">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>NNet</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="C7">
+        <v>0.38</v>
+      </c>
+      <c r="D7">
+        <v>0.078</v>
+      </c>
+      <c r="E7">
+        <v>0.96</v>
+      </c>
+      <c r="F7">
+        <v>0.33</v>
+      </c>
+      <c r="G7">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>SVM/radial</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>training</t>
+        </is>
+      </c>
+      <c r="C8">
+        <v>0.93</v>
+      </c>
+      <c r="D8">
+        <v>0.9</v>
+      </c>
+      <c r="E8">
+        <v>0.57</v>
+      </c>
+      <c r="F8">
+        <v>0.88</v>
+      </c>
+      <c r="G8">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>SVM/radial</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>10-fold CV</t>
+        </is>
+      </c>
+      <c r="C9">
+        <v>0.42</v>
+      </c>
+      <c r="D9">
+        <v>0.12</v>
+      </c>
+      <c r="E9">
+        <v>0.67</v>
+      </c>
+      <c r="F9">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G9">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>SVM/radial</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="C10">
+        <v>0.47</v>
+      </c>
+      <c r="D10">
+        <v>0.21</v>
+      </c>
+      <c r="E10">
+        <v>0.66</v>
+      </c>
+      <c r="F10">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G10">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>RPart</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>training</t>
+        </is>
+      </c>
+      <c r="C11">
+        <v>0.64</v>
+      </c>
+      <c r="D11">
+        <v>0.45</v>
+      </c>
+      <c r="E11">
+        <v>0.5</v>
+      </c>
+      <c r="F11">
+        <v>0.62</v>
+      </c>
+      <c r="G11">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>RPart</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>10-fold CV</t>
+        </is>
+      </c>
+      <c r="C12">
+        <v>0.38</v>
+      </c>
+      <c r="D12">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E12">
+        <v>0.77</v>
+      </c>
+      <c r="F12">
+        <v>0.38</v>
+      </c>
+      <c r="G12">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>RPart</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="C13">
+        <v>0.34</v>
+      </c>
+      <c r="D13">
+        <v>0.018</v>
+      </c>
+      <c r="E13">
+        <v>0.78</v>
+      </c>
+      <c r="F13">
+        <v>0.33</v>
+      </c>
+      <c r="G13">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>SDA</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>training</t>
+        </is>
+      </c>
+      <c r="C14">
+        <v>0.68</v>
+      </c>
+      <c r="D14">
+        <v>0.52</v>
+      </c>
+      <c r="E14">
+        <v>0.41</v>
+      </c>
+      <c r="F14">
+        <v>0.68</v>
+      </c>
+      <c r="G14">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>SDA</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>10-fold CV</t>
+        </is>
+      </c>
+      <c r="C15">
+        <v>0.41</v>
+      </c>
+      <c r="D15">
+        <v>0.12</v>
+      </c>
+      <c r="E15">
+        <v>0.8</v>
+      </c>
+      <c r="F15">
+        <v>0.38</v>
+      </c>
+      <c r="G15">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>SDA</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="C16">
+        <v>0.39</v>
+      </c>
+      <c r="D16">
+        <v>0.094</v>
+      </c>
+      <c r="E16">
+        <v>0.74</v>
+      </c>
+      <c r="F16">
+        <v>0.33</v>
+      </c>
+      <c r="G16">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>cForest</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>training</t>
+        </is>
+      </c>
+      <c r="C17">
+        <v>0.7</v>
+      </c>
+      <c r="D17">
+        <v>0.55</v>
+      </c>
+      <c r="E17">
+        <v>0.55</v>
+      </c>
+      <c r="F17">
+        <v>0.75</v>
+      </c>
+      <c r="G17">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>cForest</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>10-fold CV</t>
+        </is>
+      </c>
+      <c r="C18">
+        <v>0.38</v>
+      </c>
+      <c r="D18">
+        <v>0.058</v>
+      </c>
+      <c r="E18">
+        <v>0.66</v>
+      </c>
+      <c r="F18">
+        <v>0.4</v>
+      </c>
+      <c r="G18">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>cForest</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="C19">
+        <v>0.46</v>
+      </c>
+      <c r="D19">
+        <v>0.2</v>
+      </c>
+      <c r="E19">
+        <v>0.65</v>
+      </c>
+      <c r="F19">
+        <v>0.48</v>
+      </c>
+      <c r="G19">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>ElasticNet</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>training</t>
+        </is>
+      </c>
+      <c r="C20">
+        <v>0.72</v>
+      </c>
+      <c r="D20">
+        <v>0.58</v>
+      </c>
+      <c r="E20">
+        <v>0.41</v>
+      </c>
+      <c r="F20">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="G20">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>ElasticNet</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>10-fold CV</t>
+        </is>
+      </c>
+      <c r="C21">
+        <v>0.42</v>
+      </c>
+      <c r="D21">
+        <v>0.13</v>
+      </c>
+      <c r="E21">
+        <v>0.76</v>
+      </c>
+      <c r="F21">
+        <v>0.38</v>
+      </c>
+      <c r="G21">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>ElasticNet</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="C22">
+        <v>0.38</v>
+      </c>
+      <c r="D22">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="E22">
+        <v>0.74</v>
+      </c>
+      <c r="F22">
+        <v>0.41</v>
+      </c>
+      <c r="G22">
+        <v>0.62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Algorithm</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Data subset</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Cohen's κ</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Brier score</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Sensitivity, PTS cluster</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Specificity, PTS cluster</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>training</t>
+        </is>
+      </c>
+      <c r="C2">
         <v>0.92</v>
       </c>
       <c r="D2">
@@ -2129,7 +3898,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>age</t>
+          <t>age at the accident</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -2156,7 +3925,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>age class</t>
+          <t>age at the accident, class</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -2296,7 +4065,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>education</t>
+          <t>highest education grade</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -2323,7 +4092,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>employment</t>
+          <t>employment at the accident</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -2350,12 +4119,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>sport profession</t>
+          <t>mountain sport profession</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Sport-related profession</t>
+          <t>Mountain sport-related profession</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -2377,12 +4146,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>trauma-risk profession</t>
+          <t>search and rescue profession</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Trauma-risk profession</t>
+          <t>Search and rescue service profession</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -2566,12 +4335,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pre-existing mental disorder</t>
+          <t>pre-existing diagnosed mental disorder</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Mental disorder prior to the accident</t>
+          <t>Professionally diagnosed mental disorder prior to the accident</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -2647,12 +4416,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>prior sport accidents</t>
+          <t>prior mountain sport accidents</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Prior sport accidents</t>
+          <t>Prior mountain sport accidents</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -2701,12 +4470,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>sport type</t>
+          <t>mountain sport type</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Type of sport at the accident</t>
+          <t>Type of mountain sport at the accident</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -2782,12 +4551,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>injured persons</t>
+          <t>number of injured persons</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Accident injured persons</t>
+          <t>Number of injured persons during the mountain sport accident</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -2809,12 +4578,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>rescue</t>
+          <t>rescue mode</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Accident rescue</t>
+          <t>Mode of accident rescue</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2824,7 +4593,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>self, partner/third party, rescue team</t>
+          <t>self, companion, rescue team</t>
         </is>
       </c>
     </row>
@@ -2836,12 +4605,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>rescue mode</t>
+          <t>professional rescue mode</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Accident rescue mode</t>
+          <t>Mode of professional accident rescue</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -3214,12 +4983,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>surgery</t>
+          <t>surgical therapy</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Need for surgical therapy</t>
+          <t>Surgical therapy of the accident’s injuries</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -3268,7 +5037,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>psychological support</t>
+          <t>psychological/psychiatric support post accident</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -3295,12 +5064,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>psychological support need</t>
+          <t>psychological/psychiatric support need post accident</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Subjective need for psychological support</t>
+          <t>Subjective need for psychological support after the accident</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -3322,12 +5091,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>physical health consequences</t>
+          <t>physical health consequences of the accident</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Accident consequences felt, physical health health</t>
+          <t>Physical health consequences related to the accident</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -3349,12 +5118,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>returned to same sport</t>
+          <t>returned to same mountain sport post accident</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Returned to the same sport activity post accident</t>
+          <t>Returned to the same mountain sport activity following the accident</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -3376,12 +5145,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>caution post accident</t>
+          <t>caution during mountain sport post accident</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Caution after accident</t>
+          <t>Caution during mountain sport activity after the accident</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -3403,12 +5172,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>flashbacks during sport</t>
+          <t>flashbacks during mountain sport</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Flashback during sport activity</t>
+          <t>Flashback during mountain sport activity</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -3430,12 +5199,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>flashback frequency</t>
+          <t>flashback frequency during mountain sport</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Flashback frequency</t>
+          <t>Frequency of flashbacks during mountain sport activity</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -3457,12 +5226,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>confusion during sport</t>
+          <t>confusion during mountain sport</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Confusion during sport activity</t>
+          <t>Confusion during mountain sport activity after the accident</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -3506,7 +5275,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>PTSD+ (at least one PCL-5 domain)</t>
+          <t>PTSD symptoms (at least one PCL-5 domain positive)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -3954,12 +5723,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Depression symptoms (PHQ-9 ≥11)</t>
+          <t>clinically relevant depression symptoms (PHQ-9 ≥11)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>PHQ-9 score, depression symptoms</t>
+          <t>PHQ-9 score ≥ 11 points, clinically relevant depressive symptoms</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -4003,12 +5772,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Anxiety symptoms (GAD-7 ≥10)</t>
+          <t>clinically relevant anxiety symptoms (GAD-7 ≥10)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>GAD-7 score, anxiety symptoms</t>
+          <t>GAD-7 score ≥ 10 points, clinically relevant anxiety symptoms</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -4052,7 +5821,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Panic symptoms (PHQ-panic)</t>
+          <t>clinically relevant panic symptoms (PHQ-panic)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -4101,12 +5870,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Somatic symptoms (PHQ-15 ≥11)</t>
+          <t>clinically relevant somatizaton symptoms (PHQ-15 ≥11)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>PHQ-15 health problems, clinically relevant somatic symptoms</t>
+          <t>PHQ-15 score ≥ 11 points, clinically relevant somatization symptoms</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -4373,7 +6142,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PTSD+ (at least one PCL-5 domain)</t>
+          <t>PTSD symptoms (at least one PCL-5 domain positive)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -4696,12 +6465,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Depression symptoms (PHQ-9 ≥11)</t>
+          <t>clinically relevant depression symptoms (PHQ-9 ≥11)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>PHQ-9 score, depression symptoms</t>
+          <t>PHQ-9 score ≥ 11 points, clinically relevant depressive symptoms</t>
         </is>
       </c>
     </row>
@@ -4730,12 +6499,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Anxiety symptoms (GAD-7 ≥10)</t>
+          <t>clinically relevant anxiety symptoms (GAD-7 ≥10)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>GAD-7 score, anxiety symptoms</t>
+          <t>GAD-7 score ≥ 10 points, clinically relevant anxiety symptoms</t>
         </is>
       </c>
     </row>
@@ -4764,7 +6533,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Panic symptoms (PHQ-panic)</t>
+          <t>clinically relevant panic symptoms (PHQ-panic)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -4798,12 +6567,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Somatic symptoms (PHQ-15 ≥11)</t>
+          <t>clinically relevant somatizaton symptoms (PHQ-15 ≥11)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>PHQ-15 health problems, clinically relevant somatic symptoms</t>
+          <t>PHQ-15 score ≥ 11 points, clinically relevant somatization symptoms</t>
         </is>
       </c>
     </row>
@@ -5150,7 +6919,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>sport type</t>
+          <t>mountain sport type</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -5282,7 +7051,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>surgery</t>
+          <t>surgical therapy</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -5508,7 +7277,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>surgery</t>
+          <t>surgical therapy</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -5537,7 +7306,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>physical health consequences</t>
+          <t>physical health consequences of the accident</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -7889,7 +9658,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7952,563 +9721,394 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>age, years</t>
+          <t>PTSD symptoms (at least one PCL-5 domain positive)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>53 [IQR: 34 - 61]
-range: 18 - 82</t>
+          <t>4.9% (n = 5)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>54 [IQR: 39 - 61]
-range: 18 - 81</t>
+          <t>15% (n = 14)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>45 [IQR: 29 - 56]
-range: 18 - 82</t>
+          <t>35% (n = 39)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>p = 0.023</t>
+          <t>p &lt; 0.001</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>η² = 0.027</t>
+          <t>V = 0.33</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>pre-existing physical illness</t>
+          <t>PTSD domain B symptoms</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>5.8% (n = 6)</t>
+          <t>1.9% (n = 2)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>22% (n = 21)</t>
+          <t>9.6% (n = 9)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>18% (n = 20)</t>
+          <t>20% (n = 22)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>p = 0.013</t>
+          <t>p &lt; 0.001</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>V = 0.19</t>
+          <t>V = 0.24</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>pre-existing mental disorder</t>
+          <t>PTSD domain C symptoms</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0% (n = 0)</t>
+          <t>2.9% (n = 3)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.1% (n = 1)</t>
+          <t>5.3% (n = 5)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>14% (n = 15)</t>
+          <t>15% (n = 17)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>p &lt; 0.001</t>
+          <t>p = 0.0083</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>V = 0.28</t>
+          <t>V = 0.2</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>psychological support need</t>
+          <t>PTSD domain D symptoms</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0% (n = 0)</t>
+          <t>0.97% (n = 1)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>8.5% (n = 8)</t>
+          <t>3.2% (n = 3)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>14% (n = 15)</t>
+          <t>11% (n = 12)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>p = 0.0039</t>
+          <t>p = 0.012</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>V = 0.22</t>
+          <t>V = 0.2</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>physical health consequences</t>
+          <t>PTSD domain E symptoms</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>27% (n = 28)</t>
+          <t>0% (n = 0)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>32% (n = 30)</t>
+          <t>5.3% (n = 5)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>52% (n = 57)</t>
+          <t>17% (n = 19)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>p = 0.0025</t>
+          <t>p &lt; 0.001</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>V = 0.23</t>
+          <t>V = 0.27</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>caution post accident</t>
+          <t>flashbacks during mountain sport</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>no change: 50% (n = 52)
-more cautious: 49% (n = 50)
-less cautious: 0.97% (n = 1)</t>
+          <t>24% (n = 25)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>no change: 32% (n = 30)
-more cautious: 67% (n = 63)
-less cautious: 1.1% (n = 1)</t>
+          <t>35% (n = 33)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>no change: 22% (n = 24)
-more cautious: 78% (n = 86)
-less cautious: 0% (n = 0)</t>
+          <t>58% (n = 64)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>p = 0.0018</t>
+          <t>p &lt; 0.001</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>V = 0.19</t>
+          <t>V = 0.3</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>flashbacks during sport</t>
+          <t>flashback frequency during mountain sport</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
-        <is>
-          <t>24% (n = 25)</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>35% (n = 33)</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>58% (n = 64)</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>p &lt; 0.001</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>V = 0.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>flashback frequency</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
         <is>
           <t>none: 76% (n = 78)
 &gt; 1/year: 17% (n = 18)
 &gt; 1/month: 6.8% (n = 7)</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>none: 65% (n = 61)
 &gt; 1/year: 20% (n = 19)
 &gt; 1/month: 15% (n = 14)</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>none: 42% (n = 46)
 &gt; 1/year: 28% (n = 31)
 &gt; 1/month: 30% (n = 33)</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>p &lt; 0.001</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>V = 0.22</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>PTSD+ (at least one PCL-5 domain)</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>4.9% (n = 5)</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>15% (n = 14)</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>35% (n = 39)</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>p &lt; 0.001</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>V = 0.33</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>PTSD domain B symptoms</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>1.9% (n = 2)</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>9.6% (n = 9)</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>20% (n = 22)</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>p &lt; 0.001</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>V = 0.24</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>PTSD domain C symptoms</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2.9% (n = 3)</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>5.3% (n = 5)</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>15% (n = 17)</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>p = 0.0083</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>V = 0.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>PTSD domain D symptoms</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>0.97% (n = 1)</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>3.2% (n = 3)</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>11% (n = 12)</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>p = 0.012</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>V = 0.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>PTSD domain E symptoms</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>0% (n = 0)</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>5.3% (n = 5)</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>17% (n = 19)</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>p &lt; 0.001</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>V = 0.27</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>RS13 resilience class</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>low: 3.9% (n = 4)
 moderate: 5.8% (n = 6)
 high: 90% (n = 93)</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>low: 6.4% (n = 6)
 moderate: 5.3% (n = 5)
 high: 88% (n = 83)</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>low: 42% (n = 46)
 moderate: 28% (n = 31)
 high: 30% (n = 33)</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>p &lt; 0.001</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>V = 0.43</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Depression symptoms (PHQ-9 ≥11)</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>clinically relevant depression symptoms (PHQ-9 ≥11)</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>0% (n = 0)</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>2.1% (n = 2)</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>14% (n = 15)</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>p &lt; 0.001</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>V = 0.27</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Anxiety symptoms (GAD-7 ≥10)</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>clinically relevant anxiety symptoms (GAD-7 ≥10)</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>0% (n = 0)</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>0% (n = 0)</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>6.4% (n = 7)</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>p = 0.0082</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>V = 0.2</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Somatic symptoms (PHQ-15 ≥11)</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>clinically relevant panic symptoms (PHQ-panic)</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0% (n = 0)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0% (n = 0)</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.7% (n = 3)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>ns (p = 0.15)</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>V = 0.13</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>clinically relevant somatizaton symptoms (PHQ-15 ≥11)</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>0.97% (n = 1)</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>3.2% (n = 3)</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>10% (n = 11)</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>p = 0.023</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>V = 0.18</t>
         </is>

--- a/paper/supplementary_tables.xlsx
+++ b/paper/supplementary_tables.xlsx
@@ -21,6 +21,7 @@
     <sheet name="Supplementary Table S11" sheetId="12" r:id="rId12"/>
     <sheet name="Supplementary Table S12" sheetId="13" r:id="rId13"/>
     <sheet name="Supplementary Table S13" sheetId="14" r:id="rId14"/>
+    <sheet name="Supplementary Table S14" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -364,7 +365,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -450,7 +451,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Significant differences between the training and test subset of the study cohort. Numeric variables are presented as medians with interquartile ranges (IQR). Categorical variables are presented as percentages and counts within the complete observation set.</t>
+          <t>Comparison of sociodemographic features of the study cohort and estimates for the general Austrian population. Numeric variables are presented as medians with interquartile ranges (IQR). Categorical variables are presented as percentages and counts within the complete observation set.</t>
         </is>
       </c>
     </row>
@@ -462,7 +463,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Differences in psychometric clustering factors between the mental clusters. Numeric variables are presented as medians with interquartile ranges (IQR). Statistical significance was determined by false discovery rate-corrected Kruskal-Wallis test with eta-square effect size statistic. The table is available in a supplementary Excel file.</t>
+          <t>Significant differences between the training and test subset of the study cohort. Numeric variables are presented as medians with interquartile ranges (IQR). Categorical variables are presented as percentages and counts within the complete observation set.</t>
         </is>
       </c>
     </row>
@@ -474,7 +475,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Frequency of mental disorder symptoms in the mental health clusters in the entire cohort. Categorical variables are presented as percentages and counts within the clusters.</t>
+          <t>Differences in psychometric clustering factors between the mental clusters. Numeric variables are presented as medians with interquartile ranges (IQR). Statistical significance was determined by false discovery rate-corrected Kruskal-Wallis test with eta-square effect size statistic. The table is available in a supplementary Excel file.</t>
         </is>
       </c>
     </row>
@@ -486,7 +487,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Differences in demographic, socioeconomic, clinical, accident- and recovery-related factors, and between the mental clusters in the entire cohort. Significant effects are presented, the full table is available as a supplementary Excel file. Numeric variables are presented as medians with interquartile ranges (IQR). Categorical variables are presented as percentages and counts within the clusters.</t>
+          <t>Frequency of mental disorder symptoms in the mental health clusters in the entire cohort. Categorical variables are presented as percentages and counts within the clusters.</t>
         </is>
       </c>
     </row>
@@ -498,7 +499,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sets of explanatory factors used for modeling of the mental cluster assignment.</t>
+          <t>Differences in demographic, socioeconomic, clinical, accident- and recovery-related factors, and between the mental clusters in the entire cohort. Significant effects are presented, the full table is available as a supplementary Excel file. Numeric variables are presented as medians with interquartile ranges (IQR). Categorical variables are presented as percentages and counts within the clusters.</t>
         </is>
       </c>
     </row>
@@ -510,7 +511,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>The optimal combinations of machine learning algorithm parameters found in 10-fold cross-validation of the training subset of the study cohort.</t>
+          <t>Sets of explanatory factors used for modeling of the mental cluster assignment.</t>
         </is>
       </c>
     </row>
@@ -522,7 +523,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Performance statistics of machine learning classifiers at predicting the mental cluster assignment. Models employing early predictors available during acute medical management of the patient.</t>
+          <t>The optimal combinations of machine learning algorithm parameters found in 10-fold cross-validation of the training subset of the study cohort.</t>
         </is>
       </c>
     </row>
@@ -533,6 +534,18 @@
         </is>
       </c>
       <c r="B14" t="inlineStr">
+        <is>
+          <t>Performance statistics of machine learning classifiers at predicting the mental cluster assignment. Models employing early predictors available during acute medical management of the patient.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Supplementary Table S14</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>Performance statistics of machine learning classifiers at predicting the mental cluster assignment. Models employing the full predictor set available during acute medical management of the patient and follow-up.</t>
         </is>
@@ -544,6 +557,469 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variable</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Neutral cluster</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PTG cluster</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>PTS cluster</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Significance</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Effect size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Participants, n</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>PTSD symptoms (at least one PCL-5 domain positive)</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>4.9% (n = 5)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>15% (n = 14)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>35% (n = 39)</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>V = 0.33</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>PTSD domain B symptoms</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1.9% (n = 2)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>9.6% (n = 9)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20% (n = 22)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>V = 0.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>PTSD domain C symptoms</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2.9% (n = 3)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>5.3% (n = 5)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15% (n = 17)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>p = 0.0083</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>V = 0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>PTSD domain D symptoms</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0.97% (n = 1)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>3.2% (n = 3)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11% (n = 12)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>p = 0.012</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>V = 0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>PTSD domain E symptoms</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0% (n = 0)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>5.3% (n = 5)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17% (n = 19)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>V = 0.27</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>flashbacks during mountain sport</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>24% (n = 25)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>35% (n = 33)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>58% (n = 64)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>V = 0.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>flashback frequency during mountain sport</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>none: 76% (n = 78)
+&gt; 1/year: 17% (n = 18)
+&gt; 1/month: 6.8% (n = 7)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>none: 65% (n = 61)
+&gt; 1/year: 20% (n = 19)
+&gt; 1/month: 15% (n = 14)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>none: 42% (n = 46)
+&gt; 1/year: 28% (n = 31)
+&gt; 1/month: 30% (n = 33)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>V = 0.22</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>RS13 resilience class</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>low: 3.9% (n = 4)
+moderate: 5.8% (n = 6)
+high: 90% (n = 93)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>low: 6.4% (n = 6)
+moderate: 5.3% (n = 5)
+high: 88% (n = 83)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>low: 42% (n = 46)
+moderate: 28% (n = 31)
+high: 30% (n = 33)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>V = 0.43</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>clinically relevant depression symptoms (PHQ-9 ≥11)</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0% (n = 0)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2.1% (n = 2)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>14% (n = 15)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>V = 0.27</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>clinically relevant anxiety symptoms (GAD-7 ≥10)</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0% (n = 0)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0% (n = 0)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.4% (n = 7)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>p = 0.0082</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>V = 0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>clinically relevant panic symptoms (PHQ-panic)</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0% (n = 0)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0% (n = 0)</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.7% (n = 3)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>ns (p = 0.15)</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>V = 0.13</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>clinically relevant somatizaton symptoms (PHQ-15 ≥11)</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0.97% (n = 1)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>3.2% (n = 3)</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10% (n = 11)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>p = 0.023</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>V = 0.18</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F50"/>
   <sheetViews>
@@ -648,21 +1124,21 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>16-30: 19% (n = 20)
+          <t>18-30: 19% (n = 20)
 31-65: 62% (n = 64)
 &gt;65: 18% (n = 19)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>16-30: 12% (n = 11)
+          <t>18-30: 12% (n = 11)
 31-65: 74% (n = 70)
 &gt;65: 14% (n = 13)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>16-30: 27% (n = 30)
+          <t>18-30: 27% (n = 30)
 31-65: 62% (n = 68)
 &gt;65: 11% (n = 12)</t>
         </is>
@@ -2299,7 +2775,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -2348,7 +2824,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -2609,623 +3085,6 @@
         <is>
           <t>alpha = 0.5, lambda = 0.0158</t>
         </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Algorithm</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Data subset</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Accuracy</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Cohen's κ</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Brier score</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Sensitivity, PTS cluster</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Specificity, PTS cluster</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>0.99</v>
-      </c>
-      <c r="E2">
-        <v>0.15</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>10-fold CV</t>
-        </is>
-      </c>
-      <c r="C3">
-        <v>0.41</v>
-      </c>
-      <c r="D3">
-        <v>0.11</v>
-      </c>
-      <c r="E3">
-        <v>0.68</v>
-      </c>
-      <c r="F3">
-        <v>0.42</v>
-      </c>
-      <c r="G3">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="C4">
-        <v>0.47</v>
-      </c>
-      <c r="D4">
-        <v>0.21</v>
-      </c>
-      <c r="E4">
-        <v>0.66</v>
-      </c>
-      <c r="F4">
-        <v>0.48</v>
-      </c>
-      <c r="G4">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>NNet</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>0.018</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>NNet</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>10-fold CV</t>
-        </is>
-      </c>
-      <c r="C6">
-        <v>0.45</v>
-      </c>
-      <c r="D6">
-        <v>0.17</v>
-      </c>
-      <c r="E6">
-        <v>0.88</v>
-      </c>
-      <c r="F6">
-        <v>0.35</v>
-      </c>
-      <c r="G6">
-        <v>0.6899999999999999</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>NNet</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="C7">
-        <v>0.38</v>
-      </c>
-      <c r="D7">
-        <v>0.078</v>
-      </c>
-      <c r="E7">
-        <v>0.96</v>
-      </c>
-      <c r="F7">
-        <v>0.33</v>
-      </c>
-      <c r="G7">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>SVM/radial</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-      <c r="C8">
-        <v>0.93</v>
-      </c>
-      <c r="D8">
-        <v>0.9</v>
-      </c>
-      <c r="E8">
-        <v>0.57</v>
-      </c>
-      <c r="F8">
-        <v>0.88</v>
-      </c>
-      <c r="G8">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>SVM/radial</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>10-fold CV</t>
-        </is>
-      </c>
-      <c r="C9">
-        <v>0.42</v>
-      </c>
-      <c r="D9">
-        <v>0.12</v>
-      </c>
-      <c r="E9">
-        <v>0.67</v>
-      </c>
-      <c r="F9">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="G9">
-        <v>0.59</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>SVM/radial</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="C10">
-        <v>0.47</v>
-      </c>
-      <c r="D10">
-        <v>0.21</v>
-      </c>
-      <c r="E10">
-        <v>0.66</v>
-      </c>
-      <c r="F10">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="G10">
-        <v>0.64</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>RPart</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-      <c r="C11">
-        <v>0.64</v>
-      </c>
-      <c r="D11">
-        <v>0.45</v>
-      </c>
-      <c r="E11">
-        <v>0.5</v>
-      </c>
-      <c r="F11">
-        <v>0.62</v>
-      </c>
-      <c r="G11">
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>RPart</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>10-fold CV</t>
-        </is>
-      </c>
-      <c r="C12">
-        <v>0.38</v>
-      </c>
-      <c r="D12">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E12">
-        <v>0.77</v>
-      </c>
-      <c r="F12">
-        <v>0.38</v>
-      </c>
-      <c r="G12">
-        <v>0.76</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>RPart</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="C13">
-        <v>0.34</v>
-      </c>
-      <c r="D13">
-        <v>0.018</v>
-      </c>
-      <c r="E13">
-        <v>0.78</v>
-      </c>
-      <c r="F13">
-        <v>0.33</v>
-      </c>
-      <c r="G13">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>SDA</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-      <c r="C14">
-        <v>0.68</v>
-      </c>
-      <c r="D14">
-        <v>0.52</v>
-      </c>
-      <c r="E14">
-        <v>0.41</v>
-      </c>
-      <c r="F14">
-        <v>0.68</v>
-      </c>
-      <c r="G14">
-        <v>0.87</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>SDA</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>10-fold CV</t>
-        </is>
-      </c>
-      <c r="C15">
-        <v>0.41</v>
-      </c>
-      <c r="D15">
-        <v>0.12</v>
-      </c>
-      <c r="E15">
-        <v>0.8</v>
-      </c>
-      <c r="F15">
-        <v>0.38</v>
-      </c>
-      <c r="G15">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>SDA</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="C16">
-        <v>0.39</v>
-      </c>
-      <c r="D16">
-        <v>0.094</v>
-      </c>
-      <c r="E16">
-        <v>0.74</v>
-      </c>
-      <c r="F16">
-        <v>0.33</v>
-      </c>
-      <c r="G16">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>cForest</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-      <c r="C17">
-        <v>0.7</v>
-      </c>
-      <c r="D17">
-        <v>0.55</v>
-      </c>
-      <c r="E17">
-        <v>0.55</v>
-      </c>
-      <c r="F17">
-        <v>0.75</v>
-      </c>
-      <c r="G17">
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>cForest</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>10-fold CV</t>
-        </is>
-      </c>
-      <c r="C18">
-        <v>0.38</v>
-      </c>
-      <c r="D18">
-        <v>0.058</v>
-      </c>
-      <c r="E18">
-        <v>0.66</v>
-      </c>
-      <c r="F18">
-        <v>0.4</v>
-      </c>
-      <c r="G18">
-        <v>0.67</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>cForest</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="C19">
-        <v>0.46</v>
-      </c>
-      <c r="D19">
-        <v>0.2</v>
-      </c>
-      <c r="E19">
-        <v>0.65</v>
-      </c>
-      <c r="F19">
-        <v>0.48</v>
-      </c>
-      <c r="G19">
-        <v>0.74</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>ElasticNet</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>training</t>
-        </is>
-      </c>
-      <c r="C20">
-        <v>0.72</v>
-      </c>
-      <c r="D20">
-        <v>0.58</v>
-      </c>
-      <c r="E20">
-        <v>0.41</v>
-      </c>
-      <c r="F20">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="G20">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>ElasticNet</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>10-fold CV</t>
-        </is>
-      </c>
-      <c r="C21">
-        <v>0.42</v>
-      </c>
-      <c r="D21">
-        <v>0.13</v>
-      </c>
-      <c r="E21">
-        <v>0.76</v>
-      </c>
-      <c r="F21">
-        <v>0.38</v>
-      </c>
-      <c r="G21">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>ElasticNet</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="C22">
-        <v>0.38</v>
-      </c>
-      <c r="D22">
-        <v>0.06900000000000001</v>
-      </c>
-      <c r="E22">
-        <v>0.74</v>
-      </c>
-      <c r="F22">
-        <v>0.41</v>
-      </c>
-      <c r="G22">
-        <v>0.62</v>
       </c>
     </row>
   </sheetData>
@@ -3290,6 +3149,623 @@
         </is>
       </c>
       <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0.99</v>
+      </c>
+      <c r="E2">
+        <v>0.15</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>10-fold CV</t>
+        </is>
+      </c>
+      <c r="C3">
+        <v>0.41</v>
+      </c>
+      <c r="D3">
+        <v>0.11</v>
+      </c>
+      <c r="E3">
+        <v>0.68</v>
+      </c>
+      <c r="F3">
+        <v>0.42</v>
+      </c>
+      <c r="G3">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="C4">
+        <v>0.47</v>
+      </c>
+      <c r="D4">
+        <v>0.21</v>
+      </c>
+      <c r="E4">
+        <v>0.66</v>
+      </c>
+      <c r="F4">
+        <v>0.48</v>
+      </c>
+      <c r="G4">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>NNet</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>training</t>
+        </is>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0.018</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>NNet</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>10-fold CV</t>
+        </is>
+      </c>
+      <c r="C6">
+        <v>0.45</v>
+      </c>
+      <c r="D6">
+        <v>0.17</v>
+      </c>
+      <c r="E6">
+        <v>0.88</v>
+      </c>
+      <c r="F6">
+        <v>0.35</v>
+      </c>
+      <c r="G6">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>NNet</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="C7">
+        <v>0.38</v>
+      </c>
+      <c r="D7">
+        <v>0.078</v>
+      </c>
+      <c r="E7">
+        <v>0.96</v>
+      </c>
+      <c r="F7">
+        <v>0.33</v>
+      </c>
+      <c r="G7">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>SVM/radial</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>training</t>
+        </is>
+      </c>
+      <c r="C8">
+        <v>0.93</v>
+      </c>
+      <c r="D8">
+        <v>0.9</v>
+      </c>
+      <c r="E8">
+        <v>0.57</v>
+      </c>
+      <c r="F8">
+        <v>0.88</v>
+      </c>
+      <c r="G8">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>SVM/radial</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>10-fold CV</t>
+        </is>
+      </c>
+      <c r="C9">
+        <v>0.42</v>
+      </c>
+      <c r="D9">
+        <v>0.12</v>
+      </c>
+      <c r="E9">
+        <v>0.67</v>
+      </c>
+      <c r="F9">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G9">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>SVM/radial</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="C10">
+        <v>0.47</v>
+      </c>
+      <c r="D10">
+        <v>0.21</v>
+      </c>
+      <c r="E10">
+        <v>0.66</v>
+      </c>
+      <c r="F10">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G10">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>RPart</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>training</t>
+        </is>
+      </c>
+      <c r="C11">
+        <v>0.64</v>
+      </c>
+      <c r="D11">
+        <v>0.45</v>
+      </c>
+      <c r="E11">
+        <v>0.5</v>
+      </c>
+      <c r="F11">
+        <v>0.62</v>
+      </c>
+      <c r="G11">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>RPart</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>10-fold CV</t>
+        </is>
+      </c>
+      <c r="C12">
+        <v>0.38</v>
+      </c>
+      <c r="D12">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E12">
+        <v>0.77</v>
+      </c>
+      <c r="F12">
+        <v>0.38</v>
+      </c>
+      <c r="G12">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>RPart</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="C13">
+        <v>0.34</v>
+      </c>
+      <c r="D13">
+        <v>0.018</v>
+      </c>
+      <c r="E13">
+        <v>0.78</v>
+      </c>
+      <c r="F13">
+        <v>0.33</v>
+      </c>
+      <c r="G13">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>SDA</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>training</t>
+        </is>
+      </c>
+      <c r="C14">
+        <v>0.68</v>
+      </c>
+      <c r="D14">
+        <v>0.52</v>
+      </c>
+      <c r="E14">
+        <v>0.41</v>
+      </c>
+      <c r="F14">
+        <v>0.68</v>
+      </c>
+      <c r="G14">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>SDA</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>10-fold CV</t>
+        </is>
+      </c>
+      <c r="C15">
+        <v>0.41</v>
+      </c>
+      <c r="D15">
+        <v>0.12</v>
+      </c>
+      <c r="E15">
+        <v>0.8</v>
+      </c>
+      <c r="F15">
+        <v>0.38</v>
+      </c>
+      <c r="G15">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>SDA</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="C16">
+        <v>0.39</v>
+      </c>
+      <c r="D16">
+        <v>0.094</v>
+      </c>
+      <c r="E16">
+        <v>0.74</v>
+      </c>
+      <c r="F16">
+        <v>0.33</v>
+      </c>
+      <c r="G16">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>cForest</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>training</t>
+        </is>
+      </c>
+      <c r="C17">
+        <v>0.7</v>
+      </c>
+      <c r="D17">
+        <v>0.55</v>
+      </c>
+      <c r="E17">
+        <v>0.55</v>
+      </c>
+      <c r="F17">
+        <v>0.75</v>
+      </c>
+      <c r="G17">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>cForest</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>10-fold CV</t>
+        </is>
+      </c>
+      <c r="C18">
+        <v>0.38</v>
+      </c>
+      <c r="D18">
+        <v>0.058</v>
+      </c>
+      <c r="E18">
+        <v>0.66</v>
+      </c>
+      <c r="F18">
+        <v>0.4</v>
+      </c>
+      <c r="G18">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>cForest</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="C19">
+        <v>0.46</v>
+      </c>
+      <c r="D19">
+        <v>0.2</v>
+      </c>
+      <c r="E19">
+        <v>0.65</v>
+      </c>
+      <c r="F19">
+        <v>0.48</v>
+      </c>
+      <c r="G19">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>ElasticNet</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>training</t>
+        </is>
+      </c>
+      <c r="C20">
+        <v>0.72</v>
+      </c>
+      <c r="D20">
+        <v>0.58</v>
+      </c>
+      <c r="E20">
+        <v>0.41</v>
+      </c>
+      <c r="F20">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="G20">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>ElasticNet</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>10-fold CV</t>
+        </is>
+      </c>
+      <c r="C21">
+        <v>0.42</v>
+      </c>
+      <c r="D21">
+        <v>0.13</v>
+      </c>
+      <c r="E21">
+        <v>0.76</v>
+      </c>
+      <c r="F21">
+        <v>0.38</v>
+      </c>
+      <c r="G21">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>ElasticNet</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="C22">
+        <v>0.38</v>
+      </c>
+      <c r="D22">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="E22">
+        <v>0.74</v>
+      </c>
+      <c r="F22">
+        <v>0.41</v>
+      </c>
+      <c r="G22">
+        <v>0.62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Algorithm</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Data subset</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Cohen's κ</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Brier score</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Sensitivity, PTS cluster</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Specificity, PTS cluster</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>training</t>
+        </is>
+      </c>
+      <c r="C2">
         <v>0.92</v>
       </c>
       <c r="D2">
@@ -3945,7 +4421,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>16-30, 31-65, &gt;65</t>
+          <t>18-30, 31-65, &gt;65</t>
         </is>
       </c>
     </row>
@@ -7339,6 +7815,267 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Variable</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Cohort</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Austrian population</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Significance</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Effect size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>age, years</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>51 [IQR: 33 - 60]
+range: 18 - 82
+n = 307</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>48 [IQR: 34 - 62]
+range: 18 - 82
+n = 7196298</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>ns (p = 0.99)</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>r = 4.9e-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>age, class, years</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>18-30: 20% (n = 61)
+31-65: 66% (n = 202)
+&gt;65: 14% (n = 44)
+n = 307</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>18-30: 20% (n = 1404528)
+31-65: 62% (n = 4452200)
+&gt;65: 19% (n = 1339570)
+n = 7196298</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>ns (p = 0.15)</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>V = 0.00073</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sex</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>female: 45% (n = 137)
+male: 55% (n = 170)
+n = 307</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>female: 51% (n = 3643212)
+male: 49% (n = 3553086)
+n = 7196298</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>p = 0.041</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>V = 0.00078</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>highest education grade</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>primary/apprenticeship: 16% (n = 49)
+secondary: 38% (n = 115)
+tertiary: 45% (n = 136)
+n = 300</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>primary/apprenticeship: 50% (n = 2511913)
+secondary: 30% (n = 1472534)
+tertiary: 20% (n = 995515)
+n = 4979962</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>V = 0.0059</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>employment</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>employed: 68% (n = 210)
+unemployed: 3.6% (n = 11)
+student: 10% (n = 32)
+retired: 18% (n = 54)
+n = 307</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>employed: 58% (n = 4438154)
+unemployed: 12% (n = 921539)
+student: 4.4% (n = 336979)
+retired: 26% (n = 1980715)
+n = 7677387</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>V = 0.0027</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>smoking</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>7.8% (n = 24)
+n = 307</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>26% (n = 1943745)
+n = 7417876</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>V = 0.0027</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>physical or mental illness</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>20% (n = 60)
+n = 307</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>38% (n = 2841553)
+n = 7417876</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>V = 0.0025</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7472,7 +8209,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G55"/>
   <sheetViews>
@@ -9654,467 +10391,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Variable</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Neutral cluster</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PTG cluster</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>PTS cluster</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Significance</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Effect size</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Participants, n</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>103</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>94</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>110</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>PTSD symptoms (at least one PCL-5 domain positive)</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>4.9% (n = 5)</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>15% (n = 14)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>35% (n = 39)</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>p &lt; 0.001</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>V = 0.33</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>PTSD domain B symptoms</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>1.9% (n = 2)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>9.6% (n = 9)</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>20% (n = 22)</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>p &lt; 0.001</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>V = 0.24</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>PTSD domain C symptoms</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2.9% (n = 3)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>5.3% (n = 5)</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>15% (n = 17)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>p = 0.0083</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>V = 0.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>PTSD domain D symptoms</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0.97% (n = 1)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>3.2% (n = 3)</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>11% (n = 12)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>p = 0.012</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>V = 0.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>PTSD domain E symptoms</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>0% (n = 0)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>5.3% (n = 5)</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>17% (n = 19)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>p &lt; 0.001</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>V = 0.27</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>flashbacks during mountain sport</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>24% (n = 25)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>35% (n = 33)</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>58% (n = 64)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>p &lt; 0.001</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>V = 0.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>flashback frequency during mountain sport</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>none: 76% (n = 78)
-&gt; 1/year: 17% (n = 18)
-&gt; 1/month: 6.8% (n = 7)</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>none: 65% (n = 61)
-&gt; 1/year: 20% (n = 19)
-&gt; 1/month: 15% (n = 14)</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>none: 42% (n = 46)
-&gt; 1/year: 28% (n = 31)
-&gt; 1/month: 30% (n = 33)</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>p &lt; 0.001</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>V = 0.22</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>RS13 resilience class</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>low: 3.9% (n = 4)
-moderate: 5.8% (n = 6)
-high: 90% (n = 93)</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>low: 6.4% (n = 6)
-moderate: 5.3% (n = 5)
-high: 88% (n = 83)</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>low: 42% (n = 46)
-moderate: 28% (n = 31)
-high: 30% (n = 33)</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>p &lt; 0.001</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>V = 0.43</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>clinically relevant depression symptoms (PHQ-9 ≥11)</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>0% (n = 0)</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>2.1% (n = 2)</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>14% (n = 15)</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>p &lt; 0.001</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>V = 0.27</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>clinically relevant anxiety symptoms (GAD-7 ≥10)</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>0% (n = 0)</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>0% (n = 0)</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>6.4% (n = 7)</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>p = 0.0082</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>V = 0.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>clinically relevant panic symptoms (PHQ-panic)</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>0% (n = 0)</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>0% (n = 0)</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2.7% (n = 3)</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>ns (p = 0.15)</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>V = 0.13</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>clinically relevant somatizaton symptoms (PHQ-15 ≥11)</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>0.97% (n = 1)</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>3.2% (n = 3)</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>10% (n = 11)</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>p = 0.023</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>V = 0.18</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/paper/supplementary_tables.xlsx
+++ b/paper/supplementary_tables.xlsx
@@ -889,7 +889,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>clinically relevant depression symptoms (PHQ-9 ≥11)</t>
+          <t>clinically relevant depression symptoms (PHQ-9 ≥10)</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>14% (n = 15)</t>
+          <t>18% (n = 20)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -914,7 +914,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>V = 0.27</t>
+          <t>V = 0.32</t>
         </is>
       </c>
     </row>
@@ -936,17 +936,17 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>6.4% (n = 7)</t>
+          <t>8.2% (n = 9)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>p = 0.0082</t>
+          <t>p = 0.0016</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>V = 0.2</t>
+          <t>V = 0.23</t>
         </is>
       </c>
     </row>
@@ -1402,7 +1402,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ns (p = 0.66)</t>
+          <t>ns (p = 0.68)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1539,7 +1539,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ns (p = 0.75)</t>
+          <t>ns (p = 0.76)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1796,7 +1796,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>ns (p = 0.77)</t>
+          <t>ns (p = 0.78)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1851,39 +1851,60 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ski/snowboard/cross-country: 62% (n = 64)
+          <t>alpine skiing/snowboarding: 55% (n = 57)
+ski touring/freeride: 1.9% (n = 2)
+cross-country skiing: 6.8% (n = 7)
 sledding: 4.9% (n = 5)
-climbing/hiking/mountaineering/skitour: 12% (n = 12)
+ice climbing: 0% (n = 0)
+hiking: 3.9% (n = 4)
+climbing: 2.9% (n = 3)
+mountaineering: 0.97% (n = 1)
 biking: 20% (n = 21)
+air sport: 0.97% (n = 1)
+water sport: 0.97% (n = 1)
 other: 0.97% (n = 1)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>ski/snowboard/cross-country: 70% (n = 66)
+          <t>alpine skiing/snowboarding: 65% (n = 61)
+ski touring/freeride: 3.2% (n = 3)
+cross-country skiing: 5.3% (n = 5)
 sledding: 2.1% (n = 2)
-climbing/hiking/mountaineering/skitour: 13% (n = 12)
+ice climbing: 1.1% (n = 1)
+hiking: 6.4% (n = 6)
+climbing: 2.1% (n = 2)
+mountaineering: 0% (n = 0)
 biking: 13% (n = 12)
-other: 2.1% (n = 2)</t>
+air sport: 0% (n = 0)
+water sport: 1.1% (n = 1)
+other: 1.1% (n = 1)</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>ski/snowboard/cross-country: 61% (n = 67)
+          <t>alpine skiing/snowboarding: 56% (n = 62)
+ski touring/freeride: 3.6% (n = 4)
+cross-country skiing: 4.5% (n = 5)
 sledding: 4.5% (n = 5)
-climbing/hiking/mountaineering/skitour: 16% (n = 18)
+ice climbing: 0% (n = 0)
+hiking: 6.4% (n = 7)
+climbing: 5.5% (n = 6)
+mountaineering: 0.91% (n = 1)
 biking: 14% (n = 15)
-other: 4.5% (n = 5)</t>
+air sport: 0% (n = 0)
+water sport: 2.7% (n = 3)
+other: 1.8% (n = 2)</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ns (p = 0.56)</t>
+          <t>ns (p = 0.92)</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>V = 0.11</t>
+          <t>V = 0.15</t>
         </is>
       </c>
     </row>
@@ -2170,7 +2191,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ns (p = 0.71)</t>
+          <t>ns (p = 0.72)</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2266,7 +2287,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ns (p = 0.75)</t>
+          <t>ns (p = 0.76)</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2298,7 +2319,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>ns (p = 0.66)</t>
+          <t>ns (p = 0.68)</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2362,7 +2383,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>ns (p = 0.75)</t>
+          <t>ns (p = 0.76)</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2461,7 +2482,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>ns (p = 0.66)</t>
+          <t>ns (p = 0.68)</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2627,7 +2648,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>p = 0.0039</t>
+          <t>p = 0.0036</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2659,7 +2680,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>p = 0.0025</t>
+          <t>p = 0.0023</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2691,7 +2712,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>ns (p = 0.71)</t>
+          <t>ns (p = 0.72)</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2729,7 +2750,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>p = 0.0018</t>
+          <t>p = 0.0016</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2862,7 +2883,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>mtry = 2, splitrule = gini, min.node.size = 3</t>
+          <t>mtry = 37, splitrule = extratrees, min.node.size = 5</t>
         </is>
       </c>
     </row>
@@ -2879,7 +2900,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>size = 2, decay = 0.01</t>
+          <t>size = 6, decay = 1e-04</t>
         </is>
       </c>
     </row>
@@ -2896,7 +2917,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>sigma = 0.02, C = 1.3</t>
+          <t>sigma = 0.02, C = 3.7</t>
         </is>
       </c>
     </row>
@@ -2930,7 +2951,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>diagonal = FALSE, lambda = 0.195</t>
+          <t>diagonal = FALSE, lambda = 0.335</t>
         </is>
       </c>
     </row>
@@ -2947,7 +2968,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>mtry = 4</t>
+          <t>mtry = 7</t>
         </is>
       </c>
     </row>
@@ -2964,7 +2985,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>alpha = 0.5, lambda = 0.01</t>
+          <t>alpha = 0.5, lambda = 0.00395</t>
         </is>
       </c>
     </row>
@@ -2981,7 +3002,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>mtry = 7, splitrule = gini, min.node.size = 1</t>
+          <t>mtry = 4, splitrule = gini, min.node.size = 3</t>
         </is>
       </c>
     </row>
@@ -2998,7 +3019,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>size = 9, decay = 0.1</t>
+          <t>size = 10, decay = 0.1</t>
         </is>
       </c>
     </row>
@@ -3015,7 +3036,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>sigma = 0.09, C = 3.1</t>
+          <t>sigma = 0.07, C = 3.3</t>
         </is>
       </c>
     </row>
@@ -3049,7 +3070,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>diagonal = FALSE, lambda = 0.25</t>
+          <t>diagonal = FALSE, lambda = 0.335</t>
         </is>
       </c>
     </row>
@@ -3066,7 +3087,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>mtry = 26</t>
+          <t>mtry = 9</t>
         </is>
       </c>
     </row>
@@ -3083,7 +3104,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>alpha = 0.5, lambda = 0.0158</t>
+          <t>alpha = 0.5, lambda = 0.000192</t>
         </is>
       </c>
     </row>
@@ -3149,19 +3170,19 @@
         </is>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="D2">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="E2">
-        <v>0.15</v>
+        <v>0.28</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="3">
@@ -3182,13 +3203,13 @@
         <v>0.11</v>
       </c>
       <c r="E3">
-        <v>0.68</v>
+        <v>0.66</v>
       </c>
       <c r="F3">
-        <v>0.42</v>
+        <v>0.44</v>
       </c>
       <c r="G3">
-        <v>0.68</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="4">
@@ -3206,16 +3227,16 @@
         <v>0.47</v>
       </c>
       <c r="D4">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="E4">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="F4">
-        <v>0.48</v>
+        <v>0.52</v>
       </c>
       <c r="G4">
-        <v>0.68</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="5">
@@ -3236,7 +3257,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>0.018</v>
+        <v>0.017</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -3263,13 +3284,13 @@
         <v>0.17</v>
       </c>
       <c r="E6">
-        <v>0.88</v>
+        <v>0.85</v>
       </c>
       <c r="F6">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="G6">
-        <v>0.6899999999999999</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="7">
@@ -3284,19 +3305,19 @@
         </is>
       </c>
       <c r="C7">
-        <v>0.38</v>
+        <v>0.42</v>
       </c>
       <c r="D7">
-        <v>0.078</v>
+        <v>0.13</v>
       </c>
       <c r="E7">
-        <v>0.96</v>
+        <v>0.91</v>
       </c>
       <c r="F7">
-        <v>0.33</v>
+        <v>0.44</v>
       </c>
       <c r="G7">
-        <v>0.72</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="8">
@@ -3311,19 +3332,19 @@
         </is>
       </c>
       <c r="C8">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="D8">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="E8">
         <v>0.57</v>
       </c>
       <c r="F8">
+        <v>0.89</v>
+      </c>
+      <c r="G8">
         <v>0.88</v>
-      </c>
-      <c r="G8">
-        <v>0.99</v>
       </c>
     </row>
     <row r="9">
@@ -3338,19 +3359,19 @@
         </is>
       </c>
       <c r="C9">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
       <c r="D9">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="E9">
         <v>0.67</v>
       </c>
       <c r="F9">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="G9">
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="10">
@@ -3365,19 +3386,19 @@
         </is>
       </c>
       <c r="C10">
-        <v>0.47</v>
+        <v>0.39</v>
       </c>
       <c r="D10">
-        <v>0.21</v>
+        <v>0.09</v>
       </c>
       <c r="E10">
         <v>0.66</v>
       </c>
       <c r="F10">
-        <v>0.5600000000000001</v>
+        <v>0.48</v>
       </c>
       <c r="G10">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="11">
@@ -3473,13 +3494,13 @@
         </is>
       </c>
       <c r="C14">
-        <v>0.68</v>
+        <v>0.7</v>
       </c>
       <c r="D14">
-        <v>0.52</v>
+        <v>0.55</v>
       </c>
       <c r="E14">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="F14">
         <v>0.68</v>
@@ -3500,10 +3521,10 @@
         </is>
       </c>
       <c r="C15">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
       <c r="D15">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="E15">
         <v>0.8</v>
@@ -3512,7 +3533,7 @@
         <v>0.38</v>
       </c>
       <c r="G15">
-        <v>0.68</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="16">
@@ -3527,16 +3548,16 @@
         </is>
       </c>
       <c r="C16">
-        <v>0.39</v>
+        <v>0.43</v>
       </c>
       <c r="D16">
-        <v>0.094</v>
+        <v>0.15</v>
       </c>
       <c r="E16">
-        <v>0.74</v>
+        <v>0.76</v>
       </c>
       <c r="F16">
-        <v>0.33</v>
+        <v>0.41</v>
       </c>
       <c r="G16">
         <v>0.68</v>
@@ -3554,19 +3575,19 @@
         </is>
       </c>
       <c r="C17">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="D17">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="E17">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="F17">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="G17">
-        <v>0.84</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="18">
@@ -3581,19 +3602,19 @@
         </is>
       </c>
       <c r="C18">
-        <v>0.38</v>
+        <v>0.4</v>
       </c>
       <c r="D18">
-        <v>0.058</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="E18">
         <v>0.66</v>
       </c>
       <c r="F18">
-        <v>0.4</v>
+        <v>0.46</v>
       </c>
       <c r="G18">
-        <v>0.67</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="19">
@@ -3608,19 +3629,19 @@
         </is>
       </c>
       <c r="C19">
-        <v>0.46</v>
+        <v>0.47</v>
       </c>
       <c r="D19">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="E19">
         <v>0.65</v>
       </c>
       <c r="F19">
-        <v>0.48</v>
+        <v>0.52</v>
       </c>
       <c r="G19">
-        <v>0.74</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="20">
@@ -3635,16 +3656,16 @@
         </is>
       </c>
       <c r="C20">
-        <v>0.72</v>
+        <v>0.75</v>
       </c>
       <c r="D20">
-        <v>0.58</v>
+        <v>0.63</v>
       </c>
       <c r="E20">
-        <v>0.41</v>
+        <v>0.33</v>
       </c>
       <c r="F20">
-        <v>0.6899999999999999</v>
+        <v>0.76</v>
       </c>
       <c r="G20">
         <v>0.86</v>
@@ -3665,13 +3686,13 @@
         <v>0.42</v>
       </c>
       <c r="D21">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="E21">
-        <v>0.76</v>
+        <v>0.99</v>
       </c>
       <c r="F21">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
       <c r="G21">
         <v>0.66</v>
@@ -3689,19 +3710,19 @@
         </is>
       </c>
       <c r="C22">
-        <v>0.38</v>
+        <v>0.32</v>
       </c>
       <c r="D22">
-        <v>0.06900000000000001</v>
+        <v>-0.014</v>
       </c>
       <c r="E22">
-        <v>0.74</v>
+        <v>1.1</v>
       </c>
       <c r="F22">
-        <v>0.41</v>
+        <v>0.33</v>
       </c>
       <c r="G22">
-        <v>0.62</v>
+        <v>0.53</v>
       </c>
     </row>
   </sheetData>
@@ -3766,19 +3787,19 @@
         </is>
       </c>
       <c r="C2">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>0.42</v>
+        <v>0.16</v>
       </c>
       <c r="F2">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.98</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -3802,10 +3823,10 @@
         <v>0.65</v>
       </c>
       <c r="F3">
-        <v>0.48</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.68</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="4">
@@ -3820,19 +3841,19 @@
         </is>
       </c>
       <c r="C4">
-        <v>0.46</v>
+        <v>0.49</v>
       </c>
       <c r="D4">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
       <c r="E4">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="F4">
         <v>0.52</v>
       </c>
       <c r="G4">
-        <v>0.7</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="5">
@@ -3847,16 +3868,16 @@
         </is>
       </c>
       <c r="C5">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>0.18</v>
+        <v>2.9e-07</v>
       </c>
       <c r="F5">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -3874,19 +3895,19 @@
         </is>
       </c>
       <c r="C6">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
       <c r="D6">
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
       <c r="E6">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.48</v>
+        <v>0.49</v>
       </c>
       <c r="G6">
-        <v>0.75</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="7">
@@ -3904,16 +3925,16 @@
         <v>0.42</v>
       </c>
       <c r="D7">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="E7">
-        <v>0.92</v>
+        <v>1.1</v>
       </c>
       <c r="F7">
-        <v>0.3</v>
+        <v>0.33</v>
       </c>
       <c r="G7">
-        <v>0.85</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="8">
@@ -3928,19 +3949,19 @@
         </is>
       </c>
       <c r="C8">
-        <v>0.66</v>
+        <v>0.76</v>
       </c>
       <c r="D8">
-        <v>0.49</v>
+        <v>0.64</v>
       </c>
       <c r="E8">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="F8">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="G8">
-        <v>0.8</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="9">
@@ -3961,13 +3982,13 @@
         <v>0.2</v>
       </c>
       <c r="E9">
-        <v>0.63</v>
+        <v>0.64</v>
       </c>
       <c r="F9">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="G9">
-        <v>0.68</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="10">
@@ -3982,19 +4003,19 @@
         </is>
       </c>
       <c r="C10">
-        <v>0.45</v>
+        <v>0.47</v>
       </c>
       <c r="D10">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
       <c r="E10">
         <v>0.64</v>
       </c>
       <c r="F10">
-        <v>0.48</v>
+        <v>0.52</v>
       </c>
       <c r="G10">
-        <v>0.7</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="11">
@@ -4102,7 +4123,7 @@
         <v>0.71</v>
       </c>
       <c r="G14">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="15">
@@ -4117,19 +4138,19 @@
         </is>
       </c>
       <c r="C15">
-        <v>0.48</v>
+        <v>0.46</v>
       </c>
       <c r="D15">
-        <v>0.22</v>
+        <v>0.19</v>
       </c>
       <c r="E15">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="F15">
-        <v>0.42</v>
+        <v>0.45</v>
       </c>
       <c r="G15">
-        <v>0.77</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="16">
@@ -4144,16 +4165,16 @@
         </is>
       </c>
       <c r="C16">
-        <v>0.43</v>
+        <v>0.46</v>
       </c>
       <c r="D16">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="E16">
         <v>0.76</v>
       </c>
       <c r="F16">
-        <v>0.33</v>
+        <v>0.37</v>
       </c>
       <c r="G16">
         <v>0.8100000000000001</v>
@@ -4174,16 +4195,16 @@
         <v>0.68</v>
       </c>
       <c r="D17">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="E17">
-        <v>0.59</v>
+        <v>0.58</v>
       </c>
       <c r="F17">
-        <v>0.82</v>
+        <v>0.76</v>
       </c>
       <c r="G17">
-        <v>0.79</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="18">
@@ -4207,10 +4228,10 @@
         <v>0.65</v>
       </c>
       <c r="F18">
-        <v>0.5600000000000001</v>
+        <v>0.55</v>
       </c>
       <c r="G18">
-        <v>0.62</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="19">
@@ -4225,16 +4246,16 @@
         </is>
       </c>
       <c r="C19">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="D19">
-        <v>0.098</v>
+        <v>0.079</v>
       </c>
       <c r="E19">
         <v>0.65</v>
       </c>
       <c r="F19">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
       <c r="G19">
         <v>0.68</v>
@@ -4252,19 +4273,19 @@
         </is>
       </c>
       <c r="C20">
-        <v>0.8100000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="D20">
-        <v>0.72</v>
+        <v>0.77</v>
       </c>
       <c r="E20">
-        <v>0.31</v>
+        <v>0.24</v>
       </c>
       <c r="F20">
-        <v>0.79</v>
+        <v>0.82</v>
       </c>
       <c r="G20">
-        <v>0.9</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="21">
@@ -4279,19 +4300,19 @@
         </is>
       </c>
       <c r="C21">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
       <c r="D21">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="E21">
-        <v>0.77</v>
+        <v>0.86</v>
       </c>
       <c r="F21">
         <v>0.48</v>
       </c>
       <c r="G21">
-        <v>0.6899999999999999</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="22">
@@ -4306,19 +4327,19 @@
         </is>
       </c>
       <c r="C22">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="D22">
-        <v>0.1</v>
+        <v>0.074</v>
       </c>
       <c r="E22">
-        <v>0.8100000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="F22">
-        <v>0.3</v>
+        <v>0.33</v>
       </c>
       <c r="G22">
-        <v>0.74</v>
+        <v>0.68</v>
       </c>
     </row>
   </sheetData>
@@ -4961,7 +4982,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>ski/snowboard/cross-country, sledding, climbing/hiking/mountaineering/skitour, biking, other</t>
+          <t>alpine skiing/snowboarding, ski touring/freeride, cross-country skiing, sledding, ice climbing, hiking, climbing, mountaineering, biking, air sport, water sport, other</t>
         </is>
       </c>
     </row>
@@ -6199,7 +6220,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>clinically relevant depression symptoms (PHQ-9 ≥11)</t>
+          <t>clinically relevant depression symptoms (PHQ-9 ≥10)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -6941,7 +6962,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>clinically relevant depression symptoms (PHQ-9 ≥11)</t>
+          <t>clinically relevant depression symptoms (PHQ-9 ≥10)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -7400,22 +7421,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ski/snowboard/cross-country: 64% (n = 197)
+          <t>alpine skiing/snowboarding: 59% (n = 180)
+ski touring/freeride: 2.9% (n = 9)
+cross-country skiing: 5.5% (n = 17)
 sledding: 3.9% (n = 12)
-climbing/hiking/mountaineering/skitour: 14% (n = 42)
+ice climbing: 0.33% (n = 1)
+hiking: 5.5% (n = 17)
+climbing: 3.6% (n = 11)
+mountaineering: 0.65% (n = 2)
 biking: 16% (n = 48)
-other: 2.6% (n = 8)
+air sport: 0.33% (n = 1)
+water sport: 1.6% (n = 5)
+other: 1.3% (n = 4)
 n = 307</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ski/snowboard/cross-country: 52% (n = 2179)
-sledding: 5% (n = 207)
-climbing/hiking/mountaineering/skitour: 11% (n = 457)
+          <t>alpine skiing/snowboarding: 50% (n = 2089)
+ski touring/freeride: 2.5% (n = 105)
+cross-country skiing: 2.1% (n = 87)
+sledding: 4.8% (n = 198)
+ice climbing: 0.14% (n = 6)
+hiking: 5.1% (n = 211)
+climbing: 2.6% (n = 110)
+mountaineering: 0.41% (n = 17)
 biking: 27% (n = 1127)
-other: 4.8% (n = 202)
-n = 4172</t>
+air sport: 0.17% (n = 7)
+water sport: 1.7% (n = 72)
+other: 3.3% (n = 139)
+n = 4168</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -7425,7 +7460,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>V = 0.078</t>
+          <t>V = 0.094</t>
         </is>
       </c>
     </row>

--- a/paper/supplementary_tables.xlsx
+++ b/paper/supplementary_tables.xlsx
@@ -705,7 +705,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>p = 0.0083</t>
+          <t>p = 0.0078</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -737,7 +737,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>p = 0.012</t>
+          <t>p = 0.011</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -985,7 +985,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>clinically relevant somatizaton symptoms (PHQ-15 ≥11)</t>
+          <t>clinically relevant somatizaton symptoms (PHQ-15 ≥10)</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1000,17 +1000,17 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>10% (n = 11)</t>
+          <t>13% (n = 14)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>p = 0.023</t>
+          <t>p = 0.0027</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>V = 0.18</t>
+          <t>V = 0.22</t>
         </is>
       </c>
     </row>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>p = 0.013</t>
+          <t>p = 0.012</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1851,18 +1851,18 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>alpine skiing/snowboarding: 55% (n = 57)
-ski touring/freeride: 1.9% (n = 2)
-cross-country skiing: 6.8% (n = 7)
+          <t>alpine skiing/snowboarding: 56% (n = 57)
+ski touring/freeride: 2% (n = 2)
+cross-country skiing: 6.9% (n = 7)
 sledding: 4.9% (n = 5)
 ice climbing: 0% (n = 0)
 hiking: 3.9% (n = 4)
 climbing: 2.9% (n = 3)
-mountaineering: 0.97% (n = 1)
-biking: 20% (n = 21)
-air sport: 0.97% (n = 1)
-water sport: 0.97% (n = 1)
-other: 0.97% (n = 1)</t>
+mountaineering: 0.98% (n = 1)
+biking: 21% (n = 21)
+air sports: 0.98% (n = 1)
+water sports: 0% (n = 0)
+other: 0.98% (n = 1)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1876,35 +1876,35 @@
 climbing: 2.1% (n = 2)
 mountaineering: 0% (n = 0)
 biking: 13% (n = 12)
-air sport: 0% (n = 0)
-water sport: 1.1% (n = 1)
+air sports: 0% (n = 0)
+water sports: 1.1% (n = 1)
 other: 1.1% (n = 1)</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>alpine skiing/snowboarding: 56% (n = 62)
-ski touring/freeride: 3.6% (n = 4)
-cross-country skiing: 4.5% (n = 5)
-sledding: 4.5% (n = 5)
+          <t>alpine skiing/snowboarding: 58% (n = 62)
+ski touring/freeride: 3.7% (n = 4)
+cross-country skiing: 4.7% (n = 5)
+sledding: 4.7% (n = 5)
 ice climbing: 0% (n = 0)
-hiking: 6.4% (n = 7)
-climbing: 5.5% (n = 6)
-mountaineering: 0.91% (n = 1)
+hiking: 6.5% (n = 7)
+climbing: 5.6% (n = 6)
+mountaineering: 0.93% (n = 1)
 biking: 14% (n = 15)
-air sport: 0% (n = 0)
-water sport: 2.7% (n = 3)
-other: 1.8% (n = 2)</t>
+air sports: 0% (n = 0)
+water sports: 0% (n = 0)
+other: 1.9% (n = 2)</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ns (p = 0.92)</t>
+          <t>ns (p = 0.88)</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>V = 0.15</t>
+          <t>V = 0.16</t>
         </is>
       </c>
     </row>
@@ -2648,7 +2648,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>p = 0.0036</t>
+          <t>p = 0.0033</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2883,7 +2883,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>mtry = 37, splitrule = extratrees, min.node.size = 5</t>
+          <t>mtry = 46, splitrule = extratrees, min.node.size = 1</t>
         </is>
       </c>
     </row>
@@ -2900,7 +2900,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>size = 6, decay = 1e-04</t>
+          <t>size = 9, decay = 0.01</t>
         </is>
       </c>
     </row>
@@ -2917,7 +2917,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>sigma = 0.02, C = 3.7</t>
+          <t>sigma = 0.07, C = 2.5</t>
         </is>
       </c>
     </row>
@@ -2934,7 +2934,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>cp = 0.0325</t>
+          <t>cp = 0.045</t>
         </is>
       </c>
     </row>
@@ -2951,7 +2951,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>diagonal = FALSE, lambda = 0.335</t>
+          <t>diagonal = FALSE, lambda = 0.1</t>
         </is>
       </c>
     </row>
@@ -2968,7 +2968,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>mtry = 7</t>
+          <t>mtry = 11</t>
         </is>
       </c>
     </row>
@@ -2985,7 +2985,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>alpha = 0.5, lambda = 0.00395</t>
+          <t>alpha = 0.5, lambda = 0.0149</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>mtry = 4, splitrule = gini, min.node.size = 3</t>
+          <t>mtry = 9, splitrule = extratrees, min.node.size = 5</t>
         </is>
       </c>
     </row>
@@ -3019,7 +3019,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>size = 10, decay = 0.1</t>
+          <t>size = 8, decay = 0.01</t>
         </is>
       </c>
     </row>
@@ -3036,7 +3036,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>sigma = 0.07, C = 3.3</t>
+          <t>sigma = 0.01, C = 0.3</t>
         </is>
       </c>
     </row>
@@ -3053,7 +3053,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>cp = 0.0125</t>
+          <t>cp = 0.025</t>
         </is>
       </c>
     </row>
@@ -3070,7 +3070,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>diagonal = FALSE, lambda = 0.335</t>
+          <t>diagonal = FALSE, lambda = 0.99</t>
         </is>
       </c>
     </row>
@@ -3087,7 +3087,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>mtry = 9</t>
+          <t>mtry = 6</t>
         </is>
       </c>
     </row>
@@ -3104,7 +3104,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>alpha = 0.5, lambda = 0.000192</t>
+          <t>alpha = 0.5, lambda = 0.0291</t>
         </is>
       </c>
     </row>
@@ -3176,7 +3176,7 @@
         <v>0.98</v>
       </c>
       <c r="E2">
-        <v>0.28</v>
+        <v>0.23</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -3197,19 +3197,19 @@
         </is>
       </c>
       <c r="C3">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
       <c r="D3">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="E3">
-        <v>0.66</v>
+        <v>0.67</v>
       </c>
       <c r="F3">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="G3">
-        <v>0.66</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="4">
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C4">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="D4">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="E4">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="F4">
-        <v>0.52</v>
+        <v>0.46</v>
       </c>
       <c r="G4">
-        <v>0.72</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="5">
@@ -3257,7 +3257,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>0.017</v>
+        <v>0.0003</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -3281,16 +3281,16 @@
         <v>0.45</v>
       </c>
       <c r="D6">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="E6">
-        <v>0.85</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F6">
-        <v>0.4</v>
+        <v>0.47</v>
       </c>
       <c r="G6">
-        <v>0.68</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -3305,19 +3305,19 @@
         </is>
       </c>
       <c r="C7">
-        <v>0.42</v>
+        <v>0.39</v>
       </c>
       <c r="D7">
-        <v>0.13</v>
+        <v>0.092</v>
       </c>
       <c r="E7">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.44</v>
+        <v>0.31</v>
       </c>
       <c r="G7">
-        <v>0.57</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="8">
@@ -3332,19 +3332,19 @@
         </is>
       </c>
       <c r="C8">
-        <v>0.87</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D8">
-        <v>0.8</v>
+        <v>0.34</v>
       </c>
       <c r="E8">
-        <v>0.57</v>
+        <v>0.58</v>
       </c>
       <c r="F8">
-        <v>0.89</v>
+        <v>0.58</v>
       </c>
       <c r="G8">
-        <v>0.88</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="9">
@@ -3359,19 +3359,19 @@
         </is>
       </c>
       <c r="C9">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
       <c r="D9">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="E9">
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
       <c r="F9">
-        <v>0.5</v>
+        <v>0.38</v>
       </c>
       <c r="G9">
-        <v>0.6</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="10">
@@ -3386,19 +3386,19 @@
         </is>
       </c>
       <c r="C10">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="D10">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E10">
-        <v>0.66</v>
+        <v>0.67</v>
       </c>
       <c r="F10">
-        <v>0.48</v>
+        <v>0.35</v>
       </c>
       <c r="G10">
-        <v>0.6</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="11">
@@ -3413,19 +3413,19 @@
         </is>
       </c>
       <c r="C11">
-        <v>0.64</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D11">
-        <v>0.45</v>
+        <v>0.33</v>
       </c>
       <c r="E11">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F11">
-        <v>0.62</v>
+        <v>0.65</v>
       </c>
       <c r="G11">
-        <v>0.84</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="12">
@@ -3440,19 +3440,19 @@
         </is>
       </c>
       <c r="C12">
-        <v>0.38</v>
+        <v>0.4</v>
       </c>
       <c r="D12">
-        <v>0.07000000000000001</v>
+        <v>0.094</v>
       </c>
       <c r="E12">
-        <v>0.77</v>
+        <v>0.7</v>
       </c>
       <c r="F12">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="G12">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="13">
@@ -3467,16 +3467,16 @@
         </is>
       </c>
       <c r="C13">
-        <v>0.34</v>
+        <v>0.39</v>
       </c>
       <c r="D13">
-        <v>0.018</v>
+        <v>0.1</v>
       </c>
       <c r="E13">
-        <v>0.78</v>
+        <v>0.72</v>
       </c>
       <c r="F13">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="G13">
         <v>0.7</v>
@@ -3494,19 +3494,19 @@
         </is>
       </c>
       <c r="C14">
-        <v>0.7</v>
+        <v>0.61</v>
       </c>
       <c r="D14">
-        <v>0.55</v>
+        <v>0.42</v>
       </c>
       <c r="E14">
-        <v>0.4</v>
+        <v>0.54</v>
       </c>
       <c r="F14">
-        <v>0.68</v>
+        <v>0.54</v>
       </c>
       <c r="G14">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="15">
@@ -3524,16 +3524,16 @@
         <v>0.42</v>
       </c>
       <c r="D15">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="E15">
-        <v>0.8</v>
+        <v>0.86</v>
       </c>
       <c r="F15">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="G15">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="16">
@@ -3548,19 +3548,19 @@
         </is>
       </c>
       <c r="C16">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="D16">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="E16">
-        <v>0.76</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F16">
-        <v>0.41</v>
+        <v>0.38</v>
       </c>
       <c r="G16">
-        <v>0.68</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="17">
@@ -3575,19 +3575,19 @@
         </is>
       </c>
       <c r="C17">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="D17">
-        <v>0.54</v>
+        <v>0.47</v>
       </c>
       <c r="E17">
-        <v>0.58</v>
+        <v>0.59</v>
       </c>
       <c r="F17">
-        <v>0.76</v>
+        <v>0.71</v>
       </c>
       <c r="G17">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="18">
@@ -3605,13 +3605,13 @@
         <v>0.4</v>
       </c>
       <c r="D18">
-        <v>0.08799999999999999</v>
+        <v>0.094</v>
       </c>
       <c r="E18">
         <v>0.66</v>
       </c>
       <c r="F18">
-        <v>0.46</v>
+        <v>0.47</v>
       </c>
       <c r="G18">
         <v>0.64</v>
@@ -3629,19 +3629,19 @@
         </is>
       </c>
       <c r="C19">
-        <v>0.47</v>
+        <v>0.42</v>
       </c>
       <c r="D19">
-        <v>0.21</v>
+        <v>0.14</v>
       </c>
       <c r="E19">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="F19">
-        <v>0.52</v>
+        <v>0.46</v>
       </c>
       <c r="G19">
-        <v>0.66</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="20">
@@ -3656,19 +3656,19 @@
         </is>
       </c>
       <c r="C20">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="D20">
+        <v>0.53</v>
+      </c>
+      <c r="E20">
+        <v>0.44</v>
+      </c>
+      <c r="F20">
         <v>0.63</v>
       </c>
-      <c r="E20">
-        <v>0.33</v>
-      </c>
-      <c r="F20">
-        <v>0.76</v>
-      </c>
       <c r="G20">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="21">
@@ -3683,19 +3683,19 @@
         </is>
       </c>
       <c r="C21">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="D21">
-        <v>0.12</v>
+        <v>0.19</v>
       </c>
       <c r="E21">
-        <v>0.99</v>
+        <v>0.73</v>
       </c>
       <c r="F21">
-        <v>0.39</v>
+        <v>0.41</v>
       </c>
       <c r="G21">
-        <v>0.66</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="22">
@@ -3710,19 +3710,19 @@
         </is>
       </c>
       <c r="C22">
-        <v>0.32</v>
+        <v>0.39</v>
       </c>
       <c r="D22">
-        <v>-0.014</v>
+        <v>0.091</v>
       </c>
       <c r="E22">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="F22">
-        <v>0.33</v>
+        <v>0.46</v>
       </c>
       <c r="G22">
-        <v>0.53</v>
+        <v>0.65</v>
       </c>
     </row>
   </sheetData>
@@ -3793,7 +3793,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>0.16</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -3814,19 +3814,19 @@
         </is>
       </c>
       <c r="C3">
-        <v>0.43</v>
+        <v>0.46</v>
       </c>
       <c r="D3">
-        <v>0.14</v>
+        <v>0.19</v>
       </c>
       <c r="E3">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="G3">
-        <v>0.66</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="4">
@@ -3841,19 +3841,19 @@
         </is>
       </c>
       <c r="C4">
-        <v>0.49</v>
+        <v>0.46</v>
       </c>
       <c r="D4">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
       <c r="E4">
-        <v>0.63</v>
+        <v>0.64</v>
       </c>
       <c r="F4">
-        <v>0.52</v>
+        <v>0.46</v>
       </c>
       <c r="G4">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="5">
@@ -3874,7 +3874,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>2.9e-07</v>
+        <v>0.00021</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -3901,13 +3901,13 @@
         <v>0.2</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="F6">
-        <v>0.49</v>
+        <v>0.42</v>
       </c>
       <c r="G6">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="7">
@@ -3922,19 +3922,19 @@
         </is>
       </c>
       <c r="C7">
-        <v>0.42</v>
+        <v>0.36</v>
       </c>
       <c r="D7">
-        <v>0.13</v>
+        <v>0.055</v>
       </c>
       <c r="E7">
         <v>1.1</v>
       </c>
       <c r="F7">
-        <v>0.33</v>
+        <v>0.27</v>
       </c>
       <c r="G7">
-        <v>0.68</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="8">
@@ -3949,19 +3949,19 @@
         </is>
       </c>
       <c r="C8">
-        <v>0.76</v>
+        <v>0.96</v>
       </c>
       <c r="D8">
-        <v>0.64</v>
+        <v>0.95</v>
       </c>
       <c r="E8">
-        <v>0.5</v>
+        <v>0.34</v>
       </c>
       <c r="F8">
-        <v>0.88</v>
+        <v>0.97</v>
       </c>
       <c r="G8">
-        <v>0.84</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="9">
@@ -3976,19 +3976,19 @@
         </is>
       </c>
       <c r="C9">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="D9">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="E9">
+        <v>0.65</v>
+      </c>
+      <c r="F9">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G9">
         <v>0.64</v>
-      </c>
-      <c r="F9">
-        <v>0.61</v>
-      </c>
-      <c r="G9">
-        <v>0.62</v>
       </c>
     </row>
     <row r="10">
@@ -4003,19 +4003,19 @@
         </is>
       </c>
       <c r="C10">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="D10">
-        <v>0.22</v>
+        <v>0.17</v>
       </c>
       <c r="E10">
-        <v>0.64</v>
+        <v>0.66</v>
       </c>
       <c r="F10">
-        <v>0.52</v>
+        <v>0.46</v>
       </c>
       <c r="G10">
-        <v>0.74</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="11">
@@ -4030,19 +4030,19 @@
         </is>
       </c>
       <c r="C11">
-        <v>0.54</v>
+        <v>0.48</v>
       </c>
       <c r="D11">
-        <v>0.32</v>
+        <v>0.21</v>
       </c>
       <c r="E11">
-        <v>0.57</v>
+        <v>0.61</v>
       </c>
       <c r="F11">
-        <v>0.55</v>
+        <v>0.65</v>
       </c>
       <c r="G11">
-        <v>0.79</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="12">
@@ -4057,19 +4057,19 @@
         </is>
       </c>
       <c r="C12">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="D12">
-        <v>0.059</v>
+        <v>0.13</v>
       </c>
       <c r="E12">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
       <c r="F12">
-        <v>0.39</v>
+        <v>0.49</v>
       </c>
       <c r="G12">
-        <v>0.66</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="13">
@@ -4087,16 +4087,16 @@
         <v>0.36</v>
       </c>
       <c r="D13">
-        <v>0.049</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="E13">
-        <v>0.7</v>
+        <v>0.66</v>
       </c>
       <c r="F13">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
       <c r="G13">
-        <v>0.72</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="14">
@@ -4111,16 +4111,16 @@
         </is>
       </c>
       <c r="C14">
-        <v>0.76</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D14">
-        <v>0.64</v>
+        <v>0.71</v>
       </c>
       <c r="E14">
-        <v>0.34</v>
+        <v>0.3</v>
       </c>
       <c r="F14">
-        <v>0.71</v>
+        <v>0.78</v>
       </c>
       <c r="G14">
         <v>0.9</v>
@@ -4138,19 +4138,19 @@
         </is>
       </c>
       <c r="C15">
+        <v>0.47</v>
+      </c>
+      <c r="D15">
+        <v>0.21</v>
+      </c>
+      <c r="E15">
+        <v>0.82</v>
+      </c>
+      <c r="F15">
         <v>0.46</v>
       </c>
-      <c r="D15">
-        <v>0.19</v>
-      </c>
-      <c r="E15">
-        <v>0.78</v>
-      </c>
-      <c r="F15">
-        <v>0.45</v>
-      </c>
       <c r="G15">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="16">
@@ -4165,19 +4165,19 @@
         </is>
       </c>
       <c r="C16">
-        <v>0.46</v>
+        <v>0.44</v>
       </c>
       <c r="D16">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="E16">
-        <v>0.76</v>
+        <v>0.84</v>
       </c>
       <c r="F16">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
       <c r="G16">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="17">
@@ -4192,16 +4192,16 @@
         </is>
       </c>
       <c r="C17">
-        <v>0.68</v>
+        <v>0.67</v>
       </c>
       <c r="D17">
         <v>0.51</v>
       </c>
       <c r="E17">
-        <v>0.58</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F17">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
       <c r="G17">
         <v>0.8100000000000001</v>
@@ -4219,19 +4219,19 @@
         </is>
       </c>
       <c r="C18">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="D18">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="E18">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="F18">
-        <v>0.55</v>
+        <v>0.51</v>
       </c>
       <c r="G18">
-        <v>0.66</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="19">
@@ -4246,19 +4246,19 @@
         </is>
       </c>
       <c r="C19">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
       <c r="D19">
-        <v>0.079</v>
+        <v>0.1</v>
       </c>
       <c r="E19">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="F19">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="G19">
-        <v>0.68</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="20">
@@ -4273,19 +4273,19 @@
         </is>
       </c>
       <c r="C20">
-        <v>0.85</v>
+        <v>0.82</v>
       </c>
       <c r="D20">
-        <v>0.77</v>
+        <v>0.72</v>
       </c>
       <c r="E20">
-        <v>0.24</v>
+        <v>0.32</v>
       </c>
       <c r="F20">
-        <v>0.82</v>
+        <v>0.79</v>
       </c>
       <c r="G20">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="21">
@@ -4300,19 +4300,19 @@
         </is>
       </c>
       <c r="C21">
-        <v>0.47</v>
+        <v>0.49</v>
       </c>
       <c r="D21">
-        <v>0.21</v>
+        <v>0.23</v>
       </c>
       <c r="E21">
-        <v>0.86</v>
+        <v>0.74</v>
       </c>
       <c r="F21">
-        <v>0.48</v>
+        <v>0.49</v>
       </c>
       <c r="G21">
-        <v>0.66</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="22">
@@ -4327,19 +4327,19 @@
         </is>
       </c>
       <c r="C22">
-        <v>0.38</v>
+        <v>0.42</v>
       </c>
       <c r="D22">
-        <v>0.074</v>
+        <v>0.14</v>
       </c>
       <c r="E22">
-        <v>0.97</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F22">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="G22">
-        <v>0.68</v>
+        <v>0.78</v>
       </c>
     </row>
   </sheetData>
@@ -4982,7 +4982,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>alpine skiing/snowboarding, ski touring/freeride, cross-country skiing, sledding, ice climbing, hiking, climbing, mountaineering, biking, air sport, water sport, other</t>
+          <t>alpine skiing/snowboarding, ski touring/freeride, cross-country skiing, sledding, ice climbing, hiking, climbing, mountaineering, biking, air sports, water sports, other</t>
         </is>
       </c>
     </row>
@@ -6225,7 +6225,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>PHQ-9 score ≥ 11 points, clinically relevant depressive symptoms</t>
+          <t>PHQ-9 score ≥ 10 points, clinically relevant depressive symptoms</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -6367,12 +6367,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>clinically relevant somatizaton symptoms (PHQ-15 ≥11)</t>
+          <t>clinically relevant somatizaton symptoms (PHQ-15 ≥10)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>PHQ-15 score ≥ 11 points, clinically relevant somatization symptoms</t>
+          <t>PHQ-15 score ≥ 10 points, clinically relevant somatization symptoms</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -6967,7 +6967,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>PHQ-9 score ≥ 11 points, clinically relevant depressive symptoms</t>
+          <t>PHQ-9 score ≥ 10 points, clinically relevant depressive symptoms</t>
         </is>
       </c>
     </row>
@@ -7064,12 +7064,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>clinically relevant somatizaton symptoms (PHQ-15 ≥11)</t>
+          <t>clinically relevant somatizaton symptoms (PHQ-15 ≥10)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>PHQ-15 score ≥ 11 points, clinically relevant somatization symptoms</t>
+          <t>PHQ-15 score ≥ 10 points, clinically relevant somatization symptoms</t>
         </is>
       </c>
     </row>
@@ -7422,35 +7422,35 @@
       <c r="B2" t="inlineStr">
         <is>
           <t>alpine skiing/snowboarding: 59% (n = 180)
-ski touring/freeride: 2.9% (n = 9)
-cross-country skiing: 5.5% (n = 17)
-sledding: 3.9% (n = 12)
+ski touring/freeride: 3% (n = 9)
+cross-country skiing: 5.6% (n = 17)
+sledding: 4% (n = 12)
 ice climbing: 0.33% (n = 1)
-hiking: 5.5% (n = 17)
+hiking: 5.6% (n = 17)
 climbing: 3.6% (n = 11)
-mountaineering: 0.65% (n = 2)
+mountaineering: 0.66% (n = 2)
 biking: 16% (n = 48)
-air sport: 0.33% (n = 1)
-water sport: 1.6% (n = 5)
+air sports: 0.33% (n = 1)
+water sports: 0.33% (n = 1)
 other: 1.3% (n = 4)
-n = 307</t>
+n = 303</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>alpine skiing/snowboarding: 50% (n = 2089)
-ski touring/freeride: 2.5% (n = 105)
+          <t>alpine skiing/snowboarding: 51% (n = 2089)
+ski touring/freeride: 2.6% (n = 105)
 cross-country skiing: 2.1% (n = 87)
 sledding: 4.8% (n = 198)
-ice climbing: 0.14% (n = 6)
+ice climbing: 0.15% (n = 6)
 hiking: 5.1% (n = 211)
-climbing: 2.6% (n = 110)
+climbing: 2.7% (n = 110)
 mountaineering: 0.41% (n = 17)
 biking: 27% (n = 1127)
-air sport: 0.17% (n = 7)
-water sport: 1.7% (n = 72)
-other: 3.3% (n = 139)
-n = 4168</t>
+air sports: 0.17% (n = 7)
+water sports: 0.15% (n = 6)
+other: 3.4% (n = 139)
+n = 4102</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -7460,7 +7460,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>V = 0.094</t>
+          <t>V = 0.096</t>
         </is>
       </c>
     </row>
